--- a/GroundTruth.xlsx
+++ b/GroundTruth.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suruchi/Documents/MSc Artificial Intelligence/Artificial Intelligence Project/UniversalAdversarialChallenges-AutonomousVehicles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48ECC3D-8AD6-AA44-B7F4-CB15DE09FF5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AACCC52-DFF9-954E-969A-6D6510318DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="17040" xr2:uid="{E9FA8BCC-3C24-E14A-8C2A-C02BE4E3E8A8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ground Truth" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Art in Surroundings" sheetId="3" r:id="rId1"/>
+    <sheet name="Vehicles Art and Textures" sheetId="5" r:id="rId2"/>
+    <sheet name="On-road Scenarios" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1082">
   <si>
     <t>person</t>
   </si>
@@ -276,405 +278,6 @@
     <t>toothbrush</t>
   </si>
   <si>
-    <t>FU40Z</t>
-  </si>
-  <si>
-    <t>INNAJ</t>
-  </si>
-  <si>
-    <t>9LWVM</t>
-  </si>
-  <si>
-    <t>MK5A9</t>
-  </si>
-  <si>
-    <t>4YJ4H</t>
-  </si>
-  <si>
-    <t>QY549</t>
-  </si>
-  <si>
-    <t>CFPGV</t>
-  </si>
-  <si>
-    <t>GX1SG</t>
-  </si>
-  <si>
-    <t>PK8MB</t>
-  </si>
-  <si>
-    <t>096V6</t>
-  </si>
-  <si>
-    <t>FD9OA</t>
-  </si>
-  <si>
-    <t>Z1D99</t>
-  </si>
-  <si>
-    <t>JX5BQ</t>
-  </si>
-  <si>
-    <t>S1XMB</t>
-  </si>
-  <si>
-    <t>82VHT</t>
-  </si>
-  <si>
-    <t>J1GI4</t>
-  </si>
-  <si>
-    <t>PW0J2</t>
-  </si>
-  <si>
-    <t>DZIEW</t>
-  </si>
-  <si>
-    <t>LSFV6</t>
-  </si>
-  <si>
-    <t>TJEJU</t>
-  </si>
-  <si>
-    <t>Y2GZE</t>
-  </si>
-  <si>
-    <t>I7UIB</t>
-  </si>
-  <si>
-    <t>YPYCK</t>
-  </si>
-  <si>
-    <t>3DYZB</t>
-  </si>
-  <si>
-    <t>05EL9</t>
-  </si>
-  <si>
-    <t>CORBN</t>
-  </si>
-  <si>
-    <t>02R1K</t>
-  </si>
-  <si>
-    <t>YNQJ6</t>
-  </si>
-  <si>
-    <t>ERXAK</t>
-  </si>
-  <si>
-    <t>628DU</t>
-  </si>
-  <si>
-    <t>KHF2Y</t>
-  </si>
-  <si>
-    <t>5XG42</t>
-  </si>
-  <si>
-    <t>C5ZX5</t>
-  </si>
-  <si>
-    <t>CXVZW</t>
-  </si>
-  <si>
-    <t>DKTCQ</t>
-  </si>
-  <si>
-    <t>G2Q1G</t>
-  </si>
-  <si>
-    <t>OO6M5</t>
-  </si>
-  <si>
-    <t>IL69D</t>
-  </si>
-  <si>
-    <t>4W6FJ</t>
-  </si>
-  <si>
-    <t>ICUCJ</t>
-  </si>
-  <si>
-    <t>NOKAL</t>
-  </si>
-  <si>
-    <t>C7I4B</t>
-  </si>
-  <si>
-    <t>3MGEX</t>
-  </si>
-  <si>
-    <t>4BPUZ</t>
-  </si>
-  <si>
-    <t>ZY8PX</t>
-  </si>
-  <si>
-    <t>BUA50</t>
-  </si>
-  <si>
-    <t>8JE0S</t>
-  </si>
-  <si>
-    <t>BK35C</t>
-  </si>
-  <si>
-    <t>OG7QK</t>
-  </si>
-  <si>
-    <t>1SPV2</t>
-  </si>
-  <si>
-    <t>RQWFD</t>
-  </si>
-  <si>
-    <t>3SZ6Y</t>
-  </si>
-  <si>
-    <t>NFGAM</t>
-  </si>
-  <si>
-    <t>MHVGI</t>
-  </si>
-  <si>
-    <t>0MEL5</t>
-  </si>
-  <si>
-    <t>UHN7G</t>
-  </si>
-  <si>
-    <t>0OWQZ</t>
-  </si>
-  <si>
-    <t>NDJ0T</t>
-  </si>
-  <si>
-    <t>GKXEH</t>
-  </si>
-  <si>
-    <t>JC2WV</t>
-  </si>
-  <si>
-    <t>8UBDC</t>
-  </si>
-  <si>
-    <t>2E9RV</t>
-  </si>
-  <si>
-    <t>OHSNW</t>
-  </si>
-  <si>
-    <t>YQ9BL</t>
-  </si>
-  <si>
-    <t>N1498</t>
-  </si>
-  <si>
-    <t>CQOZ0</t>
-  </si>
-  <si>
-    <t>HLZEB</t>
-  </si>
-  <si>
-    <t>TDCLD</t>
-  </si>
-  <si>
-    <t>L2SL2</t>
-  </si>
-  <si>
-    <t>SBSB2</t>
-  </si>
-  <si>
-    <t>CBBLI</t>
-  </si>
-  <si>
-    <t>JAUUK</t>
-  </si>
-  <si>
-    <t>LD6UT</t>
-  </si>
-  <si>
-    <t>H6H8M</t>
-  </si>
-  <si>
-    <t>83A7F</t>
-  </si>
-  <si>
-    <t>XP62Z</t>
-  </si>
-  <si>
-    <t>3M1NY</t>
-  </si>
-  <si>
-    <t>VZZV0</t>
-  </si>
-  <si>
-    <t>EEU4R</t>
-  </si>
-  <si>
-    <t>HN6JA</t>
-  </si>
-  <si>
-    <t>YWOZE</t>
-  </si>
-  <si>
-    <t>EQLA2</t>
-  </si>
-  <si>
-    <t>OUJYN</t>
-  </si>
-  <si>
-    <t>8WC46</t>
-  </si>
-  <si>
-    <t>RUZ91</t>
-  </si>
-  <si>
-    <t>Q1WZS</t>
-  </si>
-  <si>
-    <t>65AUH</t>
-  </si>
-  <si>
-    <t>5LP27</t>
-  </si>
-  <si>
-    <t>HZOL3</t>
-  </si>
-  <si>
-    <t>9RGCC</t>
-  </si>
-  <si>
-    <t>BCXTH</t>
-  </si>
-  <si>
-    <t>O96CM</t>
-  </si>
-  <si>
-    <t>DH4CG</t>
-  </si>
-  <si>
-    <t>IR4R2</t>
-  </si>
-  <si>
-    <t>WHW0S</t>
-  </si>
-  <si>
-    <t>YRNBX</t>
-  </si>
-  <si>
-    <t>NCRUZ</t>
-  </si>
-  <si>
-    <t>N0TA1</t>
-  </si>
-  <si>
-    <t>KHKD1</t>
-  </si>
-  <si>
-    <t>S4MAL</t>
-  </si>
-  <si>
-    <t>PPNIY</t>
-  </si>
-  <si>
-    <t>6RIEC</t>
-  </si>
-  <si>
-    <t>LB3XS</t>
-  </si>
-  <si>
-    <t>TEKH3</t>
-  </si>
-  <si>
-    <t>WEKY0</t>
-  </si>
-  <si>
-    <t>0W21G</t>
-  </si>
-  <si>
-    <t>A4J81</t>
-  </si>
-  <si>
-    <t>9GMSO</t>
-  </si>
-  <si>
-    <t>OAJP0</t>
-  </si>
-  <si>
-    <t>ENQVW</t>
-  </si>
-  <si>
-    <t>ISNWU</t>
-  </si>
-  <si>
-    <t>PXWW5</t>
-  </si>
-  <si>
-    <t>3W7BB</t>
-  </si>
-  <si>
-    <t>9NS1Q</t>
-  </si>
-  <si>
-    <t>SHTY5</t>
-  </si>
-  <si>
-    <t>32RSR</t>
-  </si>
-  <si>
-    <t>NAKQ2</t>
-  </si>
-  <si>
-    <t>UNXGZ</t>
-  </si>
-  <si>
-    <t>DE4PQ</t>
-  </si>
-  <si>
-    <t>U97X0</t>
-  </si>
-  <si>
-    <t>2J0V8</t>
-  </si>
-  <si>
-    <t>S8EJ7</t>
-  </si>
-  <si>
-    <t>2FZEL</t>
-  </si>
-  <si>
-    <t>ZAS40</t>
-  </si>
-  <si>
-    <t>FJEUM</t>
-  </si>
-  <si>
-    <t>H19FC</t>
-  </si>
-  <si>
-    <t>UTH6P</t>
-  </si>
-  <si>
-    <t>N3B0P</t>
-  </si>
-  <si>
-    <t>PXCSQ</t>
-  </si>
-  <si>
-    <t>IRX31</t>
-  </si>
-  <si>
-    <t>HPMQZ</t>
-  </si>
-  <si>
-    <t>40Y8A</t>
-  </si>
-  <si>
-    <t>67I47</t>
-  </si>
-  <si>
     <t>SYGLH</t>
   </si>
   <si>
@@ -3280,6 +2883,405 @@
   </si>
   <si>
     <t>Image</t>
+  </si>
+  <si>
+    <t>FU40Z.jpg</t>
+  </si>
+  <si>
+    <t>INNAJ.jpg</t>
+  </si>
+  <si>
+    <t>9LWVM.jpg</t>
+  </si>
+  <si>
+    <t>MK5A9.jpg</t>
+  </si>
+  <si>
+    <t>4YJ4H.jpg</t>
+  </si>
+  <si>
+    <t>QY549.jpg</t>
+  </si>
+  <si>
+    <t>CFPGV.jpg</t>
+  </si>
+  <si>
+    <t>GX1SG.jpg</t>
+  </si>
+  <si>
+    <t>PK8MB.jpg</t>
+  </si>
+  <si>
+    <t>096V6.jpg</t>
+  </si>
+  <si>
+    <t>FD9OA.jpg</t>
+  </si>
+  <si>
+    <t>Z1D99.jpg</t>
+  </si>
+  <si>
+    <t>JX5BQ.jpg</t>
+  </si>
+  <si>
+    <t>S1XMB.jpg</t>
+  </si>
+  <si>
+    <t>82VHT.jpg</t>
+  </si>
+  <si>
+    <t>J1GI4.jpg</t>
+  </si>
+  <si>
+    <t>PW0J2.jpg</t>
+  </si>
+  <si>
+    <t>DZIEW.jpg</t>
+  </si>
+  <si>
+    <t>LSFV6.jpg</t>
+  </si>
+  <si>
+    <t>TJEJU.jpg</t>
+  </si>
+  <si>
+    <t>Y2GZE.jpg</t>
+  </si>
+  <si>
+    <t>I7UIB.jpg</t>
+  </si>
+  <si>
+    <t>YPYCK.jpg</t>
+  </si>
+  <si>
+    <t>3DYZB.jpg</t>
+  </si>
+  <si>
+    <t>05EL9.jpg</t>
+  </si>
+  <si>
+    <t>CORBN.jpg</t>
+  </si>
+  <si>
+    <t>02R1K.jpg</t>
+  </si>
+  <si>
+    <t>YNQJ6.jpg</t>
+  </si>
+  <si>
+    <t>ERXAK.jpg</t>
+  </si>
+  <si>
+    <t>628DU.jpg</t>
+  </si>
+  <si>
+    <t>KHF2Y.jpg</t>
+  </si>
+  <si>
+    <t>5XG42.jpg</t>
+  </si>
+  <si>
+    <t>C5ZX5.jpg</t>
+  </si>
+  <si>
+    <t>CXVZW.jpg</t>
+  </si>
+  <si>
+    <t>DKTCQ.jpg</t>
+  </si>
+  <si>
+    <t>G2Q1G.jpg</t>
+  </si>
+  <si>
+    <t>OO6M5.jpg</t>
+  </si>
+  <si>
+    <t>IL69D.jpg</t>
+  </si>
+  <si>
+    <t>4W6FJ.jpg</t>
+  </si>
+  <si>
+    <t>ICUCJ.jpg</t>
+  </si>
+  <si>
+    <t>NOKAL.jpg</t>
+  </si>
+  <si>
+    <t>C7I4B.jpg</t>
+  </si>
+  <si>
+    <t>3MGEX.jpg</t>
+  </si>
+  <si>
+    <t>4BPUZ.jpg</t>
+  </si>
+  <si>
+    <t>ZY8PX.jpg</t>
+  </si>
+  <si>
+    <t>BUA50.jpg</t>
+  </si>
+  <si>
+    <t>8JE0S.jpg</t>
+  </si>
+  <si>
+    <t>BK35C.jpg</t>
+  </si>
+  <si>
+    <t>OG7QK.jpg</t>
+  </si>
+  <si>
+    <t>1SPV2.jpg</t>
+  </si>
+  <si>
+    <t>RQWFD.jpg</t>
+  </si>
+  <si>
+    <t>3SZ6Y.jpg</t>
+  </si>
+  <si>
+    <t>NFGAM.jpg</t>
+  </si>
+  <si>
+    <t>MHVGI.jpeg</t>
+  </si>
+  <si>
+    <t>0MEL5.jpg</t>
+  </si>
+  <si>
+    <t>UHN7G.jpg</t>
+  </si>
+  <si>
+    <t>0OWQZ.jpeg</t>
+  </si>
+  <si>
+    <t>NDJ0T.jpg</t>
+  </si>
+  <si>
+    <t>GKXEH.jpg</t>
+  </si>
+  <si>
+    <t>JC2WV.jpg</t>
+  </si>
+  <si>
+    <t>8UBDC.jpg</t>
+  </si>
+  <si>
+    <t>2E9RV.jpg</t>
+  </si>
+  <si>
+    <t>OHSNW.jpg</t>
+  </si>
+  <si>
+    <t>YQ9BL.jpg</t>
+  </si>
+  <si>
+    <t>N1498.jpg</t>
+  </si>
+  <si>
+    <t>CQOZ0.jpg</t>
+  </si>
+  <si>
+    <t>HLZEB.jpg</t>
+  </si>
+  <si>
+    <t>TDCLD.jpg</t>
+  </si>
+  <si>
+    <t>L2SL2.jpg</t>
+  </si>
+  <si>
+    <t>SBSB2.jpg</t>
+  </si>
+  <si>
+    <t>CBBLI.jpg</t>
+  </si>
+  <si>
+    <t>JAUUK.jpg</t>
+  </si>
+  <si>
+    <t>LD6UT.jpg</t>
+  </si>
+  <si>
+    <t>H6H8M.jpg</t>
+  </si>
+  <si>
+    <t>83A7F.jpg</t>
+  </si>
+  <si>
+    <t>XP62Z.jpg</t>
+  </si>
+  <si>
+    <t>3M1NY.jpg</t>
+  </si>
+  <si>
+    <t>VZZV0.jpg</t>
+  </si>
+  <si>
+    <t>EEU4R.jpg</t>
+  </si>
+  <si>
+    <t>HN6JA.jpg</t>
+  </si>
+  <si>
+    <t>YWOZE.jpg</t>
+  </si>
+  <si>
+    <t>EQLA2.jpg</t>
+  </si>
+  <si>
+    <t>OUJYN.jpg</t>
+  </si>
+  <si>
+    <t>8WC46.jpg</t>
+  </si>
+  <si>
+    <t>RUZ91.jpg</t>
+  </si>
+  <si>
+    <t>Q1WZS.jpg</t>
+  </si>
+  <si>
+    <t>65AUH.jpg</t>
+  </si>
+  <si>
+    <t>5LP27.jpg</t>
+  </si>
+  <si>
+    <t>HZOL3.jpg</t>
+  </si>
+  <si>
+    <t>9RGCC.jpg</t>
+  </si>
+  <si>
+    <t>BCXTH.jpg</t>
+  </si>
+  <si>
+    <t>O96CM.jpg</t>
+  </si>
+  <si>
+    <t>DH4CG.jpg</t>
+  </si>
+  <si>
+    <t>IR4R2.jpg</t>
+  </si>
+  <si>
+    <t>WHW0S.jpg</t>
+  </si>
+  <si>
+    <t>YRNBX.jpg</t>
+  </si>
+  <si>
+    <t>NCRUZ.jpg</t>
+  </si>
+  <si>
+    <t>N0TA1.jpg</t>
+  </si>
+  <si>
+    <t>KHKD1.jpg</t>
+  </si>
+  <si>
+    <t>S4MAL.jpg</t>
+  </si>
+  <si>
+    <t>PPNIY.jpg</t>
+  </si>
+  <si>
+    <t>6RIEC.jpg</t>
+  </si>
+  <si>
+    <t>LB3XS.jpg</t>
+  </si>
+  <si>
+    <t>TEKH3.jpg</t>
+  </si>
+  <si>
+    <t>WEKY0.jpg</t>
+  </si>
+  <si>
+    <t>0W21G.jpeg</t>
+  </si>
+  <si>
+    <t>A4J81.jpg</t>
+  </si>
+  <si>
+    <t>9GMSO.jpg</t>
+  </si>
+  <si>
+    <t>OAJP0.jpeg</t>
+  </si>
+  <si>
+    <t>ENQVW.jpg</t>
+  </si>
+  <si>
+    <t>ISNWU.jpg</t>
+  </si>
+  <si>
+    <t>PXWW5.jpg</t>
+  </si>
+  <si>
+    <t>3W7BB.jpg</t>
+  </si>
+  <si>
+    <t>9NS1Q.jpg</t>
+  </si>
+  <si>
+    <t>SHTY5.jpg</t>
+  </si>
+  <si>
+    <t>32RSR.jpg</t>
+  </si>
+  <si>
+    <t>NAKQ2.jpg</t>
+  </si>
+  <si>
+    <t>UNXGZ.jpg</t>
+  </si>
+  <si>
+    <t>DE4PQ.jpg</t>
+  </si>
+  <si>
+    <t>U97X0.jpg</t>
+  </si>
+  <si>
+    <t>2J0V8.jpg</t>
+  </si>
+  <si>
+    <t>S8EJ7.jpg</t>
+  </si>
+  <si>
+    <t>2FZEL.jpg</t>
+  </si>
+  <si>
+    <t>ZAS40.jpg</t>
+  </si>
+  <si>
+    <t>FJEUM.jpg</t>
+  </si>
+  <si>
+    <t>H19FC.jpg</t>
+  </si>
+  <si>
+    <t>UTH6P.jpg</t>
+  </si>
+  <si>
+    <t>N3B0P.jpg</t>
+  </si>
+  <si>
+    <t>PXCSQ.jpg</t>
+  </si>
+  <si>
+    <t>IRX31.jpg</t>
+  </si>
+  <si>
+    <t>HPMQZ.jpg</t>
+  </si>
+  <si>
+    <t>40Y8A.jpg</t>
+  </si>
+  <si>
+    <t>67I47.jpg</t>
   </si>
 </sst>
 </file>
@@ -3638,18 +3640,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F23698F-6E01-E041-A7A3-561430F97E46}">
-  <dimension ref="A1:CC128"/>
+  <dimension ref="A1:CC237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A128" sqref="A128"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A222" sqref="A222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1081</v>
+        <v>948</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3894,7 +3896,7 @@
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>953</v>
+        <v>820</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -3902,7 +3904,7 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>954</v>
+        <v>821</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3910,25 +3912,25 @@
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>955</v>
+        <v>822</v>
       </c>
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>957</v>
+        <v>824</v>
       </c>
       <c r="B5" t="s">
-        <v>956</v>
+        <v>823</v>
       </c>
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>958</v>
+        <v>825</v>
       </c>
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>959</v>
+        <v>826</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -3936,17 +3938,17 @@
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>960</v>
+        <v>827</v>
       </c>
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>961</v>
+        <v>828</v>
       </c>
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>962</v>
+        <v>829</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3954,32 +3956,32 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>963</v>
+        <v>830</v>
       </c>
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>964</v>
+        <v>831</v>
       </c>
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>965</v>
+        <v>832</v>
       </c>
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>966</v>
+        <v>833</v>
       </c>
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>967</v>
+        <v>834</v>
       </c>
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>968</v>
+        <v>835</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -3987,12 +3989,12 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>969</v>
+        <v>836</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>970</v>
+        <v>837</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -4000,12 +4002,12 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>971</v>
+        <v>838</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>972</v>
+        <v>839</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -4013,12 +4015,12 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>973</v>
+        <v>840</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>974</v>
+        <v>841</v>
       </c>
       <c r="B22">
         <v>9</v>
@@ -4026,12 +4028,12 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>975</v>
+        <v>842</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>976</v>
+        <v>843</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4039,7 +4041,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>977</v>
+        <v>844</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -4047,7 +4049,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>978</v>
+        <v>845</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -4055,7 +4057,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>979</v>
+        <v>846</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -4063,27 +4065,27 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>980</v>
+        <v>847</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>981</v>
+        <v>848</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>982</v>
+        <v>849</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>983</v>
+        <v>850</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>984</v>
+        <v>851</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -4091,22 +4093,22 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>985</v>
+        <v>852</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>986</v>
+        <v>853</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>987</v>
+        <v>854</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>988</v>
+        <v>855</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4120,17 +4122,17 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>989</v>
+        <v>856</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>990</v>
+        <v>857</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>991</v>
+        <v>858</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4138,72 +4140,72 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>992</v>
+        <v>859</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>993</v>
+        <v>860</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>994</v>
+        <v>861</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>995</v>
+        <v>862</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>996</v>
+        <v>863</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>997</v>
+        <v>864</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>998</v>
+        <v>865</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>999</v>
+        <v>866</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1000</v>
+        <v>867</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1001</v>
+        <v>868</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1002</v>
+        <v>869</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1003</v>
+        <v>870</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1004</v>
+        <v>871</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1005</v>
+        <v>872</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4211,162 +4213,162 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1006</v>
+        <v>873</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1007</v>
+        <v>874</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1008</v>
+        <v>875</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1009</v>
+        <v>876</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1010</v>
+        <v>877</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1011</v>
+        <v>878</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1012</v>
+        <v>879</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1013</v>
+        <v>880</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1014</v>
+        <v>881</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1015</v>
+        <v>882</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1016</v>
+        <v>883</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1017</v>
+        <v>884</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1018</v>
+        <v>885</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1019</v>
+        <v>886</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1020</v>
+        <v>887</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1021</v>
+        <v>888</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1022</v>
+        <v>889</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1023</v>
+        <v>890</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1024</v>
+        <v>891</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1025</v>
+        <v>892</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1026</v>
+        <v>893</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1027</v>
+        <v>894</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1028</v>
+        <v>895</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1029</v>
+        <v>896</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1030</v>
+        <v>897</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1031</v>
+        <v>898</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1032</v>
+        <v>899</v>
       </c>
     </row>
     <row r="81" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1033</v>
+        <v>900</v>
       </c>
     </row>
     <row r="82" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1034</v>
+        <v>901</v>
       </c>
     </row>
     <row r="83" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1035</v>
+        <v>902</v>
       </c>
     </row>
     <row r="84" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1036</v>
+        <v>903</v>
       </c>
     </row>
     <row r="85" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1037</v>
+        <v>904</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -4374,7 +4376,7 @@
     </row>
     <row r="86" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1038</v>
+        <v>905</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4382,22 +4384,22 @@
     </row>
     <row r="87" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1039</v>
+        <v>906</v>
       </c>
     </row>
     <row r="88" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1040</v>
+        <v>907</v>
       </c>
     </row>
     <row r="89" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1041</v>
+        <v>908</v>
       </c>
     </row>
     <row r="90" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1042</v>
+        <v>909</v>
       </c>
       <c r="BH90">
         <v>2</v>
@@ -4405,22 +4407,22 @@
     </row>
     <row r="91" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1043</v>
+        <v>910</v>
       </c>
     </row>
     <row r="92" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1044</v>
+        <v>911</v>
       </c>
     </row>
     <row r="93" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1045</v>
+        <v>912</v>
       </c>
     </row>
     <row r="94" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1046</v>
+        <v>913</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -4428,27 +4430,27 @@
     </row>
     <row r="95" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1047</v>
+        <v>914</v>
       </c>
     </row>
     <row r="96" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1048</v>
+        <v>915</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1049</v>
+        <v>916</v>
       </c>
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1050</v>
+        <v>917</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1051</v>
+        <v>918</v>
       </c>
       <c r="B99">
         <v>7</v>
@@ -4456,17 +4458,17 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1052</v>
+        <v>919</v>
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1053</v>
+        <v>920</v>
       </c>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1054</v>
+        <v>921</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -4474,12 +4476,12 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1055</v>
+        <v>922</v>
       </c>
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1056</v>
+        <v>923</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -4490,17 +4492,17 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1057</v>
+        <v>924</v>
       </c>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1058</v>
+        <v>925</v>
       </c>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1059</v>
+        <v>926</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4508,27 +4510,27 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1060</v>
+        <v>927</v>
       </c>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1061</v>
+        <v>928</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1062</v>
+        <v>929</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1063</v>
+        <v>930</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1064</v>
+        <v>931</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -4536,82 +4538,696 @@
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1065</v>
+        <v>932</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1066</v>
+        <v>933</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1067</v>
+        <v>934</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1068</v>
+        <v>935</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1069</v>
+        <v>936</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1070</v>
+        <v>937</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1071</v>
+        <v>938</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1072</v>
+        <v>939</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1073</v>
+        <v>940</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1074</v>
+        <v>941</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1075</v>
+        <v>942</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1076</v>
+        <v>943</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1077</v>
+        <v>944</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1078</v>
+        <v>945</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1079</v>
+        <v>946</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="145" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="AL145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="147" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="148" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="149" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="151" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="152" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="153" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="154" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="155" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="156" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="157" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="159" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="160" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="161" spans="1:60" ht="18" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="162" spans="1:60" ht="18" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="163" spans="1:60" ht="18" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="164" spans="1:60" ht="18" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="165" spans="1:60" ht="18" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="166" spans="1:60" ht="18" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="167" spans="1:60" ht="18" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="168" spans="1:60" ht="18" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="169" spans="1:60" ht="18" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="170" spans="1:60" ht="18" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:60" ht="18" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="172" spans="1:60" ht="18" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="173" spans="1:60" ht="18" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="174" spans="1:60" ht="18" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="175" spans="1:60" ht="18" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="BH175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:60" ht="18" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B196">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="209" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="211" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="212" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="214" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="215" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="216" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="AL216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="218" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="219" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="O219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
         <v>1080</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="222" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="223" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="224" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4621,4378 +5237,4557 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC7AE76-5207-2B4B-8203-E570989F039C}">
-  <dimension ref="A2:A874"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0567FE6-4478-824F-981C-52DF783E1141}">
+  <dimension ref="A1:CC39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A874"/>
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>949</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>950</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>951</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>952</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>953</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>954</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="BL7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:81" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:81" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:81" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:81" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:81" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:81" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:81" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:81" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:81" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B28">
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30093D95-D28B-DD42-A703-B59CAF299E47}">
+  <dimension ref="A1:CC3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>955</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:81" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC7AE76-5207-2B4B-8203-E570989F039C}">
+  <dimension ref="A2:A725"/>
+  <sheetViews>
+    <sheetView topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
     </row>
     <row r="276" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
     </row>
     <row r="277" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
     </row>
     <row r="280" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
     </row>
     <row r="282" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
     </row>
     <row r="286" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
     </row>
     <row r="291" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
     </row>
     <row r="299" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
     </row>
     <row r="300" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
     </row>
     <row r="301" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="303" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
     </row>
     <row r="305" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
     </row>
     <row r="306" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
     </row>
     <row r="307" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
     </row>
     <row r="309" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
     </row>
     <row r="310" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
     </row>
     <row r="311" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
     </row>
     <row r="312" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
     </row>
     <row r="315" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
     </row>
     <row r="316" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
     </row>
     <row r="317" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
     </row>
     <row r="318" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
     </row>
     <row r="319" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
     </row>
     <row r="321" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
     </row>
     <row r="323" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
     </row>
     <row r="324" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
     </row>
     <row r="325" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
     </row>
     <row r="327" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
     </row>
     <row r="328" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
     </row>
     <row r="329" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
     </row>
     <row r="330" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
     </row>
     <row r="331" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
     </row>
     <row r="333" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
     </row>
     <row r="334" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
     </row>
     <row r="335" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
     </row>
     <row r="336" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
     </row>
     <row r="337" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
     </row>
     <row r="338" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="339" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
     </row>
     <row r="340" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
     </row>
     <row r="341" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
     </row>
     <row r="342" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
     </row>
     <row r="343" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
     </row>
     <row r="344" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
     </row>
     <row r="345" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
     </row>
     <row r="346" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
     </row>
     <row r="347" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
     </row>
     <row r="348" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
     </row>
     <row r="349" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
     </row>
     <row r="350" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
     </row>
     <row r="351" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
     </row>
     <row r="352" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
     </row>
     <row r="353" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
     </row>
     <row r="354" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
     </row>
     <row r="355" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
     </row>
     <row r="356" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
     </row>
     <row r="357" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
     </row>
     <row r="358" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
     </row>
     <row r="359" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
     </row>
     <row r="360" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
     </row>
     <row r="361" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
     </row>
     <row r="362" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
     </row>
     <row r="363" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
     </row>
     <row r="364" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="365" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
     </row>
     <row r="366" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
     </row>
     <row r="367" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
     </row>
     <row r="368" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
     </row>
     <row r="369" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="370" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
     <row r="371" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="372" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
     </row>
     <row r="373" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
     </row>
     <row r="374" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
     </row>
     <row r="375" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
     </row>
     <row r="376" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
     </row>
     <row r="377" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="378" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
     </row>
     <row r="379" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
     </row>
     <row r="380" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
     </row>
     <row r="381" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="382" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
     </row>
     <row r="383" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
     </row>
     <row r="384" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
     </row>
     <row r="385" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
     </row>
     <row r="386" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="387" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
     </row>
     <row r="388" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
     </row>
     <row r="389" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
     </row>
     <row r="390" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
     </row>
     <row r="391" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
     </row>
     <row r="392" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
     </row>
     <row r="393" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
     </row>
     <row r="394" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
     </row>
     <row r="395" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
     </row>
     <row r="396" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
     </row>
     <row r="397" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
     </row>
     <row r="398" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
     </row>
     <row r="399" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
     </row>
     <row r="400" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
     </row>
     <row r="401" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
     </row>
     <row r="402" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
     </row>
     <row r="403" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="404" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
     </row>
     <row r="405" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
     </row>
     <row r="406" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
     </row>
     <row r="407" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
     </row>
     <row r="408" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
     </row>
     <row r="409" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
     </row>
     <row r="410" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
     </row>
     <row r="411" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
     </row>
     <row r="412" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
     </row>
     <row r="413" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
     </row>
     <row r="414" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
     </row>
     <row r="415" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
     </row>
     <row r="416" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
     </row>
     <row r="417" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
     </row>
     <row r="418" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="419" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
     </row>
     <row r="420" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
     </row>
     <row r="421" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
     </row>
     <row r="422" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
     </row>
     <row r="423" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
     </row>
     <row r="424" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
     </row>
     <row r="425" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
     </row>
     <row r="426" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
     </row>
     <row r="427" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
     </row>
     <row r="428" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
     </row>
     <row r="429" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
     </row>
     <row r="430" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
     </row>
     <row r="431" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
     </row>
     <row r="432" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
     </row>
     <row r="433" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
     </row>
     <row r="434" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
     </row>
     <row r="435" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
     </row>
     <row r="436" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
     </row>
     <row r="437" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
     </row>
     <row r="438" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
     </row>
     <row r="439" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
     </row>
     <row r="440" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
     </row>
     <row r="441" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
     </row>
     <row r="442" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
     </row>
     <row r="443" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
     </row>
     <row r="444" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
     </row>
     <row r="445" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
     </row>
     <row r="446" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
     </row>
     <row r="447" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
     </row>
     <row r="448" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
     </row>
     <row r="449" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
     </row>
     <row r="450" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
     </row>
     <row r="451" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
     </row>
     <row r="452" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
     </row>
     <row r="453" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
     </row>
     <row r="454" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
     </row>
     <row r="455" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
     </row>
     <row r="456" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
     </row>
     <row r="457" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
     </row>
     <row r="458" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
     </row>
     <row r="459" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
     </row>
     <row r="460" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
     </row>
     <row r="461" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
     </row>
     <row r="462" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
     </row>
     <row r="463" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
     </row>
     <row r="464" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
     </row>
     <row r="465" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
     </row>
     <row r="466" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
     </row>
     <row r="467" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
     </row>
     <row r="468" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
     </row>
     <row r="469" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
     </row>
     <row r="470" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
     </row>
     <row r="471" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
     </row>
     <row r="472" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
     </row>
     <row r="473" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
     </row>
     <row r="474" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
     </row>
     <row r="475" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
     </row>
     <row r="476" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
     </row>
     <row r="477" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
     </row>
     <row r="478" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>556</v>
+        <v>572</v>
       </c>
     </row>
     <row r="479" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
     </row>
     <row r="480" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
     </row>
     <row r="481" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
     </row>
     <row r="482" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
     </row>
     <row r="483" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
     </row>
     <row r="484" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>562</v>
+        <v>578</v>
       </c>
     </row>
     <row r="485" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
     </row>
     <row r="486" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
     </row>
     <row r="487" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
     </row>
     <row r="488" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>566</v>
+        <v>582</v>
       </c>
     </row>
     <row r="489" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
     </row>
     <row r="490" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>568</v>
+        <v>584</v>
       </c>
     </row>
     <row r="491" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
     </row>
     <row r="492" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
     </row>
     <row r="493" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
     </row>
     <row r="494" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
     </row>
     <row r="495" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
     </row>
     <row r="496" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
     </row>
     <row r="497" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
     </row>
     <row r="498" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
     </row>
     <row r="499" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
     </row>
     <row r="500" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
     </row>
     <row r="501" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
     </row>
     <row r="502" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
     </row>
     <row r="503" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
     </row>
     <row r="504" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
     </row>
     <row r="505" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
     </row>
     <row r="506" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
     </row>
     <row r="507" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
     </row>
     <row r="508" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
     </row>
     <row r="509" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
     </row>
     <row r="510" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
     </row>
     <row r="511" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
     </row>
     <row r="512" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
     </row>
     <row r="513" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
     </row>
     <row r="514" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
     </row>
     <row r="515" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
     </row>
     <row r="516" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
     </row>
     <row r="517" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
     </row>
     <row r="518" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
     </row>
     <row r="519" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
     </row>
     <row r="520" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
     </row>
     <row r="521" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
     </row>
     <row r="522" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
     </row>
     <row r="523" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
     </row>
     <row r="524" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
     </row>
     <row r="525" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
     </row>
     <row r="526" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
     </row>
     <row r="527" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
     </row>
     <row r="528" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
     </row>
     <row r="529" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
     </row>
     <row r="530" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
     </row>
     <row r="531" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
     </row>
     <row r="532" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
     </row>
     <row r="533" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
     </row>
     <row r="534" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
     </row>
     <row r="535" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
     </row>
     <row r="536" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
     </row>
     <row r="537" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
     </row>
     <row r="538" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
     </row>
     <row r="539" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
     </row>
     <row r="540" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
-        <v>618</v>
+        <v>634</v>
       </c>
     </row>
     <row r="541" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
     </row>
     <row r="542" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
     </row>
     <row r="543" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
     </row>
     <row r="544" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
     </row>
     <row r="545" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
     </row>
     <row r="546" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
     </row>
     <row r="547" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
     </row>
     <row r="548" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
     </row>
     <row r="549" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
     </row>
     <row r="550" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
     </row>
     <row r="551" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
     </row>
     <row r="552" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
     </row>
     <row r="553" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
     </row>
     <row r="554" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
     </row>
     <row r="555" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
     </row>
     <row r="556" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
     </row>
     <row r="557" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
     </row>
     <row r="558" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
     </row>
     <row r="559" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
     </row>
     <row r="560" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
     </row>
     <row r="561" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
     </row>
     <row r="562" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
     </row>
     <row r="563" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
     </row>
     <row r="564" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
     </row>
     <row r="565" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
     </row>
     <row r="566" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
     </row>
     <row r="567" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
     </row>
     <row r="568" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
     </row>
     <row r="569" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
     </row>
     <row r="570" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
     </row>
     <row r="571" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
     </row>
     <row r="572" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
     </row>
     <row r="573" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
     </row>
     <row r="574" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
     </row>
     <row r="575" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
     </row>
     <row r="576" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
     </row>
     <row r="577" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
     </row>
     <row r="578" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
     </row>
     <row r="579" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
     </row>
     <row r="580" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
     </row>
     <row r="581" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
     </row>
     <row r="582" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
     </row>
     <row r="583" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
-        <v>661</v>
+        <v>677</v>
       </c>
     </row>
     <row r="584" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
-        <v>662</v>
+        <v>678</v>
       </c>
     </row>
     <row r="585" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
     </row>
     <row r="586" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
     </row>
     <row r="587" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
     </row>
     <row r="588" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
     </row>
     <row r="589" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
     </row>
     <row r="590" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
     </row>
     <row r="591" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
     </row>
     <row r="592" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
     </row>
     <row r="593" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
     </row>
     <row r="594" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
     </row>
     <row r="595" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
     </row>
     <row r="596" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
     </row>
     <row r="597" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
     </row>
     <row r="598" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
     </row>
     <row r="599" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
     </row>
     <row r="600" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
     </row>
     <row r="601" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
-        <v>679</v>
+        <v>695</v>
       </c>
     </row>
     <row r="602" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
-        <v>680</v>
+        <v>696</v>
       </c>
     </row>
     <row r="603" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
-        <v>681</v>
+        <v>697</v>
       </c>
     </row>
     <row r="604" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
-        <v>682</v>
+        <v>698</v>
       </c>
     </row>
     <row r="605" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
-        <v>683</v>
+        <v>699</v>
       </c>
     </row>
     <row r="606" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
-        <v>684</v>
+        <v>700</v>
       </c>
     </row>
     <row r="607" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
     </row>
     <row r="608" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
     </row>
     <row r="609" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
     </row>
     <row r="610" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
-        <v>688</v>
+        <v>704</v>
       </c>
     </row>
     <row r="611" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
-        <v>689</v>
+        <v>705</v>
       </c>
     </row>
     <row r="612" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
-        <v>690</v>
+        <v>706</v>
       </c>
     </row>
     <row r="613" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
-        <v>691</v>
+        <v>707</v>
       </c>
     </row>
     <row r="614" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
-        <v>692</v>
+        <v>708</v>
       </c>
     </row>
     <row r="615" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
-        <v>693</v>
+        <v>709</v>
       </c>
     </row>
     <row r="616" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
-        <v>694</v>
+        <v>710</v>
       </c>
     </row>
     <row r="617" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
     </row>
     <row r="618" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
     </row>
     <row r="619" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
-        <v>697</v>
+        <v>713</v>
       </c>
     </row>
     <row r="620" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
-        <v>698</v>
+        <v>714</v>
       </c>
     </row>
     <row r="621" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
-        <v>699</v>
+        <v>715</v>
       </c>
     </row>
     <row r="622" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
     </row>
     <row r="623" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
     </row>
     <row r="624" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
     </row>
     <row r="625" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
     </row>
     <row r="626" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
     </row>
     <row r="627" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
     </row>
     <row r="628" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
     </row>
     <row r="629" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
     </row>
     <row r="630" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
     </row>
     <row r="631" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
     </row>
     <row r="632" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
-        <v>710</v>
+        <v>726</v>
       </c>
     </row>
     <row r="633" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
-        <v>711</v>
+        <v>727</v>
       </c>
     </row>
     <row r="634" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
-        <v>712</v>
+        <v>728</v>
       </c>
     </row>
     <row r="635" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
     </row>
     <row r="636" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
-        <v>714</v>
+        <v>730</v>
       </c>
     </row>
     <row r="637" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
     </row>
     <row r="638" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
     </row>
     <row r="639" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
     </row>
     <row r="640" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
     </row>
     <row r="641" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
     </row>
     <row r="642" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
     </row>
     <row r="643" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
     </row>
     <row r="644" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
     </row>
     <row r="645" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
     </row>
     <row r="646" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
     </row>
     <row r="647" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
     </row>
     <row r="648" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
     </row>
     <row r="649" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
     </row>
     <row r="650" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
     </row>
     <row r="651" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
     </row>
     <row r="652" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
     </row>
     <row r="653" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
     </row>
     <row r="654" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
     </row>
     <row r="655" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
     </row>
     <row r="656" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
     </row>
     <row r="657" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
-        <v>735</v>
+        <v>751</v>
       </c>
     </row>
     <row r="658" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
     </row>
     <row r="659" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
     </row>
     <row r="660" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
     </row>
     <row r="661" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
     </row>
     <row r="662" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
     </row>
     <row r="663" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
     </row>
     <row r="664" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
     </row>
     <row r="665" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
     </row>
     <row r="666" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
     </row>
     <row r="667" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
     </row>
     <row r="668" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
     </row>
     <row r="669" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
     </row>
     <row r="670" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
     </row>
     <row r="671" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
     </row>
     <row r="672" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
-        <v>750</v>
+        <v>766</v>
       </c>
     </row>
     <row r="673" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
     </row>
     <row r="674" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
-        <v>752</v>
+        <v>768</v>
       </c>
     </row>
     <row r="675" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
-        <v>753</v>
+        <v>769</v>
       </c>
     </row>
     <row r="676" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
     </row>
     <row r="677" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
-        <v>755</v>
+        <v>771</v>
       </c>
     </row>
     <row r="678" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
     </row>
     <row r="679" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
     </row>
     <row r="680" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
     </row>
     <row r="681" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
     </row>
     <row r="682" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
-        <v>760</v>
+        <v>776</v>
       </c>
     </row>
     <row r="683" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
-        <v>761</v>
+        <v>777</v>
       </c>
     </row>
     <row r="684" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
     </row>
     <row r="685" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
-        <v>763</v>
+        <v>779</v>
       </c>
     </row>
     <row r="686" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
-        <v>764</v>
+        <v>780</v>
       </c>
     </row>
     <row r="687" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
-        <v>765</v>
+        <v>781</v>
       </c>
     </row>
     <row r="688" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
-        <v>766</v>
+        <v>782</v>
       </c>
     </row>
     <row r="689" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
     </row>
     <row r="690" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="691" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
     </row>
     <row r="692" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="693" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="694" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
-        <v>772</v>
+        <v>788</v>
       </c>
     </row>
     <row r="695" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
-        <v>773</v>
+        <v>789</v>
       </c>
     </row>
     <row r="696" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
-        <v>774</v>
+        <v>790</v>
       </c>
     </row>
     <row r="697" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
-        <v>775</v>
+        <v>791</v>
       </c>
     </row>
     <row r="698" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
-        <v>776</v>
+        <v>792</v>
       </c>
     </row>
     <row r="699" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
-        <v>777</v>
+        <v>793</v>
       </c>
     </row>
     <row r="700" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
-        <v>778</v>
+        <v>794</v>
       </c>
     </row>
     <row r="701" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
-        <v>779</v>
+        <v>795</v>
       </c>
     </row>
     <row r="702" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
-        <v>780</v>
+        <v>796</v>
       </c>
     </row>
     <row r="703" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
-        <v>781</v>
+        <v>797</v>
       </c>
     </row>
     <row r="704" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
-        <v>782</v>
+        <v>798</v>
       </c>
     </row>
     <row r="705" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
-        <v>783</v>
+        <v>799</v>
       </c>
     </row>
     <row r="706" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
     </row>
     <row r="707" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
-        <v>785</v>
+        <v>801</v>
       </c>
     </row>
     <row r="708" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
-        <v>786</v>
+        <v>802</v>
       </c>
     </row>
     <row r="709" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
-        <v>787</v>
+        <v>803</v>
       </c>
     </row>
     <row r="710" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
-        <v>788</v>
+        <v>804</v>
       </c>
     </row>
     <row r="711" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
     </row>
     <row r="712" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
-        <v>790</v>
+        <v>806</v>
       </c>
     </row>
     <row r="713" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
-        <v>791</v>
+        <v>807</v>
       </c>
     </row>
     <row r="714" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
-        <v>792</v>
+        <v>808</v>
       </c>
     </row>
     <row r="715" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
-        <v>793</v>
+        <v>809</v>
       </c>
     </row>
     <row r="716" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
-        <v>794</v>
+        <v>810</v>
       </c>
     </row>
     <row r="717" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
-        <v>795</v>
+        <v>811</v>
       </c>
     </row>
     <row r="718" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
-        <v>796</v>
+        <v>812</v>
       </c>
     </row>
     <row r="719" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
-        <v>797</v>
+        <v>813</v>
       </c>
     </row>
     <row r="720" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
-        <v>798</v>
+        <v>814</v>
       </c>
     </row>
     <row r="721" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
     </row>
     <row r="722" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
-        <v>800</v>
+        <v>816</v>
       </c>
     </row>
     <row r="723" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
-        <v>801</v>
+        <v>817</v>
       </c>
     </row>
     <row r="724" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
     </row>
     <row r="725" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="726" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A726" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="727" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A727" s="1" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="728" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A728" s="1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="729" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A729" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="730" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A730" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="731" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A731" s="1" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="732" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A732" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="733" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A733" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="734" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A734" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="735" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A735" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="736" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A736" s="1" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="737" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A737" s="1" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="738" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A738" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="739" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A739" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="740" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A740" s="1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="741" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A741" s="1" t="s">
         <v>819</v>
-      </c>
-    </row>
-    <row r="742" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A742" s="1" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="743" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A743" s="1" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="744" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A744" s="1" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="745" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A745" s="1" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="746" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A746" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="747" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A747" s="1" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="748" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A748" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="749" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A749" s="1" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="750" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A750" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="751" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A751" s="1" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="752" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A752" s="1" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="753" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A753" s="1" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="754" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A754" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="755" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A755" s="1" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="756" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A756" s="1" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="757" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A757" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="758" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A758" s="1" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="759" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A759" s="1" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="760" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A760" s="1" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="761" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A761" s="1" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="762" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A762" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="763" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A763" s="1" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="764" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A764" s="1" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="765" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A765" s="1" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="766" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A766" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="767" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A767" s="1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="768" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A768" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="769" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A769" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="770" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A770" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="771" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A771" s="1" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="772" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A772" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="773" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A773" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="774" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A774" s="1" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="775" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A775" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="776" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A776" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="777" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A777" s="1" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="778" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A778" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="779" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A779" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="780" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A780" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="781" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A781" s="1" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="782" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A782" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="783" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A783" s="1" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="784" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A784" s="1" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="785" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A785" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="786" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A786" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="787" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A787" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="788" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A788" s="1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="789" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A789" s="1" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="790" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A790" s="1" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="791" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A791" s="1" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="792" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A792" s="1" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="793" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A793" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="794" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A794" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="795" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A795" s="1" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="796" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A796" s="1" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="797" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A797" s="1" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="798" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A798" s="1" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="799" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A799" s="1" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="800" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A800" s="1" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="801" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A801" s="1" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="802" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A802" s="1" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="803" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A803" s="1" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="804" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A804" s="1" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="805" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A805" s="1" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="806" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A806" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="807" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A807" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="808" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A808" s="1" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="809" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A809" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="810" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A810" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="811" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A811" s="1" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="812" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A812" s="1" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="813" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A813" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="814" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A814" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="815" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A815" s="1" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="816" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A816" s="1" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="817" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A817" s="1" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="818" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A818" s="1" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="819" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A819" s="1" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="820" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A820" s="1" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="821" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A821" s="1" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="822" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A822" s="1" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="823" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A823" s="1" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="824" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A824" s="1" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="825" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A825" s="1" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="826" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A826" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="827" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A827" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="828" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A828" s="1" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="829" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A829" s="1" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="830" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A830" s="1" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="831" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A831" s="1" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="832" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A832" s="1" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="833" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A833" s="1" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="834" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A834" s="1" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="835" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A835" s="1" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="836" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A836" s="1" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="837" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A837" s="1" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="838" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A838" s="1" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="839" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A839" s="1" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="840" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A840" s="1" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="841" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A841" s="1" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="842" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A842" s="1" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="843" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A843" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="844" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A844" s="1" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="845" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A845" s="1" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="846" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A846" s="1" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="847" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A847" s="1" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="848" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A848" s="1" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="849" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A849" s="1" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="850" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A850" s="1" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="851" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A851" s="1" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="852" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A852" s="1" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="853" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A853" s="1" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="854" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A854" s="1" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="855" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A855" s="1" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="856" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A856" s="1" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="857" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A857" s="1" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="858" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A858" s="1" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="859" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A859" s="1" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="860" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A860" s="1" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="861" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A861" s="1" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="862" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A862" s="1" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="863" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A863" s="1" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="864" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A864" s="1" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="865" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A865" s="1" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="866" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A866" s="1" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="867" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A867" s="1" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="868" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A868" s="1" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="869" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A869" s="1" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="870" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A870" s="1" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="871" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A871" s="1" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="872" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A872" s="1" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="873" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A873" s="1" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="874" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A874" s="1" t="s">
-        <v>952</v>
       </c>
     </row>
   </sheetData>

--- a/GroundTruth.xlsx
+++ b/GroundTruth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suruchi/Documents/MSc Artificial Intelligence/Artificial Intelligence Project/UniversalAdversarialChallenges-AutonomousVehicles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AACCC52-DFF9-954E-969A-6D6510318DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068C607C-9C7B-1B46-94B5-3D393A634A54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="17040" xr2:uid="{E9FA8BCC-3C24-E14A-8C2A-C02BE4E3E8A8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="17040" activeTab="1" xr2:uid="{E9FA8BCC-3C24-E14A-8C2A-C02BE4E3E8A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Art in Surroundings" sheetId="3" r:id="rId1"/>
@@ -326,462 +326,6 @@
     <t>8PUTF</t>
   </si>
   <si>
-    <t>7LYQ2</t>
-  </si>
-  <si>
-    <t>HXCR1</t>
-  </si>
-  <si>
-    <t>79F8D</t>
-  </si>
-  <si>
-    <t>36CM0</t>
-  </si>
-  <si>
-    <t>9PZQG</t>
-  </si>
-  <si>
-    <t>ABA1M</t>
-  </si>
-  <si>
-    <t>HWH8Y</t>
-  </si>
-  <si>
-    <t>FQ8B6</t>
-  </si>
-  <si>
-    <t>8WKOQ</t>
-  </si>
-  <si>
-    <t>W8ZA0</t>
-  </si>
-  <si>
-    <t>SZMDY</t>
-  </si>
-  <si>
-    <t>M9N8Y</t>
-  </si>
-  <si>
-    <t>ESM4R</t>
-  </si>
-  <si>
-    <t>4Y0SL</t>
-  </si>
-  <si>
-    <t>SGJDK</t>
-  </si>
-  <si>
-    <t>5B28C</t>
-  </si>
-  <si>
-    <t>TTSBA</t>
-  </si>
-  <si>
-    <t>QWRXE</t>
-  </si>
-  <si>
-    <t>ERL4A</t>
-  </si>
-  <si>
-    <t>QSQ1O</t>
-  </si>
-  <si>
-    <t>AGFQC</t>
-  </si>
-  <si>
-    <t>8SW2P</t>
-  </si>
-  <si>
-    <t>9QNZR</t>
-  </si>
-  <si>
-    <t>CGM2M</t>
-  </si>
-  <si>
-    <t>6G89Z</t>
-  </si>
-  <si>
-    <t>FNBKW</t>
-  </si>
-  <si>
-    <t>AWXXA</t>
-  </si>
-  <si>
-    <t>CO4MQ</t>
-  </si>
-  <si>
-    <t>2ODOV</t>
-  </si>
-  <si>
-    <t>8BX21</t>
-  </si>
-  <si>
-    <t>JJ9YJ</t>
-  </si>
-  <si>
-    <t>E35KJ</t>
-  </si>
-  <si>
-    <t>0PL2N</t>
-  </si>
-  <si>
-    <t>R4UB3</t>
-  </si>
-  <si>
-    <t>R7BM7</t>
-  </si>
-  <si>
-    <t>POYQC</t>
-  </si>
-  <si>
-    <t>6QW9D</t>
-  </si>
-  <si>
-    <t>K3S0F</t>
-  </si>
-  <si>
-    <t>DJA25</t>
-  </si>
-  <si>
-    <t>9SAQ4</t>
-  </si>
-  <si>
-    <t>6URXU</t>
-  </si>
-  <si>
-    <t>S22QT</t>
-  </si>
-  <si>
-    <t>W6ZHI</t>
-  </si>
-  <si>
-    <t>A869G</t>
-  </si>
-  <si>
-    <t>TI48G</t>
-  </si>
-  <si>
-    <t>FMQI8</t>
-  </si>
-  <si>
-    <t>Y0Q4S</t>
-  </si>
-  <si>
-    <t>Q2GZU</t>
-  </si>
-  <si>
-    <t>4MB6U</t>
-  </si>
-  <si>
-    <t>7LYOO</t>
-  </si>
-  <si>
-    <t>SG60E</t>
-  </si>
-  <si>
-    <t>F36IB</t>
-  </si>
-  <si>
-    <t>TTK9B</t>
-  </si>
-  <si>
-    <t>WEJEZ</t>
-  </si>
-  <si>
-    <t>1B0SI</t>
-  </si>
-  <si>
-    <t>2OE39</t>
-  </si>
-  <si>
-    <t>PX0DM</t>
-  </si>
-  <si>
-    <t>P4QGW</t>
-  </si>
-  <si>
-    <t>0YDOY</t>
-  </si>
-  <si>
-    <t>XQ6S5</t>
-  </si>
-  <si>
-    <t>INOOR</t>
-  </si>
-  <si>
-    <t>I039P</t>
-  </si>
-  <si>
-    <t>VHPCH</t>
-  </si>
-  <si>
-    <t>UZ2QT</t>
-  </si>
-  <si>
-    <t>D2DFD</t>
-  </si>
-  <si>
-    <t>EVCCP</t>
-  </si>
-  <si>
-    <t>X5TI9</t>
-  </si>
-  <si>
-    <t>E84Y2</t>
-  </si>
-  <si>
-    <t>L2GDE</t>
-  </si>
-  <si>
-    <t>OY3OR</t>
-  </si>
-  <si>
-    <t>H35XK</t>
-  </si>
-  <si>
-    <t>SWLPJ</t>
-  </si>
-  <si>
-    <t>179LF</t>
-  </si>
-  <si>
-    <t>ADLHL</t>
-  </si>
-  <si>
-    <t>4GKK8</t>
-  </si>
-  <si>
-    <t>VFRSA</t>
-  </si>
-  <si>
-    <t>NCKR4</t>
-  </si>
-  <si>
-    <t>QYJ32</t>
-  </si>
-  <si>
-    <t>1JM1W</t>
-  </si>
-  <si>
-    <t>0J0OY</t>
-  </si>
-  <si>
-    <t>L1EKA</t>
-  </si>
-  <si>
-    <t>R4ZNL</t>
-  </si>
-  <si>
-    <t>9PELT</t>
-  </si>
-  <si>
-    <t>6UDT5</t>
-  </si>
-  <si>
-    <t>F5TWP</t>
-  </si>
-  <si>
-    <t>KLBAM</t>
-  </si>
-  <si>
-    <t>ZQ29N</t>
-  </si>
-  <si>
-    <t>Z3WRW</t>
-  </si>
-  <si>
-    <t>3S7J2</t>
-  </si>
-  <si>
-    <t>FIUM6</t>
-  </si>
-  <si>
-    <t>OK2KX</t>
-  </si>
-  <si>
-    <t>SQU5G</t>
-  </si>
-  <si>
-    <t>K0GWN</t>
-  </si>
-  <si>
-    <t>8RV5B</t>
-  </si>
-  <si>
-    <t>2FPTI</t>
-  </si>
-  <si>
-    <t>39ZZ4</t>
-  </si>
-  <si>
-    <t>B4P5G</t>
-  </si>
-  <si>
-    <t>RMX2I</t>
-  </si>
-  <si>
-    <t>F1N10</t>
-  </si>
-  <si>
-    <t>LL76M</t>
-  </si>
-  <si>
-    <t>I4CW4</t>
-  </si>
-  <si>
-    <t>D7BDQ</t>
-  </si>
-  <si>
-    <t>TR3KU</t>
-  </si>
-  <si>
-    <t>XH28J</t>
-  </si>
-  <si>
-    <t>XM9W9</t>
-  </si>
-  <si>
-    <t>HR98V</t>
-  </si>
-  <si>
-    <t>082ET</t>
-  </si>
-  <si>
-    <t>1RH1N</t>
-  </si>
-  <si>
-    <t>IAAZ7</t>
-  </si>
-  <si>
-    <t>IEK27</t>
-  </si>
-  <si>
-    <t>2H6KQ</t>
-  </si>
-  <si>
-    <t>VUDCW</t>
-  </si>
-  <si>
-    <t>VFXSD</t>
-  </si>
-  <si>
-    <t>HF6S9</t>
-  </si>
-  <si>
-    <t>C4CHZ</t>
-  </si>
-  <si>
-    <t>8ZWK3</t>
-  </si>
-  <si>
-    <t>NN8KY</t>
-  </si>
-  <si>
-    <t>DMHVJ</t>
-  </si>
-  <si>
-    <t>MAYZC</t>
-  </si>
-  <si>
-    <t>DGZ8D</t>
-  </si>
-  <si>
-    <t>DB0Z3</t>
-  </si>
-  <si>
-    <t>LBC4C</t>
-  </si>
-  <si>
-    <t>CR3H5</t>
-  </si>
-  <si>
-    <t>6PYGL</t>
-  </si>
-  <si>
-    <t>8Y4GP</t>
-  </si>
-  <si>
-    <t>61OOQ</t>
-  </si>
-  <si>
-    <t>TSZEM</t>
-  </si>
-  <si>
-    <t>TGSG1</t>
-  </si>
-  <si>
-    <t>TKNA7</t>
-  </si>
-  <si>
-    <t>1DIGY</t>
-  </si>
-  <si>
-    <t>UU63V</t>
-  </si>
-  <si>
-    <t>SAKV7</t>
-  </si>
-  <si>
-    <t>YDKRJ</t>
-  </si>
-  <si>
-    <t>SUQKI</t>
-  </si>
-  <si>
-    <t>BYL92</t>
-  </si>
-  <si>
-    <t>XEBMC</t>
-  </si>
-  <si>
-    <t>KYJHG</t>
-  </si>
-  <si>
-    <t>ZEHLO</t>
-  </si>
-  <si>
-    <t>KFD5B</t>
-  </si>
-  <si>
-    <t>QDXAE</t>
-  </si>
-  <si>
-    <t>R4EJI</t>
-  </si>
-  <si>
-    <t>G9SCC</t>
-  </si>
-  <si>
-    <t>SUBYE</t>
-  </si>
-  <si>
-    <t>Z1Z7V</t>
-  </si>
-  <si>
-    <t>AKCYK</t>
-  </si>
-  <si>
-    <t>WPV4L</t>
-  </si>
-  <si>
-    <t>XAXCA</t>
-  </si>
-  <si>
-    <t>UNHVM</t>
-  </si>
-  <si>
-    <t>Q0CYY</t>
-  </si>
-  <si>
-    <t>NQTII</t>
-  </si>
-  <si>
-    <t>JA7VC</t>
-  </si>
-  <si>
-    <t>OWMF6</t>
-  </si>
-  <si>
     <t>6321I</t>
   </si>
   <si>
@@ -3282,6 +2826,462 @@
   </si>
   <si>
     <t>67I47.jpg</t>
+  </si>
+  <si>
+    <t>7LYQ2.jpg</t>
+  </si>
+  <si>
+    <t>HXCR1.jpg</t>
+  </si>
+  <si>
+    <t>79F8D.jpg</t>
+  </si>
+  <si>
+    <t>36CM0.jpg</t>
+  </si>
+  <si>
+    <t>9PZQG.jpg</t>
+  </si>
+  <si>
+    <t>ABA1M.jpg</t>
+  </si>
+  <si>
+    <t>HWH8Y.jpg</t>
+  </si>
+  <si>
+    <t>FQ8B6.jpg</t>
+  </si>
+  <si>
+    <t>8WKOQ.jpg</t>
+  </si>
+  <si>
+    <t>W8ZA0.jpg</t>
+  </si>
+  <si>
+    <t>SZMDY.jpg</t>
+  </si>
+  <si>
+    <t>M9N8Y.jpg</t>
+  </si>
+  <si>
+    <t>ESM4R.jpg</t>
+  </si>
+  <si>
+    <t>4Y0SL.jpg</t>
+  </si>
+  <si>
+    <t>SGJDK.jpg</t>
+  </si>
+  <si>
+    <t>5B28C.jpg</t>
+  </si>
+  <si>
+    <t>TTSBA.jpg</t>
+  </si>
+  <si>
+    <t>QWRXE.jpg</t>
+  </si>
+  <si>
+    <t>ERL4A.jpg</t>
+  </si>
+  <si>
+    <t>QSQ1O.jpg</t>
+  </si>
+  <si>
+    <t>AGFQC.jpg</t>
+  </si>
+  <si>
+    <t>8SW2P.jpg</t>
+  </si>
+  <si>
+    <t>CGM2M.jpg</t>
+  </si>
+  <si>
+    <t>9QNZR.jpeg</t>
+  </si>
+  <si>
+    <t>6G89Z.jpg</t>
+  </si>
+  <si>
+    <t>FNBKW.jpeg</t>
+  </si>
+  <si>
+    <t>AWXXA.jpg</t>
+  </si>
+  <si>
+    <t>CO4MQ.jpg</t>
+  </si>
+  <si>
+    <t>2ODOV.jpg</t>
+  </si>
+  <si>
+    <t>8BX21.jpg</t>
+  </si>
+  <si>
+    <t>JJ9YJ.jpg</t>
+  </si>
+  <si>
+    <t>E35KJ.jpeg</t>
+  </si>
+  <si>
+    <t>0PL2N.jpg</t>
+  </si>
+  <si>
+    <t>R4UB3.jpg</t>
+  </si>
+  <si>
+    <t>R7BM7.jpg</t>
+  </si>
+  <si>
+    <t>POYQC.jpg</t>
+  </si>
+  <si>
+    <t>6QW9D.jpg</t>
+  </si>
+  <si>
+    <t>K3S0F.jpg</t>
+  </si>
+  <si>
+    <t>DJA25.jpg</t>
+  </si>
+  <si>
+    <t>9SAQ4.jpg</t>
+  </si>
+  <si>
+    <t>6URXU.jpg</t>
+  </si>
+  <si>
+    <t>S22QT.jpg</t>
+  </si>
+  <si>
+    <t>W6ZHI.jpg</t>
+  </si>
+  <si>
+    <t>A869G.jpg</t>
+  </si>
+  <si>
+    <t>TI48G.jpg</t>
+  </si>
+  <si>
+    <t>FMQI8.jpg</t>
+  </si>
+  <si>
+    <t>Y0Q4S.jpg</t>
+  </si>
+  <si>
+    <t>Q2GZU.jpg</t>
+  </si>
+  <si>
+    <t>4MB6U.jpg</t>
+  </si>
+  <si>
+    <t>7LYOO.jpg</t>
+  </si>
+  <si>
+    <t>SG60E.jpg</t>
+  </si>
+  <si>
+    <t>F36IB.jpeg</t>
+  </si>
+  <si>
+    <t>TTK9B.jpeg</t>
+  </si>
+  <si>
+    <t>WEJEZ.jpeg</t>
+  </si>
+  <si>
+    <t>1B0SI.jpg</t>
+  </si>
+  <si>
+    <t>2OE39.jpg</t>
+  </si>
+  <si>
+    <t>PX0DM.jpg</t>
+  </si>
+  <si>
+    <t>P4QGW.jpg</t>
+  </si>
+  <si>
+    <t>0YDOY.jpg</t>
+  </si>
+  <si>
+    <t>XQ6S5.jpg</t>
+  </si>
+  <si>
+    <t>INOOR.jpg</t>
+  </si>
+  <si>
+    <t>I039P.jpg</t>
+  </si>
+  <si>
+    <t>VHPCH.jpg</t>
+  </si>
+  <si>
+    <t>UZ2QT.jpg</t>
+  </si>
+  <si>
+    <t>D2DFD.jpg</t>
+  </si>
+  <si>
+    <t>EVCCP.jpg</t>
+  </si>
+  <si>
+    <t>X5TI9.jpg</t>
+  </si>
+  <si>
+    <t>E84Y2.jpg</t>
+  </si>
+  <si>
+    <t>L2GDE.jpg</t>
+  </si>
+  <si>
+    <t>OY3OR.jpg</t>
+  </si>
+  <si>
+    <t>H35XK.jpg</t>
+  </si>
+  <si>
+    <t>SWLPJ.jpg</t>
+  </si>
+  <si>
+    <t>179LF.jpg</t>
+  </si>
+  <si>
+    <t>ADLHL.jpg</t>
+  </si>
+  <si>
+    <t>4GKK8.jpg</t>
+  </si>
+  <si>
+    <t>VFRSA.jpg</t>
+  </si>
+  <si>
+    <t>NCKR4.jpg</t>
+  </si>
+  <si>
+    <t>QYJ32.jpg</t>
+  </si>
+  <si>
+    <t>1JM1W.jpg</t>
+  </si>
+  <si>
+    <t>0J0OY.jpg</t>
+  </si>
+  <si>
+    <t>L1EKA.jpg</t>
+  </si>
+  <si>
+    <t>R4ZNL.jpg</t>
+  </si>
+  <si>
+    <t>9PELT.jpg</t>
+  </si>
+  <si>
+    <t>6UDT5.jpg</t>
+  </si>
+  <si>
+    <t>F5TWP.jpg</t>
+  </si>
+  <si>
+    <t>KLBAM.jpg</t>
+  </si>
+  <si>
+    <t>ZQ29N.jpg</t>
+  </si>
+  <si>
+    <t>Z3WRW.jpg</t>
+  </si>
+  <si>
+    <t>3S7J2.jpg</t>
+  </si>
+  <si>
+    <t>FIUM6.jpg</t>
+  </si>
+  <si>
+    <t>OK2KX.jpg</t>
+  </si>
+  <si>
+    <t>SQU5G.jpg</t>
+  </si>
+  <si>
+    <t>K0GWN.jpg</t>
+  </si>
+  <si>
+    <t>8RV5B.jpg</t>
+  </si>
+  <si>
+    <t>2FPTI.jpg</t>
+  </si>
+  <si>
+    <t>39ZZ4.jpg</t>
+  </si>
+  <si>
+    <t>B4P5G.jpg</t>
+  </si>
+  <si>
+    <t>RMX2I.jpg</t>
+  </si>
+  <si>
+    <t>F1N10.jpg</t>
+  </si>
+  <si>
+    <t>LL76M.jpg</t>
+  </si>
+  <si>
+    <t>I4CW4.jpg</t>
+  </si>
+  <si>
+    <t>D7BDQ.jpg</t>
+  </si>
+  <si>
+    <t>TR3KU.jpg</t>
+  </si>
+  <si>
+    <t>XH28J.jpg</t>
+  </si>
+  <si>
+    <t>XM9W9.jpg</t>
+  </si>
+  <si>
+    <t>HR98V.jpg</t>
+  </si>
+  <si>
+    <t>082ET.jpg</t>
+  </si>
+  <si>
+    <t>1RH1N.jpg</t>
+  </si>
+  <si>
+    <t>IAAZ7.jpg</t>
+  </si>
+  <si>
+    <t>IEK27.jpg</t>
+  </si>
+  <si>
+    <t>2H6KQ.jpg</t>
+  </si>
+  <si>
+    <t>VUDCW.jpg</t>
+  </si>
+  <si>
+    <t>HF6S9.jpg</t>
+  </si>
+  <si>
+    <t>VFXSD.jpeg</t>
+  </si>
+  <si>
+    <t>C4CHZ.jpg</t>
+  </si>
+  <si>
+    <t>8ZWK3.jpg</t>
+  </si>
+  <si>
+    <t>NN8KY.jpg</t>
+  </si>
+  <si>
+    <t>DMHVJ.jpg</t>
+  </si>
+  <si>
+    <t>MAYZC.jpg</t>
+  </si>
+  <si>
+    <t>DGZ8D.jpg</t>
+  </si>
+  <si>
+    <t>DB0Z3.jpg</t>
+  </si>
+  <si>
+    <t>LBC4C.jpg</t>
+  </si>
+  <si>
+    <t>CR3H5.jpg</t>
+  </si>
+  <si>
+    <t>6PYGL.jpg</t>
+  </si>
+  <si>
+    <t>8Y4GP.jpg</t>
+  </si>
+  <si>
+    <t>61OOQ.jpg</t>
+  </si>
+  <si>
+    <t>TSZEM.jpg</t>
+  </si>
+  <si>
+    <t>TGSG1.jpg</t>
+  </si>
+  <si>
+    <t>TKNA7.jpg</t>
+  </si>
+  <si>
+    <t>1DIGY.jpg</t>
+  </si>
+  <si>
+    <t>UU63V.jpg</t>
+  </si>
+  <si>
+    <t>SAKV7.jpg</t>
+  </si>
+  <si>
+    <t>YDKRJ.jpeg</t>
+  </si>
+  <si>
+    <t>SUQKI.jpg</t>
+  </si>
+  <si>
+    <t>BYL92.jpg</t>
+  </si>
+  <si>
+    <t>XEBMC.jpg</t>
+  </si>
+  <si>
+    <t>KYJHG.jpg</t>
+  </si>
+  <si>
+    <t>ZEHLO.jpg</t>
+  </si>
+  <si>
+    <t>KFD5B.jpg</t>
+  </si>
+  <si>
+    <t>QDXAE.jpg</t>
+  </si>
+  <si>
+    <t>R4EJI.jpg</t>
+  </si>
+  <si>
+    <t>G9SCC.jpg</t>
+  </si>
+  <si>
+    <t>SUBYE.jpg</t>
+  </si>
+  <si>
+    <t>Z1Z7V.jpg</t>
+  </si>
+  <si>
+    <t>AKCYK.jpg</t>
+  </si>
+  <si>
+    <t>WPV4L.jpg</t>
+  </si>
+  <si>
+    <t>XAXCA.jpg</t>
+  </si>
+  <si>
+    <t>UNHVM.jpg</t>
+  </si>
+  <si>
+    <t>Q0CYY.jpg</t>
+  </si>
+  <si>
+    <t>NQTII.jpg</t>
+  </si>
+  <si>
+    <t>JA7VC.jpg</t>
+  </si>
+  <si>
+    <t>OWMF6.jpg</t>
   </si>
 </sst>
 </file>
@@ -3640,18 +3640,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F23698F-6E01-E041-A7A3-561430F97E46}">
-  <dimension ref="A1:CC237"/>
+  <dimension ref="A1:CC238"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A222" sqref="A222"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A221" sqref="A221:XFD221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>948</v>
+        <v>796</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3896,7 +3896,7 @@
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>820</v>
+        <v>668</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>821</v>
+        <v>669</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3912,25 +3912,25 @@
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>822</v>
+        <v>670</v>
       </c>
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>824</v>
+        <v>672</v>
       </c>
       <c r="B5" t="s">
-        <v>823</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>825</v>
+        <v>673</v>
       </c>
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>826</v>
+        <v>674</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -3938,17 +3938,17 @@
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>827</v>
+        <v>675</v>
       </c>
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>828</v>
+        <v>676</v>
       </c>
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>829</v>
+        <v>677</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3956,32 +3956,32 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>830</v>
+        <v>678</v>
       </c>
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>831</v>
+        <v>679</v>
       </c>
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>832</v>
+        <v>680</v>
       </c>
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>833</v>
+        <v>681</v>
       </c>
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>834</v>
+        <v>682</v>
       </c>
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>835</v>
+        <v>683</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -3989,12 +3989,12 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>836</v>
+        <v>684</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>837</v>
+        <v>685</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -4002,12 +4002,12 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>838</v>
+        <v>686</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>839</v>
+        <v>687</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -4015,12 +4015,12 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>840</v>
+        <v>688</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>841</v>
+        <v>689</v>
       </c>
       <c r="B22">
         <v>9</v>
@@ -4028,12 +4028,12 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>842</v>
+        <v>690</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>843</v>
+        <v>691</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>844</v>
+        <v>692</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -4049,7 +4049,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>845</v>
+        <v>693</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>846</v>
+        <v>694</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -4065,27 +4065,27 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>847</v>
+        <v>695</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>848</v>
+        <v>696</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>849</v>
+        <v>697</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>850</v>
+        <v>698</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>851</v>
+        <v>699</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -4093,22 +4093,22 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>852</v>
+        <v>700</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>853</v>
+        <v>701</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>854</v>
+        <v>702</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>855</v>
+        <v>703</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4122,17 +4122,17 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>856</v>
+        <v>704</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>857</v>
+        <v>705</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>858</v>
+        <v>706</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4140,72 +4140,72 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>859</v>
+        <v>707</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>860</v>
+        <v>708</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>861</v>
+        <v>709</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>862</v>
+        <v>710</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>863</v>
+        <v>711</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>864</v>
+        <v>712</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>865</v>
+        <v>713</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>866</v>
+        <v>714</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>867</v>
+        <v>715</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>868</v>
+        <v>716</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>869</v>
+        <v>717</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>870</v>
+        <v>718</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>871</v>
+        <v>719</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>872</v>
+        <v>720</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4213,162 +4213,162 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>873</v>
+        <v>721</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>874</v>
+        <v>722</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>875</v>
+        <v>723</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>876</v>
+        <v>724</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>877</v>
+        <v>725</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>878</v>
+        <v>726</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>879</v>
+        <v>727</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>880</v>
+        <v>728</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>881</v>
+        <v>729</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>882</v>
+        <v>730</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>883</v>
+        <v>731</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>884</v>
+        <v>732</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>885</v>
+        <v>733</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>886</v>
+        <v>734</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>887</v>
+        <v>735</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>888</v>
+        <v>736</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>889</v>
+        <v>737</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>890</v>
+        <v>738</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>891</v>
+        <v>739</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>892</v>
+        <v>740</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>893</v>
+        <v>741</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>894</v>
+        <v>742</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>895</v>
+        <v>743</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>896</v>
+        <v>744</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>897</v>
+        <v>745</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>898</v>
+        <v>746</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>899</v>
+        <v>747</v>
       </c>
     </row>
     <row r="81" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>900</v>
+        <v>748</v>
       </c>
     </row>
     <row r="82" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>901</v>
+        <v>749</v>
       </c>
     </row>
     <row r="83" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>902</v>
+        <v>750</v>
       </c>
     </row>
     <row r="84" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>903</v>
+        <v>751</v>
       </c>
     </row>
     <row r="85" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>904</v>
+        <v>752</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="86" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>905</v>
+        <v>753</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4384,22 +4384,22 @@
     </row>
     <row r="87" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>906</v>
+        <v>754</v>
       </c>
     </row>
     <row r="88" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>907</v>
+        <v>755</v>
       </c>
     </row>
     <row r="89" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>908</v>
+        <v>756</v>
       </c>
     </row>
     <row r="90" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>909</v>
+        <v>757</v>
       </c>
       <c r="BH90">
         <v>2</v>
@@ -4407,22 +4407,22 @@
     </row>
     <row r="91" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>910</v>
+        <v>758</v>
       </c>
     </row>
     <row r="92" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>911</v>
+        <v>759</v>
       </c>
     </row>
     <row r="93" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>912</v>
+        <v>760</v>
       </c>
     </row>
     <row r="94" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>913</v>
+        <v>761</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -4430,27 +4430,27 @@
     </row>
     <row r="95" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>914</v>
+        <v>762</v>
       </c>
     </row>
     <row r="96" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>915</v>
+        <v>763</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>916</v>
+        <v>764</v>
       </c>
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>917</v>
+        <v>765</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>918</v>
+        <v>766</v>
       </c>
       <c r="B99">
         <v>7</v>
@@ -4458,17 +4458,17 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>919</v>
+        <v>767</v>
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>920</v>
+        <v>768</v>
       </c>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>921</v>
+        <v>769</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -4476,12 +4476,12 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>922</v>
+        <v>770</v>
       </c>
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>923</v>
+        <v>771</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -4492,17 +4492,17 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>924</v>
+        <v>772</v>
       </c>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>925</v>
+        <v>773</v>
       </c>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>926</v>
+        <v>774</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4510,27 +4510,27 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>927</v>
+        <v>775</v>
       </c>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>928</v>
+        <v>776</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>929</v>
+        <v>777</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>930</v>
+        <v>778</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>931</v>
+        <v>779</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -4538,176 +4538,176 @@
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>932</v>
+        <v>780</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>933</v>
+        <v>781</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>934</v>
+        <v>782</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>935</v>
+        <v>783</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>936</v>
+        <v>784</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>937</v>
+        <v>785</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>938</v>
+        <v>786</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>939</v>
+        <v>787</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>940</v>
+        <v>788</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>941</v>
+        <v>789</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>942</v>
+        <v>790</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>943</v>
+        <v>791</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>944</v>
+        <v>792</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>945</v>
+        <v>793</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>946</v>
+        <v>794</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>990</v>
+        <v>795</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>838</v>
       </c>
       <c r="B130">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>994</v>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>842</v>
       </c>
       <c r="D134">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>1001</v>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>849</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="145" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>1005</v>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="145" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>853</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -4716,401 +4716,401 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="147" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="148" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="149" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>1009</v>
+    <row r="146" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="147" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="148" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="149" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>857</v>
       </c>
       <c r="D149">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="151" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="152" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="153" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="154" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="155" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="156" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="157" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>1017</v>
+    <row r="150" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="151" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="152" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="153" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="154" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="155" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="156" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="157" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>865</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="159" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="160" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="161" spans="1:60" ht="18" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="162" spans="1:60" ht="18" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="163" spans="1:60" ht="18" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="164" spans="1:60" ht="18" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="165" spans="1:60" ht="18" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="166" spans="1:60" ht="18" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="167" spans="1:60" ht="18" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="168" spans="1:60" ht="18" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="169" spans="1:60" ht="18" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="170" spans="1:60" ht="18" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>1030</v>
+    <row r="158" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="159" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="160" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="161" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="162" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="163" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="164" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="165" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="166" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="167" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="168" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="169" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="170" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>878</v>
       </c>
       <c r="B170">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:60" ht="18" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="172" spans="1:60" ht="18" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="173" spans="1:60" ht="18" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="174" spans="1:60" ht="18" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="175" spans="1:60" ht="18" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>1035</v>
+    <row r="171" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="172" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="173" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="174" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="175" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>883</v>
       </c>
       <c r="BH175">
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:60" ht="18" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>1047</v>
+    <row r="176" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>895</v>
       </c>
       <c r="D187">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>1050</v>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>898</v>
       </c>
       <c r="B190">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>1053</v>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>901</v>
       </c>
       <c r="D193">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>1056</v>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>904</v>
       </c>
       <c r="B196">
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>1057</v>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>905</v>
       </c>
       <c r="B197">
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>1062</v>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>910</v>
       </c>
       <c r="B202">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>1066</v>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>914</v>
       </c>
       <c r="K206">
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>1067</v>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>915</v>
       </c>
       <c r="K207">
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="209" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>1069</v>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="209" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>917</v>
       </c>
       <c r="H209">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="211" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="212" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
-        <v>1072</v>
+    <row r="210" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="211" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="212" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>920</v>
       </c>
       <c r="D212">
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="214" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="215" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="216" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>1076</v>
+    <row r="213" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="214" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="215" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="216" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>924</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -5119,114 +5119,125 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="218" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="219" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
+    <row r="217" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="218" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="219" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>927</v>
+      </c>
+      <c r="O219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>928</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
         <v>1079</v>
       </c>
-      <c r="O219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="222" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="223" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="223" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
+    <row r="224" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="224" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5238,17 +5249,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0567FE6-4478-824F-981C-52DF783E1141}">
-  <dimension ref="A1:CC39"/>
+  <dimension ref="A1:CC195"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>948</v>
+        <v>796</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5493,7 +5505,7 @@
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>949</v>
+        <v>797</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -5501,7 +5513,7 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>950</v>
+        <v>798</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5509,7 +5521,7 @@
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>951</v>
+        <v>799</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -5517,7 +5529,7 @@
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>952</v>
+        <v>800</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -5525,7 +5537,7 @@
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>953</v>
+        <v>801</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5533,7 +5545,7 @@
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>954</v>
+        <v>802</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5545,9 +5557,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:81" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>957</v>
+    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>805</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -5556,9 +5568,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:81" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>958</v>
+    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>806</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5567,9 +5579,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:81" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>959</v>
+    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>807</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5578,25 +5590,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:81" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>960</v>
+    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>808</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:81" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>961</v>
+    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>809</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:81" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>962</v>
+    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>810</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -5605,25 +5617,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:81" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>963</v>
+    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>811</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:81" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>964</v>
+    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>812</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:81" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>965</v>
+    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>813</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -5632,25 +5644,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>966</v>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>814</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>967</v>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>815</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>968</v>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>816</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -5659,9 +5671,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>969</v>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>817</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -5670,9 +5682,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>970</v>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>818</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -5681,17 +5693,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>971</v>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>819</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>972</v>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>820</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -5700,25 +5712,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>973</v>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>821</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>974</v>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>822</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>975</v>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>823</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -5730,9 +5742,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>976</v>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>824</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -5741,9 +5753,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>977</v>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>825</v>
       </c>
       <c r="B28">
         <v>13</v>
@@ -5752,9 +5764,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>978</v>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>826</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -5763,9 +5775,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>979</v>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>827</v>
       </c>
       <c r="B30">
         <v>9</v>
@@ -5774,9 +5786,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>980</v>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>828</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -5785,9 +5797,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>981</v>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>829</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -5796,9 +5808,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>982</v>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>830</v>
       </c>
       <c r="B33">
         <v>9</v>
@@ -5807,9 +5819,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>983</v>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>831</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -5818,9 +5830,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>984</v>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>832</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -5829,9 +5841,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>985</v>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>833</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -5840,17 +5852,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>986</v>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>834</v>
       </c>
       <c r="D37">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>987</v>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>835</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -5859,9 +5871,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>988</v>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>836</v>
       </c>
       <c r="B39">
         <v>10</v>
@@ -5873,24 +5885,1495 @@
         <v>2</v>
       </c>
     </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>930</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>931</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>932</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>933</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>934</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>935</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>936</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>937</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>938</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>939</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>940</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>941</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>942</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>943</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>944</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>945</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>946</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>947</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>948</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>949</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>950</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>951</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>953</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>952</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>954</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>955</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>956</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>957</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>958</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>959</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>960</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>961</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>962</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>963</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>964</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>965</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>966</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>967</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>968</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>969</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>970</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>971</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>972</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>973</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>974</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>975</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>976</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>977</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>978</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>979</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>980</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>981</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>982</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>983</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>984</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>985</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>986</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>987</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>988</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>989</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>990</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>991</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>992</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>993</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>994</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>995</v>
+      </c>
+      <c r="D105">
+        <v>3</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>997</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>998</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>999</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B110">
+        <v>10</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B113">
+        <v>6</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B115">
+        <v>8</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B116">
+        <v>8</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="AA116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B121">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B123">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="AA123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B126">
+        <v>7</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B127">
+        <v>5</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B132">
+        <v>7</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B135">
+        <v>3</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D147">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B154">
+        <v>13</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B164">
+        <v>5</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B165">
+        <v>4</v>
+      </c>
+      <c r="D165">
+        <v>4</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D166">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B167">
+        <v>3</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="I167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D168">
+        <v>3</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B169">
+        <v>7</v>
+      </c>
+      <c r="D169">
+        <v>3</v>
+      </c>
+      <c r="AA169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B170">
+        <v>6</v>
+      </c>
+      <c r="D170">
+        <v>3</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="AA170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="O172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B183">
+        <v>3</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30093D95-D28B-DD42-A703-B59CAF299E47}">
-  <dimension ref="A1:CC3"/>
+  <dimension ref="A1:CC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>948</v>
+        <v>796</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6135,7 +7618,7 @@
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>955</v>
+        <v>803</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -6143,7 +7626,7 @@
     </row>
     <row r="3" spans="1:81" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>956</v>
+        <v>804</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6153,6 +7636,31 @@
       </c>
       <c r="D3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="BH5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6162,3632 +7670,2837 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC7AE76-5207-2B4B-8203-E570989F039C}">
-  <dimension ref="A2:A725"/>
+  <dimension ref="A2:A566"/>
   <sheetViews>
-    <sheetView topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="276" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="277" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="280" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="282" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="286" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="291" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="299" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="300" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="301" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
     </row>
     <row r="303" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="305" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="306" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="307" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="309" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="310" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="311" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="312" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
     </row>
     <row r="315" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="316" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="317" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="318" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="319" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="321" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row r="323" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="324" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="325" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="327" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="328" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="329" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="330" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="331" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="333" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="334" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="335" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="336" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="337" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="338" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="339" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="340" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="341" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="342" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="343" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="344" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="345" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="346" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="347" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="348" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="349" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="350" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="351" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
     </row>
     <row r="352" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="353" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="354" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="355" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="356" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="357" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="358" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="359" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="360" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="361" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="362" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="363" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="364" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="365" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="366" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="367" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="368" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="369" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="370" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="371" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="372" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="373" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="374" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="375" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
     </row>
     <row r="376" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="377" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="378" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
     </row>
     <row r="379" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="380" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="381" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="382" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
     </row>
     <row r="383" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="384" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
     </row>
     <row r="385" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="386" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="387" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="388" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="389" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="390" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="391" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="392" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="393" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="394" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="395" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="396" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="397" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="398" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="399" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="400" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="401" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="402" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="403" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="404" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
     </row>
     <row r="405" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
     </row>
     <row r="406" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="407" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="408" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
     </row>
     <row r="409" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="410" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="411" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="412" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
     </row>
     <row r="413" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
     </row>
     <row r="414" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="415" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="416" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
     </row>
     <row r="417" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="418" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="419" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
     <row r="420" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="421" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="422" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
     <row r="423" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="424" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="425" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="426" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
     </row>
     <row r="427" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
     </row>
     <row r="428" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="429" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="430" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="431" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="432" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
     </row>
     <row r="433" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
     </row>
     <row r="434" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="435" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="436" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
     </row>
     <row r="437" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
     </row>
     <row r="438" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="439" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="440" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
     </row>
     <row r="441" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
     </row>
     <row r="442" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="443" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
     </row>
     <row r="444" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="445" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="446" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
     </row>
     <row r="447" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
     </row>
     <row r="448" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="449" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="450" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
     </row>
     <row r="451" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="452" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
     </row>
     <row r="453" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="454" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
     </row>
     <row r="455" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="456" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
     </row>
     <row r="457" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
     </row>
     <row r="458" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
     </row>
     <row r="459" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
     </row>
     <row r="460" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
     </row>
     <row r="461" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
     </row>
     <row r="462" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
     </row>
     <row r="463" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
     </row>
     <row r="464" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="465" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
     </row>
     <row r="466" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
     </row>
     <row r="467" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
     </row>
     <row r="468" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
     </row>
     <row r="469" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="470" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
     </row>
     <row r="471" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
     </row>
     <row r="472" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
     </row>
     <row r="473" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
     </row>
     <row r="474" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
     </row>
     <row r="475" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
     </row>
     <row r="476" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="477" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="478" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
     </row>
     <row r="479" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="480" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="481" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
     </row>
     <row r="482" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
     </row>
     <row r="483" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
     </row>
     <row r="484" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
     </row>
     <row r="485" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
     </row>
     <row r="486" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
     </row>
     <row r="487" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
     </row>
     <row r="488" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
     </row>
     <row r="489" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
     </row>
     <row r="490" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
     </row>
     <row r="491" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
     </row>
     <row r="492" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="493" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
     </row>
     <row r="494" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
     </row>
     <row r="495" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
     </row>
     <row r="496" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
     </row>
     <row r="497" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
     </row>
     <row r="498" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
     </row>
     <row r="499" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
     </row>
     <row r="500" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="501" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
     </row>
     <row r="502" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
     </row>
     <row r="503" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="504" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
     </row>
     <row r="505" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="506" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="507" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
     </row>
     <row r="508" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="509" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
     </row>
     <row r="510" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
     </row>
     <row r="511" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
     </row>
     <row r="512" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="513" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
     </row>
     <row r="514" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
     </row>
     <row r="515" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
     </row>
     <row r="516" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
     </row>
     <row r="517" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
     </row>
     <row r="518" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
     </row>
     <row r="519" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
     </row>
     <row r="520" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
     </row>
     <row r="521" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
     </row>
     <row r="522" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="523" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
     </row>
     <row r="524" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
     </row>
     <row r="525" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
     </row>
     <row r="526" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
     </row>
     <row r="527" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
     </row>
     <row r="528" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
     </row>
     <row r="529" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
     </row>
     <row r="530" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
     </row>
     <row r="531" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
     </row>
     <row r="532" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
     </row>
     <row r="533" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
     </row>
     <row r="534" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
     </row>
     <row r="535" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
     </row>
     <row r="536" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
     </row>
     <row r="537" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
     </row>
     <row r="538" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
     </row>
     <row r="539" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
     </row>
     <row r="540" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
     </row>
     <row r="541" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
     </row>
     <row r="542" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
     </row>
     <row r="543" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
     </row>
     <row r="544" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
     </row>
     <row r="545" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
     </row>
     <row r="546" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
     </row>
     <row r="547" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
     </row>
     <row r="548" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
     </row>
     <row r="549" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
     </row>
     <row r="550" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
     </row>
     <row r="551" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
     </row>
     <row r="552" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
     </row>
     <row r="553" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
     </row>
     <row r="554" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
     </row>
     <row r="555" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
     </row>
     <row r="556" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
     </row>
     <row r="557" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
     </row>
     <row r="558" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="559" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
     </row>
     <row r="560" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
     </row>
     <row r="561" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
     </row>
     <row r="562" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
     </row>
     <row r="563" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
     </row>
     <row r="564" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
     </row>
     <row r="565" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
     </row>
     <row r="566" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="567" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A567" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="568" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A568" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="569" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A569" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="570" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A570" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="571" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A571" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="572" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A572" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="573" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A573" s="1" t="s">
         <v>667</v>
-      </c>
-    </row>
-    <row r="574" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A574" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="575" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A575" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="576" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A576" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="577" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A577" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="578" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A578" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="579" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A579" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="580" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A580" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="581" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A581" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="582" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A582" s="1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="583" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A583" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="584" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A584" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="585" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A585" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="586" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A586" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="587" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A587" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="588" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A588" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="589" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A589" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="590" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A590" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="591" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A591" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="592" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A592" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="593" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A593" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="594" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A594" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="595" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A595" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="596" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A596" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="597" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A597" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="598" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A598" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="599" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A599" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="600" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A600" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="601" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A601" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="602" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A602" s="1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="603" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A603" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="604" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A604" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="605" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A605" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="606" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A606" s="1" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="607" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A607" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="608" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A608" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="609" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A609" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="610" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A610" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="611" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A611" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="612" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A612" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="613" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A613" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="614" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A614" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="615" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A615" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="616" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A616" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="617" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A617" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="618" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A618" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="619" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A619" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="620" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A620" s="1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="621" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A621" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="622" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A622" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="623" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A623" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="624" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A624" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="625" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A625" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="626" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A626" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="627" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A627" s="1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="628" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A628" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="629" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A629" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="630" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A630" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="631" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A631" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="632" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A632" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="633" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A633" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="634" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A634" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="635" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A635" s="1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="636" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A636" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="637" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A637" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="638" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A638" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="639" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A639" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="640" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A640" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="641" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A641" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="642" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A642" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="643" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A643" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="644" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A644" s="1" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="645" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A645" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="646" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A646" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="647" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A647" s="1" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="648" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A648" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="649" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A649" s="1" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="650" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A650" s="1" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="651" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A651" s="1" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="652" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A652" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="653" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A653" s="1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="654" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A654" s="1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="655" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A655" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="656" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A656" s="1" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="657" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A657" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="658" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A658" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="659" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A659" s="1" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="660" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A660" s="1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="661" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A661" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="662" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A662" s="1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="663" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A663" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="664" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A664" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="665" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A665" s="1" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="666" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A666" s="1" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="667" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A667" s="1" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="668" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A668" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="669" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A669" s="1" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="670" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A670" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="671" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A671" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="672" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A672" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="673" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A673" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="674" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A674" s="1" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="675" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A675" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="676" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A676" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="677" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A677" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="678" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A678" s="1" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="679" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A679" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="680" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A680" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="681" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A681" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="682" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A682" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="683" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A683" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="684" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A684" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="685" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A685" s="1" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="686" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A686" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="687" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A687" s="1" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="688" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A688" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="689" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A689" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="690" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A690" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="691" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A691" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="692" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A692" s="1" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="693" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A693" s="1" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="694" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A694" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="695" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A695" s="1" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="696" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A696" s="1" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="697" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A697" s="1" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="698" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A698" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="699" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A699" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="700" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A700" s="1" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="701" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A701" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="702" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A702" s="1" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="703" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A703" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="704" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A704" s="1" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="705" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A705" s="1" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="706" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A706" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="707" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A707" s="1" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="708" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A708" s="1" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="709" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A709" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="710" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A710" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="711" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A711" s="1" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="712" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A712" s="1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="713" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A713" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="714" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A714" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="715" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A715" s="1" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="716" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A716" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="717" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A717" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="718" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A718" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="719" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A719" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="720" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A720" s="1" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="721" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A721" s="1" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="722" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A722" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="723" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A723" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="724" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A724" s="1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="725" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A725" s="1" t="s">
-        <v>819</v>
       </c>
     </row>
   </sheetData>

--- a/GroundTruth.xlsx
+++ b/GroundTruth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suruchi/Documents/MSc Artificial Intelligence/Artificial Intelligence Project/UniversalAdversarialChallenges-AutonomousVehicles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068C607C-9C7B-1B46-94B5-3D393A634A54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF15725D-3C72-3845-A8A4-9DB44D67F0B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="17040" activeTab="1" xr2:uid="{E9FA8BCC-3C24-E14A-8C2A-C02BE4E3E8A8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="17040" activeTab="2" xr2:uid="{E9FA8BCC-3C24-E14A-8C2A-C02BE4E3E8A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Art in Surroundings" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="1081">
   <si>
     <t>person</t>
   </si>
@@ -278,18 +278,6 @@
     <t>toothbrush</t>
   </si>
   <si>
-    <t>SYGLH</t>
-  </si>
-  <si>
-    <t>W2V4Y</t>
-  </si>
-  <si>
-    <t>SJ9KY</t>
-  </si>
-  <si>
-    <t>HM929</t>
-  </si>
-  <si>
     <t>657P0</t>
   </si>
   <si>
@@ -326,72 +314,6 @@
     <t>8PUTF</t>
   </si>
   <si>
-    <t>6321I</t>
-  </si>
-  <si>
-    <t>OY571</t>
-  </si>
-  <si>
-    <t>CHXU4</t>
-  </si>
-  <si>
-    <t>Q9PET</t>
-  </si>
-  <si>
-    <t>RC926</t>
-  </si>
-  <si>
-    <t>6LV74</t>
-  </si>
-  <si>
-    <t>5AH8S</t>
-  </si>
-  <si>
-    <t>UO5UE</t>
-  </si>
-  <si>
-    <t>KCQ67</t>
-  </si>
-  <si>
-    <t>LY05Y</t>
-  </si>
-  <si>
-    <t>XW2HY</t>
-  </si>
-  <si>
-    <t>GJG7P</t>
-  </si>
-  <si>
-    <t>2J064</t>
-  </si>
-  <si>
-    <t>C6V25</t>
-  </si>
-  <si>
-    <t>45BU5</t>
-  </si>
-  <si>
-    <t>X4G4S</t>
-  </si>
-  <si>
-    <t>BM5XU</t>
-  </si>
-  <si>
-    <t>9QF84</t>
-  </si>
-  <si>
-    <t>7CC7I</t>
-  </si>
-  <si>
-    <t>9YM9G</t>
-  </si>
-  <si>
-    <t>0ZJCO</t>
-  </si>
-  <si>
-    <t>T7QEM</t>
-  </si>
-  <si>
     <t>X5U8G</t>
   </si>
   <si>
@@ -446,348 +368,6 @@
     <t>TBGYW</t>
   </si>
   <si>
-    <t>BN14H</t>
-  </si>
-  <si>
-    <t>HBSQ9</t>
-  </si>
-  <si>
-    <t>C13ML</t>
-  </si>
-  <si>
-    <t>HSRYU</t>
-  </si>
-  <si>
-    <t>PP943</t>
-  </si>
-  <si>
-    <t>SAXZA</t>
-  </si>
-  <si>
-    <t>441XJ</t>
-  </si>
-  <si>
-    <t>8RAR3</t>
-  </si>
-  <si>
-    <t>QVCAS</t>
-  </si>
-  <si>
-    <t>J57Y8</t>
-  </si>
-  <si>
-    <t>65IJY</t>
-  </si>
-  <si>
-    <t>U77SE</t>
-  </si>
-  <si>
-    <t>KN036</t>
-  </si>
-  <si>
-    <t>OSJSD</t>
-  </si>
-  <si>
-    <t>Z7U6N</t>
-  </si>
-  <si>
-    <t>DGT65</t>
-  </si>
-  <si>
-    <t>VKHKB</t>
-  </si>
-  <si>
-    <t>OFWWN</t>
-  </si>
-  <si>
-    <t>4R04V</t>
-  </si>
-  <si>
-    <t>MMUFR</t>
-  </si>
-  <si>
-    <t>C4HKD</t>
-  </si>
-  <si>
-    <t>0F59X</t>
-  </si>
-  <si>
-    <t>A7J63</t>
-  </si>
-  <si>
-    <t>J5OSW</t>
-  </si>
-  <si>
-    <t>0DGPY</t>
-  </si>
-  <si>
-    <t>6A1MI</t>
-  </si>
-  <si>
-    <t>FVX48</t>
-  </si>
-  <si>
-    <t>CFCDQ</t>
-  </si>
-  <si>
-    <t>XRL2O</t>
-  </si>
-  <si>
-    <t>LOFLL</t>
-  </si>
-  <si>
-    <t>34EBF</t>
-  </si>
-  <si>
-    <t>8PJMD</t>
-  </si>
-  <si>
-    <t>LFTRS</t>
-  </si>
-  <si>
-    <t>E96J7</t>
-  </si>
-  <si>
-    <t>9MBMK</t>
-  </si>
-  <si>
-    <t>PJHJP</t>
-  </si>
-  <si>
-    <t>NIT9M</t>
-  </si>
-  <si>
-    <t>0Y2PZ</t>
-  </si>
-  <si>
-    <t>76M7K</t>
-  </si>
-  <si>
-    <t>AD7DY</t>
-  </si>
-  <si>
-    <t>ASPV6</t>
-  </si>
-  <si>
-    <t>WH3GP</t>
-  </si>
-  <si>
-    <t>HGW4O</t>
-  </si>
-  <si>
-    <t>5CUJH</t>
-  </si>
-  <si>
-    <t>NEBXI</t>
-  </si>
-  <si>
-    <t>HLZNN</t>
-  </si>
-  <si>
-    <t>OJU22</t>
-  </si>
-  <si>
-    <t>G7OQQ</t>
-  </si>
-  <si>
-    <t>PJW14</t>
-  </si>
-  <si>
-    <t>Z9CKY</t>
-  </si>
-  <si>
-    <t>4UW84</t>
-  </si>
-  <si>
-    <t>3BCMS</t>
-  </si>
-  <si>
-    <t>QYDM6</t>
-  </si>
-  <si>
-    <t>3A7DX</t>
-  </si>
-  <si>
-    <t>GKLD7</t>
-  </si>
-  <si>
-    <t>KEWTR</t>
-  </si>
-  <si>
-    <t>GV4LF</t>
-  </si>
-  <si>
-    <t>44XI6</t>
-  </si>
-  <si>
-    <t>4U7PD</t>
-  </si>
-  <si>
-    <t>LXN38</t>
-  </si>
-  <si>
-    <t>97Y5X</t>
-  </si>
-  <si>
-    <t>C3V07</t>
-  </si>
-  <si>
-    <t>JPSWM</t>
-  </si>
-  <si>
-    <t>3J9P8</t>
-  </si>
-  <si>
-    <t>XC2TW</t>
-  </si>
-  <si>
-    <t>8HE3J</t>
-  </si>
-  <si>
-    <t>RASMX</t>
-  </si>
-  <si>
-    <t>ERSUN</t>
-  </si>
-  <si>
-    <t>KRWQ2</t>
-  </si>
-  <si>
-    <t>2Z14V</t>
-  </si>
-  <si>
-    <t>BD4JW</t>
-  </si>
-  <si>
-    <t>OVK1Y</t>
-  </si>
-  <si>
-    <t>XWCVI</t>
-  </si>
-  <si>
-    <t>HWV7J</t>
-  </si>
-  <si>
-    <t>4RF43</t>
-  </si>
-  <si>
-    <t>TPC6S</t>
-  </si>
-  <si>
-    <t>BW3JZ</t>
-  </si>
-  <si>
-    <t>QN1LE</t>
-  </si>
-  <si>
-    <t>0V5MD</t>
-  </si>
-  <si>
-    <t>I8M7N</t>
-  </si>
-  <si>
-    <t>3HDNC</t>
-  </si>
-  <si>
-    <t>DP5CT</t>
-  </si>
-  <si>
-    <t>0T2R7</t>
-  </si>
-  <si>
-    <t>Y0RUP</t>
-  </si>
-  <si>
-    <t>6Z47E</t>
-  </si>
-  <si>
-    <t>BFTYJ</t>
-  </si>
-  <si>
-    <t>7IZYL</t>
-  </si>
-  <si>
-    <t>HGQBZ</t>
-  </si>
-  <si>
-    <t>ZUEYM</t>
-  </si>
-  <si>
-    <t>ZMP0O</t>
-  </si>
-  <si>
-    <t>GH965</t>
-  </si>
-  <si>
-    <t>RIQL8</t>
-  </si>
-  <si>
-    <t>AL5PS</t>
-  </si>
-  <si>
-    <t>BZIFG</t>
-  </si>
-  <si>
-    <t>OXYPA</t>
-  </si>
-  <si>
-    <t>56NK1</t>
-  </si>
-  <si>
-    <t>Y5CJC</t>
-  </si>
-  <si>
-    <t>R5FAJ</t>
-  </si>
-  <si>
-    <t>WMTUM</t>
-  </si>
-  <si>
-    <t>14RZ0</t>
-  </si>
-  <si>
-    <t>M97Q2</t>
-  </si>
-  <si>
-    <t>9F0XE</t>
-  </si>
-  <si>
-    <t>GW5KB</t>
-  </si>
-  <si>
-    <t>F4QPY</t>
-  </si>
-  <si>
-    <t>276MM</t>
-  </si>
-  <si>
-    <t>B0H3G</t>
-  </si>
-  <si>
-    <t>EJ31G</t>
-  </si>
-  <si>
-    <t>SOE8E</t>
-  </si>
-  <si>
-    <t>Z8KXJ</t>
-  </si>
-  <si>
-    <t>UTDXT</t>
-  </si>
-  <si>
-    <t>Y9CQA</t>
-  </si>
-  <si>
-    <t>0Z0NY</t>
-  </si>
-  <si>
-    <t>WOG0F</t>
-  </si>
-  <si>
-    <t>6EFI6</t>
-  </si>
-  <si>
     <t>NU8OB</t>
   </si>
   <si>
@@ -2447,9 +2027,6 @@
     <t>QY549.jpg</t>
   </si>
   <si>
-    <t>CFPGV.jpg</t>
-  </si>
-  <si>
     <t>GX1SG.jpg</t>
   </si>
   <si>
@@ -3282,6 +2859,426 @@
   </si>
   <si>
     <t>OWMF6.jpg</t>
+  </si>
+  <si>
+    <t>6321I.jpg</t>
+  </si>
+  <si>
+    <t>OY571.jpg</t>
+  </si>
+  <si>
+    <t>CHXU4.jpg</t>
+  </si>
+  <si>
+    <t>Q9PET.jpg</t>
+  </si>
+  <si>
+    <t>RC926.jpeg</t>
+  </si>
+  <si>
+    <t>6LV74.jpg</t>
+  </si>
+  <si>
+    <t>5AH8S.jpg</t>
+  </si>
+  <si>
+    <t>UO5UE.jpg</t>
+  </si>
+  <si>
+    <t>SYGLH.jpg</t>
+  </si>
+  <si>
+    <t>W2V4Y.jpg</t>
+  </si>
+  <si>
+    <t>SJ9KY.jpg</t>
+  </si>
+  <si>
+    <t>HM929.jpg</t>
+  </si>
+  <si>
+    <t>KCQ67.jpg</t>
+  </si>
+  <si>
+    <t>LY05Y.jpg</t>
+  </si>
+  <si>
+    <t>XW2HY.jpg</t>
+  </si>
+  <si>
+    <t>GJG7P.jpg</t>
+  </si>
+  <si>
+    <t>2J064.jpg</t>
+  </si>
+  <si>
+    <t>C6V25.jpg</t>
+  </si>
+  <si>
+    <t>45BU5.jpg</t>
+  </si>
+  <si>
+    <t>X4G4S.jpg</t>
+  </si>
+  <si>
+    <t>BM5XU.jpg</t>
+  </si>
+  <si>
+    <t>9QF84.jpg</t>
+  </si>
+  <si>
+    <t>7CC7I.jpg</t>
+  </si>
+  <si>
+    <t>9YM9G.jpg</t>
+  </si>
+  <si>
+    <t>0ZJCO.jpg</t>
+  </si>
+  <si>
+    <t>T7QEM.jpg</t>
+  </si>
+  <si>
+    <t>BN14H.jpg</t>
+  </si>
+  <si>
+    <t>HBSQ9.jpg</t>
+  </si>
+  <si>
+    <t>C13ML.jpg</t>
+  </si>
+  <si>
+    <t>HSRYU.jpg</t>
+  </si>
+  <si>
+    <t>PP943.jpg</t>
+  </si>
+  <si>
+    <t>SAXZA.jpg</t>
+  </si>
+  <si>
+    <t>8RAR3.jpg</t>
+  </si>
+  <si>
+    <t>441XJ.jpeg</t>
+  </si>
+  <si>
+    <t>QVCAS.jpg</t>
+  </si>
+  <si>
+    <t>J57Y8.jpg</t>
+  </si>
+  <si>
+    <t>65IJY.jpg</t>
+  </si>
+  <si>
+    <t>U77SE.jpg</t>
+  </si>
+  <si>
+    <t>KN036.jpg</t>
+  </si>
+  <si>
+    <t>OSJSD.jpg</t>
+  </si>
+  <si>
+    <t>Z7U6N.jpg</t>
+  </si>
+  <si>
+    <t>DGT65.jpg</t>
+  </si>
+  <si>
+    <t>OFWWN.jpg</t>
+  </si>
+  <si>
+    <t>VKHKB.jpg</t>
+  </si>
+  <si>
+    <t>4R04V.jpg</t>
+  </si>
+  <si>
+    <t>MMUFR.jpg</t>
+  </si>
+  <si>
+    <t>C4HKD.jpg</t>
+  </si>
+  <si>
+    <t>0F59X.jpg</t>
+  </si>
+  <si>
+    <t>A7J63.jpg</t>
+  </si>
+  <si>
+    <t>J5OSW.jpg</t>
+  </si>
+  <si>
+    <t>0DGPY.jpg</t>
+  </si>
+  <si>
+    <t>6A1MI.jpg</t>
+  </si>
+  <si>
+    <t>FVX48.jpg</t>
+  </si>
+  <si>
+    <t>CFCDQ.jpg</t>
+  </si>
+  <si>
+    <t>XRL2O.jpg</t>
+  </si>
+  <si>
+    <t>LOFLL.jpg</t>
+  </si>
+  <si>
+    <t>34EBF.jpg</t>
+  </si>
+  <si>
+    <t>8PJMD.jpg</t>
+  </si>
+  <si>
+    <t>LFTRS.jpg</t>
+  </si>
+  <si>
+    <t>E96J7.jpg</t>
+  </si>
+  <si>
+    <t>9MBMK.jpg</t>
+  </si>
+  <si>
+    <t>PJHJP.jpg</t>
+  </si>
+  <si>
+    <t>NIT9M.jpg</t>
+  </si>
+  <si>
+    <t>0Y2PZ.jpg</t>
+  </si>
+  <si>
+    <t>76M7K.jpg</t>
+  </si>
+  <si>
+    <t>AD7DY.jpg</t>
+  </si>
+  <si>
+    <t>ASPV6.jpeg</t>
+  </si>
+  <si>
+    <t>WH3GP.jpg</t>
+  </si>
+  <si>
+    <t>HGW4O.jpg</t>
+  </si>
+  <si>
+    <t>5CUJH.jpg</t>
+  </si>
+  <si>
+    <t>NEBXI.jpg</t>
+  </si>
+  <si>
+    <t>HLZNN.jpg</t>
+  </si>
+  <si>
+    <t>OJU22.jpg</t>
+  </si>
+  <si>
+    <t>G7OQQ.jpg</t>
+  </si>
+  <si>
+    <t>PJW14.jpg</t>
+  </si>
+  <si>
+    <t>Z9CKY.jpg</t>
+  </si>
+  <si>
+    <t>4UW84.jpg</t>
+  </si>
+  <si>
+    <t>3BCMS.jpg</t>
+  </si>
+  <si>
+    <t>QYDM6.jpg</t>
+  </si>
+  <si>
+    <t>3A7DX.jpg</t>
+  </si>
+  <si>
+    <t>GKLD7.jpg</t>
+  </si>
+  <si>
+    <t>KEWTR.jpg</t>
+  </si>
+  <si>
+    <t>GV4LF.jpg</t>
+  </si>
+  <si>
+    <t>44XI6.jpg</t>
+  </si>
+  <si>
+    <t>4U7PD.jpg</t>
+  </si>
+  <si>
+    <t>LXN38.jpg</t>
+  </si>
+  <si>
+    <t>97Y5X.jpg</t>
+  </si>
+  <si>
+    <t>C3V07.jpg</t>
+  </si>
+  <si>
+    <t>JPSWM.jpg</t>
+  </si>
+  <si>
+    <t>3J9P8.jpg</t>
+  </si>
+  <si>
+    <t>XC2TW.jpg</t>
+  </si>
+  <si>
+    <t>RASMX.jpg</t>
+  </si>
+  <si>
+    <t>8HE3J.jpeg</t>
+  </si>
+  <si>
+    <t>ERSUN.jpg</t>
+  </si>
+  <si>
+    <t>KRWQ2.jpg</t>
+  </si>
+  <si>
+    <t>2Z14V.jpg</t>
+  </si>
+  <si>
+    <t>BD4JW.jpg</t>
+  </si>
+  <si>
+    <t>OVK1Y.jpg</t>
+  </si>
+  <si>
+    <t>XWCVI.jpg</t>
+  </si>
+  <si>
+    <t>HWV7J.jpg</t>
+  </si>
+  <si>
+    <t>4RF43.jpg</t>
+  </si>
+  <si>
+    <t>TPC6S.jpg</t>
+  </si>
+  <si>
+    <t>BW3JZ.jpg</t>
+  </si>
+  <si>
+    <t>QN1LE.jpg</t>
+  </si>
+  <si>
+    <t>0V5MD.jpg</t>
+  </si>
+  <si>
+    <t>I8M7N.jpg</t>
+  </si>
+  <si>
+    <t>3HDNC.jpg</t>
+  </si>
+  <si>
+    <t>DP5CT.jpg</t>
+  </si>
+  <si>
+    <t>0T2R7.jpg</t>
+  </si>
+  <si>
+    <t>Y0RUP.jpg</t>
+  </si>
+  <si>
+    <t>6Z47E.jpg</t>
+  </si>
+  <si>
+    <t>BFTYJ.jpg</t>
+  </si>
+  <si>
+    <t>7IZYL.jpg</t>
+  </si>
+  <si>
+    <t>HGQBZ.jpg</t>
+  </si>
+  <si>
+    <t>ZUEYM.jpg</t>
+  </si>
+  <si>
+    <t>ZMP0O.jpg</t>
+  </si>
+  <si>
+    <t>GH965.jpg</t>
+  </si>
+  <si>
+    <t>RIQL8.jpg</t>
+  </si>
+  <si>
+    <t>AL5PS.jpg</t>
+  </si>
+  <si>
+    <t>BZIFG.jpg</t>
+  </si>
+  <si>
+    <t>OXYPA.jpeg</t>
+  </si>
+  <si>
+    <t>56NK1.jpg</t>
+  </si>
+  <si>
+    <t>Y5CJC.jpg</t>
+  </si>
+  <si>
+    <t>R5FAJ.jpg</t>
+  </si>
+  <si>
+    <t>WMTUM.jpeg</t>
+  </si>
+  <si>
+    <t>14RZ0.jpg</t>
+  </si>
+  <si>
+    <t>M97Q2.jpg</t>
+  </si>
+  <si>
+    <t>9F0XE.jpg</t>
+  </si>
+  <si>
+    <t>GW5KB.jpg</t>
+  </si>
+  <si>
+    <t>F4QPY.jpg</t>
+  </si>
+  <si>
+    <t>276MM.jpg</t>
+  </si>
+  <si>
+    <t>B0H3G.jpg</t>
+  </si>
+  <si>
+    <t>EJ31G.jpg</t>
+  </si>
+  <si>
+    <t>SOE8E.jpg</t>
+  </si>
+  <si>
+    <t>Z8KXJ.jpg</t>
+  </si>
+  <si>
+    <t>UTDXT.jpeg</t>
+  </si>
+  <si>
+    <t>Y9CQA.jpg</t>
+  </si>
+  <si>
+    <t>0Z0NY.jpg</t>
+  </si>
+  <si>
+    <t>WOG0F.jpg</t>
+  </si>
+  <si>
+    <t>6EFI6.jpg</t>
   </si>
 </sst>
 </file>
@@ -3323,9 +3320,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3644,14 +3642,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A221" sqref="A221:XFD221"/>
+      <selection pane="bottomLeft" activeCell="B226" sqref="B226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>796</v>
+        <v>656</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3896,7 +3894,7 @@
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>668</v>
+        <v>528</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -3904,7 +3902,7 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>669</v>
+        <v>529</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3912,25 +3910,25 @@
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>670</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>672</v>
+        <v>532</v>
       </c>
       <c r="B5" t="s">
-        <v>671</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>673</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>674</v>
+        <v>534</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -3938,17 +3936,17 @@
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>675</v>
+        <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>676</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>677</v>
+        <v>537</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3956,32 +3954,32 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>678</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>679</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>680</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>681</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>682</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>683</v>
+        <v>543</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -3989,12 +3987,12 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>684</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>685</v>
+        <v>545</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -4002,12 +4000,12 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>686</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>687</v>
+        <v>547</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -4015,12 +4013,12 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>688</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>689</v>
+        <v>549</v>
       </c>
       <c r="B22">
         <v>9</v>
@@ -4028,12 +4026,12 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>690</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>691</v>
+        <v>551</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4041,7 +4039,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>692</v>
+        <v>552</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -4049,7 +4047,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>693</v>
+        <v>553</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -4057,7 +4055,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>694</v>
+        <v>554</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -4065,27 +4063,27 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>695</v>
+        <v>555</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>696</v>
+        <v>556</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>697</v>
+        <v>557</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>698</v>
+        <v>558</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>699</v>
+        <v>559</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -4093,22 +4091,22 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>700</v>
+        <v>560</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>701</v>
+        <v>561</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>702</v>
+        <v>562</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>703</v>
+        <v>563</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4122,17 +4120,17 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>704</v>
+        <v>564</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>705</v>
+        <v>565</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>706</v>
+        <v>566</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4140,72 +4138,72 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>707</v>
+        <v>567</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>708</v>
+        <v>568</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>709</v>
+        <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>710</v>
+        <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>711</v>
+        <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>712</v>
+        <v>572</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>713</v>
+        <v>573</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>714</v>
+        <v>574</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>715</v>
+        <v>575</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>716</v>
+        <v>576</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>717</v>
+        <v>577</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>718</v>
+        <v>578</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>719</v>
+        <v>579</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>720</v>
+        <v>580</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4213,162 +4211,162 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>721</v>
+        <v>581</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>722</v>
+        <v>582</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>723</v>
+        <v>583</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>724</v>
+        <v>584</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>725</v>
+        <v>585</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>726</v>
+        <v>586</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>727</v>
+        <v>587</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>728</v>
+        <v>588</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>729</v>
+        <v>589</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>730</v>
+        <v>590</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>731</v>
+        <v>591</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>732</v>
+        <v>592</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>733</v>
+        <v>593</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>734</v>
+        <v>594</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>735</v>
+        <v>595</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>736</v>
+        <v>596</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>737</v>
+        <v>597</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>738</v>
+        <v>598</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>739</v>
+        <v>599</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>740</v>
+        <v>600</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>741</v>
+        <v>601</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>742</v>
+        <v>602</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>743</v>
+        <v>603</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>744</v>
+        <v>604</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>745</v>
+        <v>605</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>746</v>
+        <v>606</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>747</v>
+        <v>607</v>
       </c>
     </row>
     <row r="81" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>748</v>
+        <v>608</v>
       </c>
     </row>
     <row r="82" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>749</v>
+        <v>609</v>
       </c>
     </row>
     <row r="83" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>750</v>
+        <v>610</v>
       </c>
     </row>
     <row r="84" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>751</v>
+        <v>611</v>
       </c>
     </row>
     <row r="85" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>752</v>
+        <v>612</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -4376,7 +4374,7 @@
     </row>
     <row r="86" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>753</v>
+        <v>613</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4384,22 +4382,22 @@
     </row>
     <row r="87" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>754</v>
+        <v>614</v>
       </c>
     </row>
     <row r="88" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>755</v>
+        <v>615</v>
       </c>
     </row>
     <row r="89" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>756</v>
+        <v>616</v>
       </c>
     </row>
     <row r="90" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>757</v>
+        <v>617</v>
       </c>
       <c r="BH90">
         <v>2</v>
@@ -4407,22 +4405,22 @@
     </row>
     <row r="91" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>758</v>
+        <v>618</v>
       </c>
     </row>
     <row r="92" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>759</v>
+        <v>619</v>
       </c>
     </row>
     <row r="93" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>760</v>
+        <v>620</v>
       </c>
     </row>
     <row r="94" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>761</v>
+        <v>621</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -4430,27 +4428,27 @@
     </row>
     <row r="95" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>762</v>
+        <v>622</v>
       </c>
     </row>
     <row r="96" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>763</v>
+        <v>623</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>764</v>
+        <v>624</v>
       </c>
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>765</v>
+        <v>625</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>766</v>
+        <v>626</v>
       </c>
       <c r="B99">
         <v>7</v>
@@ -4458,17 +4456,17 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>767</v>
+        <v>627</v>
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>768</v>
+        <v>628</v>
       </c>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>769</v>
+        <v>629</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -4476,12 +4474,12 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>770</v>
+        <v>630</v>
       </c>
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>771</v>
+        <v>631</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -4492,17 +4490,17 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>772</v>
+        <v>632</v>
       </c>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>773</v>
+        <v>633</v>
       </c>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>774</v>
+        <v>634</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4510,27 +4508,27 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>775</v>
+        <v>635</v>
       </c>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>776</v>
+        <v>636</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>777</v>
+        <v>637</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>778</v>
+        <v>638</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>779</v>
+        <v>639</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -4538,92 +4536,92 @@
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>780</v>
+        <v>640</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>781</v>
+        <v>641</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>782</v>
+        <v>642</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>783</v>
+        <v>643</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>784</v>
+        <v>644</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>785</v>
+        <v>645</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>786</v>
+        <v>646</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>787</v>
+        <v>647</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>788</v>
+        <v>648</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>789</v>
+        <v>649</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>790</v>
+        <v>650</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>791</v>
+        <v>651</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>792</v>
+        <v>652</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>793</v>
+        <v>653</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>794</v>
+        <v>654</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>795</v>
+        <v>655</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>837</v>
+        <v>696</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>838</v>
+        <v>697</v>
       </c>
       <c r="B130">
         <v>2</v>
@@ -4631,22 +4629,22 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>839</v>
+        <v>698</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>840</v>
+        <v>699</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>841</v>
+        <v>700</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>842</v>
+        <v>701</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -4654,37 +4652,37 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>843</v>
+        <v>702</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>844</v>
+        <v>703</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>845</v>
+        <v>704</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>846</v>
+        <v>705</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>847</v>
+        <v>706</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>848</v>
+        <v>707</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>849</v>
+        <v>708</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -4692,22 +4690,22 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>850</v>
+        <v>709</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>851</v>
+        <v>710</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>852</v>
+        <v>711</v>
       </c>
     </row>
     <row r="145" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>853</v>
+        <v>712</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -4718,22 +4716,22 @@
     </row>
     <row r="146" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>854</v>
+        <v>713</v>
       </c>
     </row>
     <row r="147" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>855</v>
+        <v>714</v>
       </c>
     </row>
     <row r="148" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>856</v>
+        <v>715</v>
       </c>
     </row>
     <row r="149" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>857</v>
+        <v>716</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -4741,42 +4739,42 @@
     </row>
     <row r="150" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>858</v>
+        <v>717</v>
       </c>
     </row>
     <row r="151" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>859</v>
+        <v>718</v>
       </c>
     </row>
     <row r="152" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>860</v>
+        <v>719</v>
       </c>
     </row>
     <row r="153" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>861</v>
+        <v>720</v>
       </c>
     </row>
     <row r="154" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>862</v>
+        <v>721</v>
       </c>
     </row>
     <row r="155" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>863</v>
+        <v>722</v>
       </c>
     </row>
     <row r="156" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>864</v>
+        <v>723</v>
       </c>
     </row>
     <row r="157" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>865</v>
+        <v>724</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -4784,67 +4782,67 @@
     </row>
     <row r="158" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>866</v>
+        <v>725</v>
       </c>
     </row>
     <row r="159" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>867</v>
+        <v>726</v>
       </c>
     </row>
     <row r="160" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>868</v>
+        <v>727</v>
       </c>
     </row>
     <row r="161" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>869</v>
+        <v>728</v>
       </c>
     </row>
     <row r="162" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>870</v>
+        <v>729</v>
       </c>
     </row>
     <row r="163" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>871</v>
+        <v>730</v>
       </c>
     </row>
     <row r="164" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>872</v>
+        <v>731</v>
       </c>
     </row>
     <row r="165" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>873</v>
+        <v>732</v>
       </c>
     </row>
     <row r="166" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>874</v>
+        <v>733</v>
       </c>
     </row>
     <row r="167" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>875</v>
+        <v>734</v>
       </c>
     </row>
     <row r="168" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>876</v>
+        <v>735</v>
       </c>
     </row>
     <row r="169" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>877</v>
+        <v>736</v>
       </c>
     </row>
     <row r="170" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>878</v>
+        <v>737</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -4852,27 +4850,27 @@
     </row>
     <row r="171" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>879</v>
+        <v>738</v>
       </c>
     </row>
     <row r="172" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>880</v>
+        <v>739</v>
       </c>
     </row>
     <row r="173" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>881</v>
+        <v>740</v>
       </c>
     </row>
     <row r="174" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>882</v>
+        <v>741</v>
       </c>
     </row>
     <row r="175" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>883</v>
+        <v>742</v>
       </c>
       <c r="BH175">
         <v>4</v>
@@ -4880,62 +4878,62 @@
     </row>
     <row r="176" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>884</v>
+        <v>743</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>885</v>
+        <v>744</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>886</v>
+        <v>745</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>887</v>
+        <v>746</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>888</v>
+        <v>747</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>889</v>
+        <v>748</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>890</v>
+        <v>749</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>891</v>
+        <v>750</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>892</v>
+        <v>751</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>893</v>
+        <v>752</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>894</v>
+        <v>753</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>895</v>
+        <v>754</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -4943,17 +4941,17 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>896</v>
+        <v>755</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>897</v>
+        <v>756</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>898</v>
+        <v>757</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -4961,17 +4959,17 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>899</v>
+        <v>758</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>900</v>
+        <v>759</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>901</v>
+        <v>760</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -4979,17 +4977,17 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>902</v>
+        <v>761</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>903</v>
+        <v>762</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>904</v>
+        <v>763</v>
       </c>
       <c r="B196">
         <v>9</v>
@@ -4997,7 +4995,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>905</v>
+        <v>764</v>
       </c>
       <c r="B197">
         <v>2</v>
@@ -5005,27 +5003,27 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>906</v>
+        <v>765</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>907</v>
+        <v>766</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>908</v>
+        <v>767</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>909</v>
+        <v>768</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>910</v>
+        <v>769</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -5033,22 +5031,22 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>911</v>
+        <v>770</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>912</v>
+        <v>771</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>913</v>
+        <v>772</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>914</v>
+        <v>773</v>
       </c>
       <c r="K206">
         <v>2</v>
@@ -5056,7 +5054,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>915</v>
+        <v>774</v>
       </c>
       <c r="K207">
         <v>2</v>
@@ -5064,12 +5062,12 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>916</v>
+        <v>775</v>
       </c>
     </row>
     <row r="209" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>917</v>
+        <v>776</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -5077,17 +5075,17 @@
     </row>
     <row r="210" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>918</v>
+        <v>777</v>
       </c>
     </row>
     <row r="211" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>919</v>
+        <v>778</v>
       </c>
     </row>
     <row r="212" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>920</v>
+        <v>779</v>
       </c>
       <c r="D212">
         <v>2</v>
@@ -5095,22 +5093,22 @@
     </row>
     <row r="213" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>921</v>
+        <v>780</v>
       </c>
     </row>
     <row r="214" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>922</v>
+        <v>781</v>
       </c>
     </row>
     <row r="215" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>923</v>
+        <v>782</v>
       </c>
     </row>
     <row r="216" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>924</v>
+        <v>783</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -5121,17 +5119,17 @@
     </row>
     <row r="217" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>925</v>
+        <v>784</v>
       </c>
     </row>
     <row r="218" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>926</v>
+        <v>785</v>
       </c>
     </row>
     <row r="219" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>927</v>
+        <v>786</v>
       </c>
       <c r="O219">
         <v>1</v>
@@ -5139,7 +5137,7 @@
     </row>
     <row r="220" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>928</v>
+        <v>787</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -5147,98 +5145,95 @@
     </row>
     <row r="221" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1079</v>
+        <v>938</v>
       </c>
       <c r="B221">
-        <v>1</v>
-      </c>
-      <c r="D221">
         <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>929</v>
+        <v>788</v>
       </c>
     </row>
     <row r="223" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>80</v>
+        <v>949</v>
       </c>
     </row>
     <row r="224" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>81</v>
+        <v>950</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>82</v>
+        <v>951</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>83</v>
+        <v>952</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -5249,18 +5244,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0567FE6-4478-824F-981C-52DF783E1141}">
-  <dimension ref="A1:CC195"/>
+  <dimension ref="A1:CC228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A189" sqref="A189"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>796</v>
+        <v>656</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5505,7 +5500,7 @@
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>797</v>
+        <v>657</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -5513,7 +5508,7 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>798</v>
+        <v>658</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5521,7 +5516,7 @@
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>799</v>
+        <v>659</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -5529,7 +5524,7 @@
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>800</v>
+        <v>660</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -5537,7 +5532,7 @@
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>801</v>
+        <v>661</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5545,7 +5540,7 @@
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>802</v>
+        <v>662</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5559,7 +5554,7 @@
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>805</v>
+        <v>664</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -5570,7 +5565,7 @@
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>806</v>
+        <v>665</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5581,7 +5576,7 @@
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>807</v>
+        <v>666</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5592,7 +5587,7 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>808</v>
+        <v>667</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5600,7 +5595,7 @@
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>809</v>
+        <v>668</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5608,7 +5603,7 @@
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>810</v>
+        <v>669</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -5619,7 +5614,7 @@
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>811</v>
+        <v>670</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -5627,7 +5622,7 @@
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>812</v>
+        <v>671</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -5635,7 +5630,7 @@
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>813</v>
+        <v>672</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -5646,7 +5641,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>814</v>
+        <v>673</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5654,7 +5649,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>815</v>
+        <v>674</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5662,7 +5657,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>816</v>
+        <v>675</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -5673,7 +5668,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>817</v>
+        <v>676</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -5684,7 +5679,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>818</v>
+        <v>677</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -5695,7 +5690,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>819</v>
+        <v>678</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -5703,7 +5698,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>820</v>
+        <v>679</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -5714,7 +5709,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>821</v>
+        <v>680</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -5722,7 +5717,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>822</v>
+        <v>681</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -5730,7 +5725,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>823</v>
+        <v>682</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -5744,7 +5739,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>824</v>
+        <v>683</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -5755,7 +5750,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>825</v>
+        <v>684</v>
       </c>
       <c r="B28">
         <v>13</v>
@@ -5766,7 +5761,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>826</v>
+        <v>685</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -5777,7 +5772,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>827</v>
+        <v>686</v>
       </c>
       <c r="B30">
         <v>9</v>
@@ -5788,7 +5783,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>828</v>
+        <v>687</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -5799,7 +5794,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>829</v>
+        <v>688</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -5810,7 +5805,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>830</v>
+        <v>689</v>
       </c>
       <c r="B33">
         <v>9</v>
@@ -5821,7 +5816,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>831</v>
+        <v>690</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -5832,7 +5827,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>832</v>
+        <v>691</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -5843,7 +5838,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>833</v>
+        <v>692</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -5854,7 +5849,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>834</v>
+        <v>693</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -5862,7 +5857,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>835</v>
+        <v>694</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -5873,7 +5868,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>836</v>
+        <v>695</v>
       </c>
       <c r="B39">
         <v>10</v>
@@ -5887,7 +5882,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>930</v>
+        <v>789</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -5898,7 +5893,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>931</v>
+        <v>790</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -5906,7 +5901,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>932</v>
+        <v>791</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -5914,7 +5909,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>933</v>
+        <v>792</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -5922,7 +5917,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>934</v>
+        <v>793</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -5930,7 +5925,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>935</v>
+        <v>794</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -5941,7 +5936,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>936</v>
+        <v>795</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -5952,7 +5947,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>937</v>
+        <v>796</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -5963,7 +5958,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>938</v>
+        <v>797</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -5971,7 +5966,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>939</v>
+        <v>798</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -5979,7 +5974,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>940</v>
+        <v>799</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -5990,7 +5985,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>941</v>
+        <v>800</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -6001,7 +5996,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>942</v>
+        <v>801</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -6009,7 +6004,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>943</v>
+        <v>802</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -6020,7 +6015,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>944</v>
+        <v>803</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -6031,7 +6026,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>945</v>
+        <v>804</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -6042,7 +6037,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>946</v>
+        <v>805</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -6050,7 +6045,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>947</v>
+        <v>806</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -6058,7 +6053,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>948</v>
+        <v>807</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -6069,7 +6064,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>949</v>
+        <v>808</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6077,7 +6072,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>950</v>
+        <v>809</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6085,7 +6080,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>951</v>
+        <v>810</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6093,7 +6088,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>953</v>
+        <v>812</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -6104,7 +6099,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>952</v>
+        <v>811</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6112,7 +6107,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>954</v>
+        <v>813</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -6120,7 +6115,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>955</v>
+        <v>814</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -6131,7 +6126,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>956</v>
+        <v>815</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6139,7 +6134,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>957</v>
+        <v>816</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -6147,7 +6142,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>958</v>
+        <v>817</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -6155,7 +6150,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>959</v>
+        <v>818</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6163,7 +6158,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>960</v>
+        <v>819</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6171,7 +6166,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>961</v>
+        <v>820</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -6179,7 +6174,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>962</v>
+        <v>821</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -6187,7 +6182,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>963</v>
+        <v>822</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -6201,7 +6196,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>964</v>
+        <v>823</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -6212,7 +6207,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>965</v>
+        <v>824</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -6220,7 +6215,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>966</v>
+        <v>825</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -6234,7 +6229,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>967</v>
+        <v>826</v>
       </c>
       <c r="B77">
         <v>3</v>
@@ -6248,7 +6243,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>968</v>
+        <v>827</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -6256,7 +6251,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>969</v>
+        <v>828</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -6264,7 +6259,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>970</v>
+        <v>829</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -6272,7 +6267,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>971</v>
+        <v>830</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -6280,7 +6275,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>972</v>
+        <v>831</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -6288,7 +6283,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>973</v>
+        <v>832</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -6296,7 +6291,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>974</v>
+        <v>833</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -6304,7 +6299,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>975</v>
+        <v>834</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -6318,7 +6313,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>976</v>
+        <v>835</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -6329,7 +6324,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>977</v>
+        <v>836</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -6337,7 +6332,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>978</v>
+        <v>837</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -6351,7 +6346,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>979</v>
+        <v>838</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -6359,7 +6354,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>980</v>
+        <v>839</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -6370,7 +6365,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>981</v>
+        <v>840</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -6381,7 +6376,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>982</v>
+        <v>841</v>
       </c>
       <c r="E92">
         <v>3</v>
@@ -6389,7 +6384,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>983</v>
+        <v>842</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -6397,7 +6392,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>984</v>
+        <v>843</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -6408,7 +6403,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>985</v>
+        <v>844</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -6416,7 +6411,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>986</v>
+        <v>845</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -6424,7 +6419,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>987</v>
+        <v>846</v>
       </c>
       <c r="B97">
         <v>3</v>
@@ -6435,7 +6430,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>988</v>
+        <v>847</v>
       </c>
       <c r="D98">
         <v>3</v>
@@ -6446,7 +6441,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>989</v>
+        <v>848</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -6454,7 +6449,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>990</v>
+        <v>849</v>
       </c>
       <c r="B100">
         <v>4</v>
@@ -6465,7 +6460,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>991</v>
+        <v>850</v>
       </c>
       <c r="B101">
         <v>3</v>
@@ -6476,7 +6471,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>992</v>
+        <v>851</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -6484,7 +6479,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>993</v>
+        <v>852</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -6495,7 +6490,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>994</v>
+        <v>853</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -6503,7 +6498,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>995</v>
+        <v>854</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -6514,12 +6509,12 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>996</v>
+        <v>855</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>997</v>
+        <v>856</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -6527,7 +6522,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>998</v>
+        <v>857</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -6538,7 +6533,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>999</v>
+        <v>858</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -6552,7 +6547,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1000</v>
+        <v>859</v>
       </c>
       <c r="B110">
         <v>10</v>
@@ -6563,7 +6558,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1001</v>
+        <v>860</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -6571,7 +6566,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1002</v>
+        <v>861</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -6579,7 +6574,7 @@
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1003</v>
+        <v>862</v>
       </c>
       <c r="B113">
         <v>6</v>
@@ -6590,7 +6585,7 @@
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1004</v>
+        <v>863</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -6604,7 +6599,7 @@
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1005</v>
+        <v>864</v>
       </c>
       <c r="B115">
         <v>8</v>
@@ -6615,7 +6610,7 @@
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1006</v>
+        <v>865</v>
       </c>
       <c r="B116">
         <v>8</v>
@@ -6629,7 +6624,7 @@
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1007</v>
+        <v>866</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -6637,7 +6632,7 @@
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1008</v>
+        <v>867</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -6648,7 +6643,7 @@
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1009</v>
+        <v>868</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -6659,7 +6654,7 @@
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1010</v>
+        <v>869</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -6670,7 +6665,7 @@
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1011</v>
+        <v>870</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -6681,7 +6676,7 @@
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1012</v>
+        <v>871</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -6689,7 +6684,7 @@
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1013</v>
+        <v>872</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -6703,7 +6698,7 @@
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1014</v>
+        <v>873</v>
       </c>
       <c r="B124">
         <v>5</v>
@@ -6714,7 +6709,7 @@
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1015</v>
+        <v>874</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -6725,7 +6720,7 @@
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1016</v>
+        <v>875</v>
       </c>
       <c r="B126">
         <v>7</v>
@@ -6736,7 +6731,7 @@
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1017</v>
+        <v>876</v>
       </c>
       <c r="B127">
         <v>5</v>
@@ -6747,7 +6742,7 @@
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1018</v>
+        <v>877</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -6758,7 +6753,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1019</v>
+        <v>878</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -6766,7 +6761,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1020</v>
+        <v>879</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -6774,7 +6769,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1021</v>
+        <v>880</v>
       </c>
       <c r="D131">
         <v>2</v>
@@ -6785,7 +6780,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1022</v>
+        <v>881</v>
       </c>
       <c r="B132">
         <v>7</v>
@@ -6796,7 +6791,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1023</v>
+        <v>882</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -6807,7 +6802,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1024</v>
+        <v>883</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -6815,7 +6810,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1025</v>
+        <v>884</v>
       </c>
       <c r="B135">
         <v>3</v>
@@ -6826,7 +6821,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1026</v>
+        <v>885</v>
       </c>
       <c r="B136">
         <v>2</v>
@@ -6837,7 +6832,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1027</v>
+        <v>886</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -6845,7 +6840,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1028</v>
+        <v>887</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -6853,7 +6848,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1029</v>
+        <v>888</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -6861,7 +6856,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1030</v>
+        <v>889</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -6869,7 +6864,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1031</v>
+        <v>890</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -6877,7 +6872,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1032</v>
+        <v>891</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -6885,7 +6880,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1033</v>
+        <v>892</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -6893,7 +6888,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1034</v>
+        <v>893</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -6901,7 +6896,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1035</v>
+        <v>894</v>
       </c>
       <c r="D145">
         <v>2</v>
@@ -6912,7 +6907,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1036</v>
+        <v>895</v>
       </c>
       <c r="B146">
         <v>3</v>
@@ -6923,7 +6918,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1037</v>
+        <v>896</v>
       </c>
       <c r="D147">
         <v>7</v>
@@ -6931,7 +6926,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1038</v>
+        <v>897</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -6939,7 +6934,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1039</v>
+        <v>898</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -6950,7 +6945,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1040</v>
+        <v>899</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -6958,7 +6953,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1043</v>
+        <v>902</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -6969,12 +6964,12 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1042</v>
+        <v>901</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1044</v>
+        <v>903</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -6985,7 +6980,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1045</v>
+        <v>904</v>
       </c>
       <c r="B154">
         <v>13</v>
@@ -6996,7 +6991,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1046</v>
+        <v>905</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -7007,7 +7002,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1047</v>
+        <v>906</v>
       </c>
       <c r="D156">
         <v>3</v>
@@ -7015,7 +7010,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1048</v>
+        <v>907</v>
       </c>
       <c r="B157">
         <v>4</v>
@@ -7026,7 +7021,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1049</v>
+        <v>908</v>
       </c>
       <c r="D158">
         <v>3</v>
@@ -7034,7 +7029,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1050</v>
+        <v>909</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -7042,7 +7037,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1051</v>
+        <v>910</v>
       </c>
       <c r="D160">
         <v>2</v>
@@ -7050,7 +7045,7 @@
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1052</v>
+        <v>911</v>
       </c>
       <c r="D161">
         <v>3</v>
@@ -7058,7 +7053,7 @@
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1053</v>
+        <v>912</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -7069,7 +7064,7 @@
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1054</v>
+        <v>913</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -7077,7 +7072,7 @@
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1055</v>
+        <v>914</v>
       </c>
       <c r="B164">
         <v>5</v>
@@ -7088,7 +7083,7 @@
     </row>
     <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1056</v>
+        <v>915</v>
       </c>
       <c r="B165">
         <v>4</v>
@@ -7102,7 +7097,7 @@
     </row>
     <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1057</v>
+        <v>916</v>
       </c>
       <c r="D166">
         <v>7</v>
@@ -7110,7 +7105,7 @@
     </row>
     <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1058</v>
+        <v>917</v>
       </c>
       <c r="B167">
         <v>3</v>
@@ -7124,7 +7119,7 @@
     </row>
     <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1059</v>
+        <v>918</v>
       </c>
       <c r="D168">
         <v>3</v>
@@ -7135,7 +7130,7 @@
     </row>
     <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1060</v>
+        <v>919</v>
       </c>
       <c r="B169">
         <v>7</v>
@@ -7149,7 +7144,7 @@
     </row>
     <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1061</v>
+        <v>920</v>
       </c>
       <c r="B170">
         <v>6</v>
@@ -7166,7 +7161,7 @@
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1062</v>
+        <v>921</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -7174,7 +7169,7 @@
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1063</v>
+        <v>922</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -7185,7 +7180,7 @@
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1064</v>
+        <v>923</v>
       </c>
       <c r="D173">
         <v>2</v>
@@ -7193,7 +7188,7 @@
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1065</v>
+        <v>924</v>
       </c>
       <c r="D174">
         <v>3</v>
@@ -7201,7 +7196,7 @@
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1066</v>
+        <v>925</v>
       </c>
       <c r="D175">
         <v>3</v>
@@ -7209,7 +7204,7 @@
     </row>
     <row r="176" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1068</v>
+        <v>927</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -7217,7 +7212,7 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1069</v>
+        <v>928</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -7228,7 +7223,7 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1070</v>
+        <v>929</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -7236,7 +7231,7 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1071</v>
+        <v>930</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -7244,7 +7239,7 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1072</v>
+        <v>931</v>
       </c>
       <c r="D180">
         <v>2</v>
@@ -7252,7 +7247,7 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1073</v>
+        <v>932</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -7260,7 +7255,7 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1074</v>
+        <v>933</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -7268,7 +7263,7 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1075</v>
+        <v>934</v>
       </c>
       <c r="B183">
         <v>3</v>
@@ -7282,7 +7277,7 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1076</v>
+        <v>935</v>
       </c>
       <c r="I184">
         <v>1</v>
@@ -7290,7 +7285,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1077</v>
+        <v>936</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -7298,7 +7293,7 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1078</v>
+        <v>937</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -7306,7 +7301,7 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1080</v>
+        <v>939</v>
       </c>
       <c r="D187">
         <v>3</v>
@@ -7314,7 +7309,7 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1081</v>
+        <v>940</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -7322,37 +7317,277 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>96</v>
+        <v>941</v>
+      </c>
+      <c r="D189">
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>97</v>
+        <v>942</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>98</v>
+        <v>943</v>
+      </c>
+      <c r="B191">
+        <v>2</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>944</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>945</v>
+      </c>
+      <c r="B193">
+        <v>3</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>946</v>
+      </c>
+      <c r="D194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>947</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>948</v>
+      </c>
+      <c r="D196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>953</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>954</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>955</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>956</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>957</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>958</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>959</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>960</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>961</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>962</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>963</v>
+      </c>
+      <c r="E207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>964</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>965</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>966</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -7363,17 +7598,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30093D95-D28B-DD42-A703-B59CAF299E47}">
-  <dimension ref="A1:CC5"/>
+  <dimension ref="A1:CC153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>796</v>
+        <v>656</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -7617,2890 +7853,3348 @@
       </c>
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>803</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:81" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>804</v>
+      <c r="A2" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>900</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
       <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="AA3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="A4" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
         <v>2</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>967</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>968</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>969</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>970</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>971</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>972</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>974</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>973</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>975</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>976</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>977</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>978</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>979</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>980</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>981</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>982</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>984</v>
+      </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>983</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>985</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>986</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>987</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>988</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>989</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>990</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>991</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>992</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>994</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>995</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>997</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>998</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B57">
+        <v>21</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="I68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="R97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B101">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="Z101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="AA104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>1067</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="BH5">
+      <c r="E105">
         <v>2</v>
+      </c>
+      <c r="AA105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC7AE76-5207-2B4B-8203-E570989F039C}">
-  <dimension ref="A2:A566"/>
+  <dimension ref="A2:A384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2:A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>234</v>
+        <v>276</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>238</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>239</v>
+        <v>281</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>240</v>
+        <v>282</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>252</v>
+        <v>294</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
     </row>
     <row r="276" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
     </row>
     <row r="277" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
     </row>
     <row r="280" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
     </row>
     <row r="282" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
     </row>
     <row r="286" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
     </row>
     <row r="291" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
     </row>
     <row r="299" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
     </row>
     <row r="300" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
     </row>
     <row r="301" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
     </row>
     <row r="303" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
     </row>
     <row r="305" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
     </row>
     <row r="306" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
     </row>
     <row r="307" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
     </row>
     <row r="309" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
     </row>
     <row r="310" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
     </row>
     <row r="311" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
     </row>
     <row r="312" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
     </row>
     <row r="315" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
     </row>
     <row r="316" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
     </row>
     <row r="317" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>418</v>
+        <v>460</v>
       </c>
     </row>
     <row r="318" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>419</v>
+        <v>461</v>
       </c>
     </row>
     <row r="319" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
     </row>
     <row r="321" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>422</v>
+        <v>464</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>423</v>
+        <v>465</v>
       </c>
     </row>
     <row r="323" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
     </row>
     <row r="324" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>425</v>
+        <v>467</v>
       </c>
     </row>
     <row r="325" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>426</v>
+        <v>468</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>427</v>
+        <v>469</v>
       </c>
     </row>
     <row r="327" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>428</v>
+        <v>470</v>
       </c>
     </row>
     <row r="328" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>429</v>
+        <v>471</v>
       </c>
     </row>
     <row r="329" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>430</v>
+        <v>472</v>
       </c>
     </row>
     <row r="330" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>431</v>
+        <v>473</v>
       </c>
     </row>
     <row r="331" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>432</v>
+        <v>474</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>433</v>
+        <v>475</v>
       </c>
     </row>
     <row r="333" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>434</v>
+        <v>476</v>
       </c>
     </row>
     <row r="334" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>435</v>
+        <v>477</v>
       </c>
     </row>
     <row r="335" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>436</v>
+        <v>478</v>
       </c>
     </row>
     <row r="336" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>437</v>
+        <v>479</v>
       </c>
     </row>
     <row r="337" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>438</v>
+        <v>480</v>
       </c>
     </row>
     <row r="338" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>439</v>
+        <v>481</v>
       </c>
     </row>
     <row r="339" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
     </row>
     <row r="340" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>441</v>
+        <v>483</v>
       </c>
     </row>
     <row r="341" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
     </row>
     <row r="342" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="343" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
     </row>
     <row r="344" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
     </row>
     <row r="345" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
     </row>
     <row r="346" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>447</v>
+        <v>489</v>
       </c>
     </row>
     <row r="347" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>448</v>
+        <v>490</v>
       </c>
     </row>
     <row r="348" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>449</v>
+        <v>491</v>
       </c>
     </row>
     <row r="349" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>450</v>
+        <v>492</v>
       </c>
     </row>
     <row r="350" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>451</v>
+        <v>493</v>
       </c>
     </row>
     <row r="351" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
     </row>
     <row r="352" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>453</v>
+        <v>495</v>
       </c>
     </row>
     <row r="353" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>454</v>
+        <v>496</v>
       </c>
     </row>
     <row r="354" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>455</v>
+        <v>497</v>
       </c>
     </row>
     <row r="355" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
     </row>
     <row r="356" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>457</v>
+        <v>499</v>
       </c>
     </row>
     <row r="357" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>458</v>
+        <v>500</v>
       </c>
     </row>
     <row r="358" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>459</v>
+        <v>501</v>
       </c>
     </row>
     <row r="359" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>460</v>
+        <v>502</v>
       </c>
     </row>
     <row r="360" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>461</v>
+        <v>503</v>
       </c>
     </row>
     <row r="361" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>462</v>
+        <v>504</v>
       </c>
     </row>
     <row r="362" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>463</v>
+        <v>505</v>
       </c>
     </row>
     <row r="363" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>464</v>
+        <v>506</v>
       </c>
     </row>
     <row r="364" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>465</v>
+        <v>507</v>
       </c>
     </row>
     <row r="365" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>466</v>
+        <v>508</v>
       </c>
     </row>
     <row r="366" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>467</v>
+        <v>509</v>
       </c>
     </row>
     <row r="367" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>468</v>
+        <v>510</v>
       </c>
     </row>
     <row r="368" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>469</v>
+        <v>511</v>
       </c>
     </row>
     <row r="369" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>470</v>
+        <v>512</v>
       </c>
     </row>
     <row r="370" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>471</v>
+        <v>513</v>
       </c>
     </row>
     <row r="371" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>472</v>
+        <v>514</v>
       </c>
     </row>
     <row r="372" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>473</v>
+        <v>515</v>
       </c>
     </row>
     <row r="373" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>474</v>
+        <v>516</v>
       </c>
     </row>
     <row r="374" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>475</v>
+        <v>517</v>
       </c>
     </row>
     <row r="375" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>476</v>
+        <v>518</v>
       </c>
     </row>
     <row r="376" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>477</v>
+        <v>519</v>
       </c>
     </row>
     <row r="377" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>478</v>
+        <v>520</v>
       </c>
     </row>
     <row r="378" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>479</v>
+        <v>521</v>
       </c>
     </row>
     <row r="379" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
     </row>
     <row r="380" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>481</v>
+        <v>523</v>
       </c>
     </row>
     <row r="381" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>482</v>
+        <v>524</v>
       </c>
     </row>
     <row r="382" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>483</v>
+        <v>525</v>
       </c>
     </row>
     <row r="383" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>484</v>
+        <v>526</v>
       </c>
     </row>
     <row r="384" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A385" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A386" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A387" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A388" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A389" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A390" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A391" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A392" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A393" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A394" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A395" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A396" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A397" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A398" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A399" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A400" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A401" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A402" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A403" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A404" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A405" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A406" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A407" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A408" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A409" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A410" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A411" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A412" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A413" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A414" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A415" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A416" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A417" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A418" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A419" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A420" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A421" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A422" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A423" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A424" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A425" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A426" s="1" t="s">
         <v>527</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A427" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A428" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A429" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A430" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A431" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A432" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A433" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A434" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A435" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A436" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A437" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A438" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A439" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A440" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A441" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A442" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A443" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A444" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A445" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A446" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A447" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A448" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A449" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A450" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A451" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A452" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A453" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A454" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A455" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A456" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="457" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A457" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="458" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A458" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A459" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A460" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A461" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A462" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A463" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="464" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A464" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="465" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A465" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="466" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A466" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A467" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="468" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A468" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="469" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A469" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A470" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A471" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="472" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A472" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="473" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A473" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="474" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A474" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A475" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="476" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A476" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A477" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A478" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="479" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A479" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="480" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A480" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="481" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A481" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A482" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="483" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A483" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="484" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A484" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="485" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A485" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="486" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A486" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="487" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A487" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="488" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A488" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="489" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A489" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A490" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="491" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A491" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="492" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A492" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="493" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A493" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="494" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A494" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="495" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A495" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="496" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A496" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="497" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A497" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A498" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="499" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A499" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="500" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A500" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="501" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A501" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="502" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A502" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A503" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A504" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="505" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A505" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="506" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A506" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="507" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A507" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="508" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A508" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="509" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A509" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="510" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A510" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="511" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A511" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="512" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A512" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="513" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A513" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="514" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A514" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="515" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A515" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="516" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A516" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="517" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A517" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="518" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A518" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="519" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A519" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="520" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A520" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="521" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A521" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="522" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A522" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="523" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A523" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="524" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A524" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="525" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A525" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="526" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A526" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="527" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A527" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="528" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A528" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="529" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A529" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="530" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A530" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="531" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A531" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="532" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A532" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="533" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A533" s="1" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="534" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A534" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="535" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A535" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="536" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A536" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="537" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A537" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="538" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A538" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="539" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A539" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="540" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A540" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="541" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A541" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="542" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A542" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="543" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A543" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="544" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A544" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="545" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A545" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="546" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A546" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="547" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A547" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="548" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A548" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="549" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A549" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="550" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A550" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="551" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A551" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="552" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A552" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="553" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A553" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="554" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A554" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="555" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A555" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="556" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A556" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="557" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A557" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="558" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A558" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="559" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A559" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="560" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A560" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="561" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A561" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="562" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A562" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="563" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A563" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="564" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A564" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="565" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A565" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="566" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A566" s="1" t="s">
-        <v>667</v>
       </c>
     </row>
   </sheetData>

--- a/GroundTruth.xlsx
+++ b/GroundTruth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suruchi/Documents/MSc Artificial Intelligence/Artificial Intelligence Project/UniversalAdversarialChallenges-AutonomousVehicles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF15725D-3C72-3845-A8A4-9DB44D67F0B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A0A085-EB2D-144C-8204-5FB325209283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="17040" activeTab="2" xr2:uid="{E9FA8BCC-3C24-E14A-8C2A-C02BE4E3E8A8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="17040" activeTab="1" xr2:uid="{E9FA8BCC-3C24-E14A-8C2A-C02BE4E3E8A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Art in Surroundings" sheetId="3" r:id="rId1"/>
@@ -314,21 +314,6 @@
     <t>8PUTF</t>
   </si>
   <si>
-    <t>X5U8G</t>
-  </si>
-  <si>
-    <t>XHRAN</t>
-  </si>
-  <si>
-    <t>UYN3U</t>
-  </si>
-  <si>
-    <t>4ESFN</t>
-  </si>
-  <si>
-    <t>OR9FU</t>
-  </si>
-  <si>
     <t>MBGRG</t>
   </si>
   <si>
@@ -3279,6 +3264,21 @@
   </si>
   <si>
     <t>6EFI6.jpg</t>
+  </si>
+  <si>
+    <t>X5U8G.jpg</t>
+  </si>
+  <si>
+    <t>XHRAN.jpg</t>
+  </si>
+  <si>
+    <t>UYN3U.jpeg</t>
+  </si>
+  <si>
+    <t>4ESFN.jpg</t>
+  </si>
+  <si>
+    <t>OR9FU.jpg</t>
   </si>
 </sst>
 </file>
@@ -3649,7 +3649,7 @@
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3910,25 +3910,25 @@
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B5" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -3936,17 +3936,17 @@
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3954,32 +3954,32 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -3987,12 +3987,12 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -4000,12 +4000,12 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -4013,12 +4013,12 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B22">
         <v>9</v>
@@ -4026,12 +4026,12 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -4063,27 +4063,27 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -4091,22 +4091,22 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4120,17 +4120,17 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4138,72 +4138,72 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4211,162 +4211,162 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="81" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="82" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="83" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="84" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="85" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="86" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4382,22 +4382,22 @@
     </row>
     <row r="87" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="88" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="89" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="90" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="BH90">
         <v>2</v>
@@ -4405,22 +4405,22 @@
     </row>
     <row r="91" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="92" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="93" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="94" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -4428,27 +4428,27 @@
     </row>
     <row r="95" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="96" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="B99">
         <v>7</v>
@@ -4456,17 +4456,17 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -4474,12 +4474,12 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -4490,17 +4490,17 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4508,27 +4508,27 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -4536,92 +4536,92 @@
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B130">
         <v>2</v>
@@ -4629,22 +4629,22 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -4652,37 +4652,37 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -4690,22 +4690,22 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="145" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -4716,22 +4716,22 @@
     </row>
     <row r="146" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="147" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="148" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="149" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -4739,42 +4739,42 @@
     </row>
     <row r="150" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
     <row r="151" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="152" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="153" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="154" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="155" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="156" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="157" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -4782,67 +4782,67 @@
     </row>
     <row r="158" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="159" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="160" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="161" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="162" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="163" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="164" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="165" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="166" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="167" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="168" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="169" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="170" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -4850,27 +4850,27 @@
     </row>
     <row r="171" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="172" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="173" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="174" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="175" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="BH175">
         <v>4</v>
@@ -4878,62 +4878,62 @@
     </row>
     <row r="176" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -4941,17 +4941,17 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -4959,17 +4959,17 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -4977,17 +4977,17 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B196">
         <v>9</v>
@@ -4995,7 +4995,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B197">
         <v>2</v>
@@ -5003,27 +5003,27 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -5031,22 +5031,22 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="K206">
         <v>2</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="K207">
         <v>2</v>
@@ -5062,12 +5062,12 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="209" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -5075,17 +5075,17 @@
     </row>
     <row r="210" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="211" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="212" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="D212">
         <v>2</v>
@@ -5093,22 +5093,22 @@
     </row>
     <row r="213" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="214" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="215" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="216" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -5119,17 +5119,17 @@
     </row>
     <row r="217" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="218" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="219" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="O219">
         <v>1</v>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="220" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -5145,7 +5145,7 @@
     </row>
     <row r="221" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -5153,27 +5153,27 @@
     </row>
     <row r="222" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="223" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
     </row>
     <row r="224" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
@@ -5246,16 +5246,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0567FE6-4478-824F-981C-52DF783E1141}">
   <dimension ref="A1:CC228"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E211" sqref="E211"/>
+      <selection pane="bottomLeft" activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5500,7 +5500,7 @@
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -5508,7 +5508,7 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -5532,7 +5532,7 @@
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5540,7 +5540,7 @@
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5554,7 +5554,7 @@
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -5565,7 +5565,7 @@
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5576,7 +5576,7 @@
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5603,7 +5603,7 @@
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -5622,7 +5622,7 @@
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -5630,7 +5630,7 @@
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -5641,7 +5641,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5649,7 +5649,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -5668,7 +5668,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -5717,7 +5717,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -5725,7 +5725,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -5739,7 +5739,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -5750,7 +5750,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="B28">
         <v>13</v>
@@ -5761,7 +5761,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="B30">
         <v>9</v>
@@ -5783,7 +5783,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -5794,7 +5794,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -5805,7 +5805,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B33">
         <v>9</v>
@@ -5816,7 +5816,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -5827,7 +5827,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -5849,7 +5849,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -5857,7 +5857,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -5868,7 +5868,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B39">
         <v>10</v>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -5893,7 +5893,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -5901,7 +5901,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -5909,7 +5909,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -5917,7 +5917,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -5925,7 +5925,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -5947,7 +5947,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -5958,7 +5958,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -5966,7 +5966,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -5974,7 +5974,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -5985,7 +5985,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -5996,7 +5996,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -6004,7 +6004,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -6015,7 +6015,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -6026,7 +6026,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -6037,7 +6037,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -6045,7 +6045,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -6053,7 +6053,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -6064,7 +6064,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6072,7 +6072,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6080,7 +6080,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6088,7 +6088,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -6099,7 +6099,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6107,7 +6107,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -6115,7 +6115,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -6126,7 +6126,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6134,7 +6134,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -6142,7 +6142,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -6150,7 +6150,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6158,7 +6158,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6166,7 +6166,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -6196,7 +6196,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -6229,7 +6229,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B77">
         <v>3</v>
@@ -6243,7 +6243,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -6251,7 +6251,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -6259,7 +6259,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -6267,7 +6267,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -6275,7 +6275,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -6283,7 +6283,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -6291,7 +6291,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -6299,7 +6299,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -6313,7 +6313,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -6324,7 +6324,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -6346,7 +6346,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -6354,7 +6354,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -6365,7 +6365,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -6376,7 +6376,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="E92">
         <v>3</v>
@@ -6384,7 +6384,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -6392,7 +6392,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -6403,7 +6403,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -6411,7 +6411,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -6419,7 +6419,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="B97">
         <v>3</v>
@@ -6430,7 +6430,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D98">
         <v>3</v>
@@ -6441,7 +6441,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -6449,7 +6449,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="B100">
         <v>4</v>
@@ -6460,7 +6460,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="B101">
         <v>3</v>
@@ -6471,7 +6471,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -6479,7 +6479,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -6498,7 +6498,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -6509,12 +6509,12 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -6522,7 +6522,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -6533,7 +6533,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -6547,7 +6547,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="B110">
         <v>10</v>
@@ -6558,7 +6558,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -6566,7 +6566,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -6574,7 +6574,7 @@
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="B113">
         <v>6</v>
@@ -6585,7 +6585,7 @@
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -6599,7 +6599,7 @@
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="B115">
         <v>8</v>
@@ -6610,7 +6610,7 @@
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="B116">
         <v>8</v>
@@ -6624,7 +6624,7 @@
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -6632,7 +6632,7 @@
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -6643,7 +6643,7 @@
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -6654,7 +6654,7 @@
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -6676,7 +6676,7 @@
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -6684,7 +6684,7 @@
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -6698,7 +6698,7 @@
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="B124">
         <v>5</v>
@@ -6709,7 +6709,7 @@
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="B126">
         <v>7</v>
@@ -6731,7 +6731,7 @@
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="B127">
         <v>5</v>
@@ -6742,7 +6742,7 @@
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -6753,7 +6753,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -6761,7 +6761,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -6769,7 +6769,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="D131">
         <v>2</v>
@@ -6780,7 +6780,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B132">
         <v>7</v>
@@ -6791,7 +6791,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -6802,7 +6802,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -6810,7 +6810,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B135">
         <v>3</v>
@@ -6821,7 +6821,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="B136">
         <v>2</v>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -6840,7 +6840,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -6848,7 +6848,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -6856,7 +6856,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -6864,7 +6864,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -6872,7 +6872,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -6880,7 +6880,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -6888,7 +6888,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -6896,7 +6896,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="D145">
         <v>2</v>
@@ -6907,7 +6907,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B146">
         <v>3</v>
@@ -6918,7 +6918,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="D147">
         <v>7</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -6934,7 +6934,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -6945,7 +6945,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -6953,7 +6953,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -6964,12 +6964,12 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -6980,7 +6980,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="B154">
         <v>13</v>
@@ -6991,7 +6991,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -7002,7 +7002,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="D156">
         <v>3</v>
@@ -7010,7 +7010,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="B157">
         <v>4</v>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="D158">
         <v>3</v>
@@ -7029,7 +7029,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -7037,7 +7037,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="D160">
         <v>2</v>
@@ -7045,7 +7045,7 @@
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="D161">
         <v>3</v>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -7072,7 +7072,7 @@
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="B164">
         <v>5</v>
@@ -7083,7 +7083,7 @@
     </row>
     <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B165">
         <v>4</v>
@@ -7097,7 +7097,7 @@
     </row>
     <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="D166">
         <v>7</v>
@@ -7105,7 +7105,7 @@
     </row>
     <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="B167">
         <v>3</v>
@@ -7119,7 +7119,7 @@
     </row>
     <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="D168">
         <v>3</v>
@@ -7130,7 +7130,7 @@
     </row>
     <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="B169">
         <v>7</v>
@@ -7144,7 +7144,7 @@
     </row>
     <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="B170">
         <v>6</v>
@@ -7161,7 +7161,7 @@
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -7169,7 +7169,7 @@
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -7180,7 +7180,7 @@
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="D173">
         <v>2</v>
@@ -7188,7 +7188,7 @@
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="D174">
         <v>3</v>
@@ -7196,7 +7196,7 @@
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="D175">
         <v>3</v>
@@ -7204,7 +7204,7 @@
     </row>
     <row r="176" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -7212,7 +7212,7 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -7231,7 +7231,7 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -7239,7 +7239,7 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="D180">
         <v>2</v>
@@ -7247,7 +7247,7 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -7255,7 +7255,7 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -7263,7 +7263,7 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="B183">
         <v>3</v>
@@ -7277,7 +7277,7 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="I184">
         <v>1</v>
@@ -7285,7 +7285,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -7293,7 +7293,7 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -7301,7 +7301,7 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="D187">
         <v>3</v>
@@ -7309,7 +7309,7 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -7317,7 +7317,7 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="D189">
         <v>3</v>
@@ -7325,7 +7325,7 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -7333,7 +7333,7 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="B191">
         <v>2</v>
@@ -7344,7 +7344,7 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -7355,7 +7355,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -7366,7 +7366,7 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="D194">
         <v>2</v>
@@ -7374,7 +7374,7 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="I195">
         <v>1</v>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="D196">
         <v>2</v>
@@ -7390,7 +7390,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="I197">
         <v>1</v>
@@ -7398,7 +7398,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="I198">
         <v>1</v>
@@ -7406,7 +7406,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -7414,7 +7414,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -7422,7 +7422,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="D201">
         <v>2</v>
@@ -7430,7 +7430,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -7438,7 +7438,7 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -7446,7 +7446,7 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -7454,7 +7454,7 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -7462,7 +7462,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -7470,7 +7470,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="E207">
         <v>3</v>
@@ -7478,116 +7478,143 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="E208">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="E209">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="E210">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B211">
+        <v>4</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B213">
+        <v>8</v>
+      </c>
+      <c r="I213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="I214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B215">
+        <v>4</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -7600,8 +7627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30093D95-D28B-DD42-A703-B59CAF299E47}">
   <dimension ref="A1:CC153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
@@ -7609,7 +7636,7 @@
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -7854,7 +7881,7 @@
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7868,7 +7895,7 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7882,7 +7909,7 @@
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -7893,7 +7920,7 @@
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -7901,7 +7928,7 @@
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -7912,7 +7939,7 @@
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7923,7 +7950,7 @@
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="U8">
         <v>5</v>
@@ -7931,7 +7958,7 @@
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -7942,7 +7969,7 @@
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -7953,7 +7980,7 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -7961,7 +7988,7 @@
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -7975,7 +8002,7 @@
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -7983,7 +8010,7 @@
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -7991,7 +8018,7 @@
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -8011,7 +8038,7 @@
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -8019,7 +8046,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -8030,7 +8057,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="U18">
         <v>3</v>
@@ -8038,7 +8065,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="U19">
         <v>3</v>
@@ -8046,7 +8073,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -8063,7 +8090,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="B21">
         <v>15</v>
@@ -8071,7 +8098,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -8088,7 +8115,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -8096,7 +8123,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -8110,7 +8137,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -8118,7 +8145,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -8126,7 +8153,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -8137,7 +8164,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="B28">
         <v>9</v>
@@ -8148,7 +8175,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -8159,7 +8186,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -8170,12 +8197,12 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -8183,7 +8210,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -8197,12 +8224,12 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -8210,7 +8237,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -8218,17 +8245,17 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -8236,7 +8263,7 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -8244,7 +8271,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -8252,7 +8279,7 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -8260,7 +8287,7 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -8268,7 +8295,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -8279,7 +8306,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -8287,7 +8314,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -8301,7 +8328,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -8309,7 +8336,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -8317,7 +8344,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -8325,7 +8352,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -8336,7 +8363,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -8350,7 +8377,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -8361,7 +8388,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -8372,7 +8399,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -8380,7 +8407,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -8388,7 +8415,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -8399,7 +8426,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="B57">
         <v>21</v>
@@ -8410,7 +8437,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -8418,7 +8445,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -8426,7 +8453,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -8434,7 +8461,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -8445,7 +8472,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -8456,7 +8483,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -8470,7 +8497,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -8484,7 +8511,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -8498,7 +8525,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -8509,7 +8536,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -8520,7 +8547,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="B68">
         <v>4</v>
@@ -8534,7 +8561,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -8548,7 +8575,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -8559,7 +8586,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -8573,7 +8600,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -8581,7 +8608,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -8589,7 +8616,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -8603,7 +8630,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -8614,7 +8641,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -8625,7 +8652,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -8633,7 +8660,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -8647,7 +8674,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="B79">
         <v>4</v>
@@ -8658,7 +8685,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -8666,7 +8693,7 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -8677,7 +8704,7 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -8691,7 +8718,7 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="B83">
         <v>7</v>
@@ -8705,7 +8732,7 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -8716,7 +8743,7 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -8727,7 +8754,7 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -8741,7 +8768,7 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -8749,7 +8776,7 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -8757,7 +8784,7 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -8765,7 +8792,7 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -8779,7 +8806,7 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -8790,7 +8817,7 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -8798,7 +8825,7 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -8806,7 +8833,7 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -8814,7 +8841,7 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -8828,7 +8855,7 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -8839,7 +8866,7 @@
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -8856,7 +8883,7 @@
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -8870,7 +8897,7 @@
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8878,7 +8905,7 @@
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8886,7 +8913,7 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="B101">
         <v>8</v>
@@ -8900,7 +8927,7 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="B102">
         <v>3</v>
@@ -8911,7 +8938,7 @@
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8919,7 +8946,7 @@
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -8933,7 +8960,7 @@
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="E105">
         <v>2</v>
@@ -8944,7 +8971,7 @@
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -8955,7 +8982,7 @@
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8966,7 +8993,7 @@
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8977,7 +9004,7 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -8991,7 +9018,7 @@
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -9005,7 +9032,7 @@
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -9016,7 +9043,7 @@
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9030,7 +9057,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -9041,7 +9068,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -9052,7 +9079,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -9066,7 +9093,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -9074,7 +9101,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -9085,7 +9112,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="D118">
         <v>3</v>
@@ -9093,177 +9120,177 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -9284,1917 +9311,1917 @@
   <sheetData>
     <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="276" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="277" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="280" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="282" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="286" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="291" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="299" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="300" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="301" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="303" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="305" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="306" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="307" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="309" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="310" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="311" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="312" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="315" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="316" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="317" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="318" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="319" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="321" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="323" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="324" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="325" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="327" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="328" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="329" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="330" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="331" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="333" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="334" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="335" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="336" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="337" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="338" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="339" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="340" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="341" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="342" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="343" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="344" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="345" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="346" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="347" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="348" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="349" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="350" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="351" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="352" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="353" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="354" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="355" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="356" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="357" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="358" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="359" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="360" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="361" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="362" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="363" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="364" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="365" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="366" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="367" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="368" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="369" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="370" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="371" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="372" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="373" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="374" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="375" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="376" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="377" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="378" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="379" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="380" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="381" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="382" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="383" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="384" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>

--- a/GroundTruth.xlsx
+++ b/GroundTruth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suruchi/Documents/MSc Artificial Intelligence/Artificial Intelligence Project/UniversalAdversarialChallenges-AutonomousVehicles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A0A085-EB2D-144C-8204-5FB325209283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764D1D0D-36E1-994D-970A-7384924E8910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="17040" activeTab="1" xr2:uid="{E9FA8BCC-3C24-E14A-8C2A-C02BE4E3E8A8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="17040" xr2:uid="{E9FA8BCC-3C24-E14A-8C2A-C02BE4E3E8A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Art in Surroundings" sheetId="3" r:id="rId1"/>
@@ -278,9 +278,6 @@
     <t>toothbrush</t>
   </si>
   <si>
-    <t>657P0</t>
-  </si>
-  <si>
     <t>FYXBL</t>
   </si>
   <si>
@@ -353,207 +350,6 @@
     <t>TBGYW</t>
   </si>
   <si>
-    <t>NU8OB</t>
-  </si>
-  <si>
-    <t>BI2AF</t>
-  </si>
-  <si>
-    <t>03DTR</t>
-  </si>
-  <si>
-    <t>PBWZ3</t>
-  </si>
-  <si>
-    <t>1D0X6</t>
-  </si>
-  <si>
-    <t>K7PEE</t>
-  </si>
-  <si>
-    <t>ECVFF</t>
-  </si>
-  <si>
-    <t>1VIG1</t>
-  </si>
-  <si>
-    <t>VGCFA</t>
-  </si>
-  <si>
-    <t>S2X65</t>
-  </si>
-  <si>
-    <t>3PEFP</t>
-  </si>
-  <si>
-    <t>F6TZ3</t>
-  </si>
-  <si>
-    <t>WRNE9</t>
-  </si>
-  <si>
-    <t>48VTY</t>
-  </si>
-  <si>
-    <t>RP8ID</t>
-  </si>
-  <si>
-    <t>R8QAY</t>
-  </si>
-  <si>
-    <t>HJIUE</t>
-  </si>
-  <si>
-    <t>M0GZ0</t>
-  </si>
-  <si>
-    <t>G45IJ</t>
-  </si>
-  <si>
-    <t>1PGKW</t>
-  </si>
-  <si>
-    <t>ISX09</t>
-  </si>
-  <si>
-    <t>M6SR1</t>
-  </si>
-  <si>
-    <t>E0E6W</t>
-  </si>
-  <si>
-    <t>06EZ8</t>
-  </si>
-  <si>
-    <t>X4CBJ</t>
-  </si>
-  <si>
-    <t>4XF7J</t>
-  </si>
-  <si>
-    <t>SVBP2</t>
-  </si>
-  <si>
-    <t>REWLK</t>
-  </si>
-  <si>
-    <t>HDSJ0</t>
-  </si>
-  <si>
-    <t>05B03</t>
-  </si>
-  <si>
-    <t>8S4DN</t>
-  </si>
-  <si>
-    <t>XZTXP</t>
-  </si>
-  <si>
-    <t>BDBU4</t>
-  </si>
-  <si>
-    <t>EBBIS</t>
-  </si>
-  <si>
-    <t>QF51F</t>
-  </si>
-  <si>
-    <t>M7VFP</t>
-  </si>
-  <si>
-    <t>KW0AA</t>
-  </si>
-  <si>
-    <t>73YS0</t>
-  </si>
-  <si>
-    <t>64ESJ</t>
-  </si>
-  <si>
-    <t>H22NN</t>
-  </si>
-  <si>
-    <t>6I832</t>
-  </si>
-  <si>
-    <t>NVQNU</t>
-  </si>
-  <si>
-    <t>EHHXB</t>
-  </si>
-  <si>
-    <t>19NHR</t>
-  </si>
-  <si>
-    <t>OMCMW</t>
-  </si>
-  <si>
-    <t>P7EY8</t>
-  </si>
-  <si>
-    <t>AR4PQ</t>
-  </si>
-  <si>
-    <t>IOZ9Z</t>
-  </si>
-  <si>
-    <t>J0W0Y</t>
-  </si>
-  <si>
-    <t>TRTTD</t>
-  </si>
-  <si>
-    <t>M6QXF</t>
-  </si>
-  <si>
-    <t>DI2IU</t>
-  </si>
-  <si>
-    <t>EUR42</t>
-  </si>
-  <si>
-    <t>GGXXE</t>
-  </si>
-  <si>
-    <t>NMPEX</t>
-  </si>
-  <si>
-    <t>5LRXB</t>
-  </si>
-  <si>
-    <t>JQUYR</t>
-  </si>
-  <si>
-    <t>WHY62</t>
-  </si>
-  <si>
-    <t>I4DKM</t>
-  </si>
-  <si>
-    <t>Y2SJU</t>
-  </si>
-  <si>
-    <t>IOD7M</t>
-  </si>
-  <si>
-    <t>X1MRD</t>
-  </si>
-  <si>
-    <t>63FXE</t>
-  </si>
-  <si>
-    <t>7YTL8</t>
-  </si>
-  <si>
-    <t>2FBB8</t>
-  </si>
-  <si>
-    <t>76PLL</t>
-  </si>
-  <si>
-    <t>77UJ3</t>
-  </si>
-  <si>
     <t>3WY6Y</t>
   </si>
   <si>
@@ -3279,6 +3075,210 @@
   </si>
   <si>
     <t>OR9FU.jpg</t>
+  </si>
+  <si>
+    <t>NU8OB.jpg</t>
+  </si>
+  <si>
+    <t>BI2AF.jpg</t>
+  </si>
+  <si>
+    <t>03DTR.jpg</t>
+  </si>
+  <si>
+    <t>PBWZ3.jpg</t>
+  </si>
+  <si>
+    <t>1D0X6.jpg</t>
+  </si>
+  <si>
+    <t>K7PEE.jpg</t>
+  </si>
+  <si>
+    <t>ECVFF.jpeg</t>
+  </si>
+  <si>
+    <t>1VIG1.jpg</t>
+  </si>
+  <si>
+    <t>VGCFA.jpg</t>
+  </si>
+  <si>
+    <t>S2X65.jpg</t>
+  </si>
+  <si>
+    <t>3PEFP.jpg</t>
+  </si>
+  <si>
+    <t>F6TZ3.jpg</t>
+  </si>
+  <si>
+    <t>WRNE9.jpg</t>
+  </si>
+  <si>
+    <t>48VTY.jpg</t>
+  </si>
+  <si>
+    <t>RP8ID.jpg</t>
+  </si>
+  <si>
+    <t>R8QAY.jpg</t>
+  </si>
+  <si>
+    <t>HJIUE.jpg</t>
+  </si>
+  <si>
+    <t>M0GZ0.jpg</t>
+  </si>
+  <si>
+    <t>G45IJ.jpg</t>
+  </si>
+  <si>
+    <t>1PGKW.jpg</t>
+  </si>
+  <si>
+    <t>ISX09.jpg</t>
+  </si>
+  <si>
+    <t>M6SR1.jpg</t>
+  </si>
+  <si>
+    <t>E0E6W.jpg</t>
+  </si>
+  <si>
+    <t>06EZ8.jpg</t>
+  </si>
+  <si>
+    <t>X4CBJ.jpg</t>
+  </si>
+  <si>
+    <t>4XF7J.jpg</t>
+  </si>
+  <si>
+    <t>SVBP2.jpg</t>
+  </si>
+  <si>
+    <t>REWLK.jpg</t>
+  </si>
+  <si>
+    <t>HDSJ0.jpg</t>
+  </si>
+  <si>
+    <t>05B03.jpg</t>
+  </si>
+  <si>
+    <t>8S4DN.jpg</t>
+  </si>
+  <si>
+    <t>XZTXP.jpg</t>
+  </si>
+  <si>
+    <t>BDBU4.jpg</t>
+  </si>
+  <si>
+    <t>EBBIS.jpg</t>
+  </si>
+  <si>
+    <t>QF51F.jpg</t>
+  </si>
+  <si>
+    <t>M7VFP.jpg</t>
+  </si>
+  <si>
+    <t>KW0AA.jpg</t>
+  </si>
+  <si>
+    <t>73YS0.jpg</t>
+  </si>
+  <si>
+    <t>64ESJ.jpg</t>
+  </si>
+  <si>
+    <t>H22NN.jpg</t>
+  </si>
+  <si>
+    <t>6I832.jpg</t>
+  </si>
+  <si>
+    <t>NVQNU.jpeg</t>
+  </si>
+  <si>
+    <t>EHHXB.jpg</t>
+  </si>
+  <si>
+    <t>19NHR.jpg</t>
+  </si>
+  <si>
+    <t>OMCMW.jpeg</t>
+  </si>
+  <si>
+    <t>P7EY8.jpg</t>
+  </si>
+  <si>
+    <t>AR4PQ.jpg</t>
+  </si>
+  <si>
+    <t>IOZ9Z.jpg</t>
+  </si>
+  <si>
+    <t>J0W0Y.jpg</t>
+  </si>
+  <si>
+    <t>TRTTD.jpg</t>
+  </si>
+  <si>
+    <t>M6QXF.jpg</t>
+  </si>
+  <si>
+    <t>DI2IU.jpg</t>
+  </si>
+  <si>
+    <t>EUR42.jpg</t>
+  </si>
+  <si>
+    <t>GGXXE.jpg</t>
+  </si>
+  <si>
+    <t>NMPEX.jpeg</t>
+  </si>
+  <si>
+    <t>5LRXB.jpg</t>
+  </si>
+  <si>
+    <t>JQUYR.jpg</t>
+  </si>
+  <si>
+    <t>WHY62.jpg</t>
+  </si>
+  <si>
+    <t>I4DKM.jpg</t>
+  </si>
+  <si>
+    <t>Y2SJU.jpg</t>
+  </si>
+  <si>
+    <t>IOD7M.jpg</t>
+  </si>
+  <si>
+    <t>X1MRD.jpg</t>
+  </si>
+  <si>
+    <t>63FXE.jpg</t>
+  </si>
+  <si>
+    <t>7YTL8.jpg</t>
+  </si>
+  <si>
+    <t>2FBB8.jpg</t>
+  </si>
+  <si>
+    <t>76PLL.jpg</t>
+  </si>
+  <si>
+    <t>77UJ3.jpg</t>
+  </si>
+  <si>
+    <t>657P0.jpg</t>
   </si>
 </sst>
 </file>
@@ -3320,10 +3320,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3640,16 +3639,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F23698F-6E01-E041-A7A3-561430F97E46}">
   <dimension ref="A1:CC238"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B226" sqref="B226"/>
+      <selection pane="bottomLeft" activeCell="H227" sqref="H227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>651</v>
+        <v>583</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3894,7 +3893,7 @@
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>523</v>
+        <v>455</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -3902,7 +3901,7 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>524</v>
+        <v>456</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3910,25 +3909,25 @@
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>525</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>527</v>
+        <v>459</v>
       </c>
       <c r="B5" t="s">
-        <v>526</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>528</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>529</v>
+        <v>461</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -3936,17 +3935,17 @@
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>530</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>531</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>532</v>
+        <v>464</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3954,32 +3953,32 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>533</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>534</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>535</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>536</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>537</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>538</v>
+        <v>470</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -3987,12 +3986,12 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>539</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>540</v>
+        <v>472</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -4000,12 +3999,12 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>541</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>542</v>
+        <v>474</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -4013,12 +4012,12 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>543</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>544</v>
+        <v>476</v>
       </c>
       <c r="B22">
         <v>9</v>
@@ -4026,12 +4025,12 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>545</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>546</v>
+        <v>478</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4039,7 +4038,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>547</v>
+        <v>479</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -4047,7 +4046,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>548</v>
+        <v>480</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -4055,7 +4054,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>549</v>
+        <v>481</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -4063,27 +4062,27 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>550</v>
+        <v>482</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>551</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>552</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>553</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>554</v>
+        <v>486</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -4091,22 +4090,22 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>555</v>
+        <v>487</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>556</v>
+        <v>488</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>557</v>
+        <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>558</v>
+        <v>490</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4120,17 +4119,17 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>559</v>
+        <v>491</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>560</v>
+        <v>492</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>561</v>
+        <v>493</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4138,72 +4137,72 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>562</v>
+        <v>494</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>563</v>
+        <v>495</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>564</v>
+        <v>496</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>565</v>
+        <v>497</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>566</v>
+        <v>498</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>567</v>
+        <v>499</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>568</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>569</v>
+        <v>501</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>570</v>
+        <v>502</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>571</v>
+        <v>503</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>572</v>
+        <v>504</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>573</v>
+        <v>505</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>574</v>
+        <v>506</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>575</v>
+        <v>507</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4211,162 +4210,162 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>576</v>
+        <v>508</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>577</v>
+        <v>509</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>578</v>
+        <v>510</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>579</v>
+        <v>511</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>580</v>
+        <v>512</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>581</v>
+        <v>513</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>582</v>
+        <v>514</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>583</v>
+        <v>515</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>584</v>
+        <v>516</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>585</v>
+        <v>517</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>586</v>
+        <v>518</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>587</v>
+        <v>519</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>588</v>
+        <v>520</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>589</v>
+        <v>521</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>590</v>
+        <v>522</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>591</v>
+        <v>523</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>592</v>
+        <v>524</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>593</v>
+        <v>525</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>594</v>
+        <v>526</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>595</v>
+        <v>527</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>596</v>
+        <v>528</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>597</v>
+        <v>529</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>598</v>
+        <v>530</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>599</v>
+        <v>531</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>600</v>
+        <v>532</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>601</v>
+        <v>533</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>602</v>
+        <v>534</v>
       </c>
     </row>
     <row r="81" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>603</v>
+        <v>535</v>
       </c>
     </row>
     <row r="82" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>604</v>
+        <v>536</v>
       </c>
     </row>
     <row r="83" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>605</v>
+        <v>537</v>
       </c>
     </row>
     <row r="84" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>606</v>
+        <v>538</v>
       </c>
     </row>
     <row r="85" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>607</v>
+        <v>539</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -4374,7 +4373,7 @@
     </row>
     <row r="86" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>608</v>
+        <v>540</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4382,22 +4381,22 @@
     </row>
     <row r="87" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>609</v>
+        <v>541</v>
       </c>
     </row>
     <row r="88" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>610</v>
+        <v>542</v>
       </c>
     </row>
     <row r="89" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>611</v>
+        <v>543</v>
       </c>
     </row>
     <row r="90" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>612</v>
+        <v>544</v>
       </c>
       <c r="BH90">
         <v>2</v>
@@ -4405,22 +4404,22 @@
     </row>
     <row r="91" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>613</v>
+        <v>545</v>
       </c>
     </row>
     <row r="92" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>614</v>
+        <v>546</v>
       </c>
     </row>
     <row r="93" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>615</v>
+        <v>547</v>
       </c>
     </row>
     <row r="94" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>616</v>
+        <v>548</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -4428,27 +4427,27 @@
     </row>
     <row r="95" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>617</v>
+        <v>549</v>
       </c>
     </row>
     <row r="96" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>618</v>
+        <v>550</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>619</v>
+        <v>551</v>
       </c>
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>620</v>
+        <v>552</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>621</v>
+        <v>553</v>
       </c>
       <c r="B99">
         <v>7</v>
@@ -4456,17 +4455,17 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>622</v>
+        <v>554</v>
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>623</v>
+        <v>555</v>
       </c>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>624</v>
+        <v>556</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -4474,12 +4473,12 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>625</v>
+        <v>557</v>
       </c>
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>626</v>
+        <v>558</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -4490,17 +4489,17 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>627</v>
+        <v>559</v>
       </c>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>628</v>
+        <v>560</v>
       </c>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>629</v>
+        <v>561</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4508,27 +4507,27 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>630</v>
+        <v>562</v>
       </c>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>631</v>
+        <v>563</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>632</v>
+        <v>564</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>633</v>
+        <v>565</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>634</v>
+        <v>566</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -4536,92 +4535,92 @@
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>635</v>
+        <v>567</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>636</v>
+        <v>568</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>637</v>
+        <v>569</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>638</v>
+        <v>570</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>639</v>
+        <v>571</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>640</v>
+        <v>572</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>641</v>
+        <v>573</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>642</v>
+        <v>574</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>643</v>
+        <v>575</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>644</v>
+        <v>576</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>645</v>
+        <v>577</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>646</v>
+        <v>578</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>647</v>
+        <v>579</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>648</v>
+        <v>580</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>649</v>
+        <v>581</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>650</v>
+        <v>582</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>691</v>
+        <v>623</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>692</v>
+        <v>624</v>
       </c>
       <c r="B130">
         <v>2</v>
@@ -4629,22 +4628,22 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>693</v>
+        <v>625</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>694</v>
+        <v>626</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>695</v>
+        <v>627</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>696</v>
+        <v>628</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -4652,37 +4651,37 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>697</v>
+        <v>629</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>698</v>
+        <v>630</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>699</v>
+        <v>631</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>700</v>
+        <v>632</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>701</v>
+        <v>633</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>702</v>
+        <v>634</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>703</v>
+        <v>635</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -4690,22 +4689,22 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>704</v>
+        <v>636</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>705</v>
+        <v>637</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>706</v>
+        <v>638</v>
       </c>
     </row>
     <row r="145" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>707</v>
+        <v>639</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -4716,22 +4715,22 @@
     </row>
     <row r="146" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>708</v>
+        <v>640</v>
       </c>
     </row>
     <row r="147" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>709</v>
+        <v>641</v>
       </c>
     </row>
     <row r="148" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>710</v>
+        <v>642</v>
       </c>
     </row>
     <row r="149" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>711</v>
+        <v>643</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -4739,42 +4738,42 @@
     </row>
     <row r="150" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>712</v>
+        <v>644</v>
       </c>
     </row>
     <row r="151" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>713</v>
+        <v>645</v>
       </c>
     </row>
     <row r="152" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>714</v>
+        <v>646</v>
       </c>
     </row>
     <row r="153" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>715</v>
+        <v>647</v>
       </c>
     </row>
     <row r="154" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>716</v>
+        <v>648</v>
       </c>
     </row>
     <row r="155" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>717</v>
+        <v>649</v>
       </c>
     </row>
     <row r="156" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>718</v>
+        <v>650</v>
       </c>
     </row>
     <row r="157" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>719</v>
+        <v>651</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -4782,67 +4781,67 @@
     </row>
     <row r="158" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>720</v>
+        <v>652</v>
       </c>
     </row>
     <row r="159" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>721</v>
+        <v>653</v>
       </c>
     </row>
     <row r="160" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>722</v>
+        <v>654</v>
       </c>
     </row>
     <row r="161" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>723</v>
+        <v>655</v>
       </c>
     </row>
     <row r="162" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>724</v>
+        <v>656</v>
       </c>
     </row>
     <row r="163" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>725</v>
+        <v>657</v>
       </c>
     </row>
     <row r="164" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>726</v>
+        <v>658</v>
       </c>
     </row>
     <row r="165" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>727</v>
+        <v>659</v>
       </c>
     </row>
     <row r="166" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>728</v>
+        <v>660</v>
       </c>
     </row>
     <row r="167" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>729</v>
+        <v>661</v>
       </c>
     </row>
     <row r="168" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>730</v>
+        <v>662</v>
       </c>
     </row>
     <row r="169" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>731</v>
+        <v>663</v>
       </c>
     </row>
     <row r="170" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>732</v>
+        <v>664</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -4850,27 +4849,27 @@
     </row>
     <row r="171" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>733</v>
+        <v>665</v>
       </c>
     </row>
     <row r="172" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>734</v>
+        <v>666</v>
       </c>
     </row>
     <row r="173" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>735</v>
+        <v>667</v>
       </c>
     </row>
     <row r="174" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>736</v>
+        <v>668</v>
       </c>
     </row>
     <row r="175" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>737</v>
+        <v>669</v>
       </c>
       <c r="BH175">
         <v>4</v>
@@ -4878,62 +4877,62 @@
     </row>
     <row r="176" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>738</v>
+        <v>670</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>739</v>
+        <v>671</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>740</v>
+        <v>672</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>741</v>
+        <v>673</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>742</v>
+        <v>674</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>743</v>
+        <v>675</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>744</v>
+        <v>676</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>745</v>
+        <v>677</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>746</v>
+        <v>678</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>747</v>
+        <v>679</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>748</v>
+        <v>680</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>749</v>
+        <v>681</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -4941,17 +4940,17 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>750</v>
+        <v>682</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>751</v>
+        <v>683</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>752</v>
+        <v>684</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -4959,17 +4958,17 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>753</v>
+        <v>685</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>754</v>
+        <v>686</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>755</v>
+        <v>687</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -4977,17 +4976,17 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>756</v>
+        <v>688</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>757</v>
+        <v>689</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>758</v>
+        <v>690</v>
       </c>
       <c r="B196">
         <v>9</v>
@@ -4995,7 +4994,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>759</v>
+        <v>691</v>
       </c>
       <c r="B197">
         <v>2</v>
@@ -5003,27 +5002,27 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>760</v>
+        <v>692</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>761</v>
+        <v>693</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>762</v>
+        <v>694</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>763</v>
+        <v>695</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>764</v>
+        <v>696</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -5031,22 +5030,22 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>765</v>
+        <v>697</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>766</v>
+        <v>698</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>767</v>
+        <v>699</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>768</v>
+        <v>700</v>
       </c>
       <c r="K206">
         <v>2</v>
@@ -5054,7 +5053,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>769</v>
+        <v>701</v>
       </c>
       <c r="K207">
         <v>2</v>
@@ -5062,12 +5061,12 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>770</v>
+        <v>702</v>
       </c>
     </row>
     <row r="209" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>771</v>
+        <v>703</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -5075,17 +5074,17 @@
     </row>
     <row r="210" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>772</v>
+        <v>704</v>
       </c>
     </row>
     <row r="211" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>773</v>
+        <v>705</v>
       </c>
     </row>
     <row r="212" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>774</v>
+        <v>706</v>
       </c>
       <c r="D212">
         <v>2</v>
@@ -5093,22 +5092,22 @@
     </row>
     <row r="213" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>775</v>
+        <v>707</v>
       </c>
     </row>
     <row r="214" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>776</v>
+        <v>708</v>
       </c>
     </row>
     <row r="215" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>777</v>
+        <v>709</v>
       </c>
     </row>
     <row r="216" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>778</v>
+        <v>710</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -5119,17 +5118,17 @@
     </row>
     <row r="217" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>779</v>
+        <v>711</v>
       </c>
     </row>
     <row r="218" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>780</v>
+        <v>712</v>
       </c>
     </row>
     <row r="219" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>781</v>
+        <v>713</v>
       </c>
       <c r="O219">
         <v>1</v>
@@ -5137,7 +5136,7 @@
     </row>
     <row r="220" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>782</v>
+        <v>714</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -5145,7 +5144,7 @@
     </row>
     <row r="221" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>933</v>
+        <v>865</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -5153,87 +5152,90 @@
     </row>
     <row r="222" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>783</v>
+        <v>715</v>
       </c>
     </row>
     <row r="223" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>944</v>
+        <v>876</v>
       </c>
     </row>
     <row r="224" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D227">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -5246,8 +5248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0567FE6-4478-824F-981C-52DF783E1141}">
   <dimension ref="A1:CC228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
@@ -5255,7 +5257,7 @@
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>651</v>
+        <v>583</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5500,7 +5502,7 @@
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>652</v>
+        <v>584</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -5508,7 +5510,7 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>653</v>
+        <v>585</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5516,7 +5518,7 @@
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>654</v>
+        <v>586</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -5524,7 +5526,7 @@
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>655</v>
+        <v>587</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -5532,7 +5534,7 @@
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>656</v>
+        <v>588</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5540,7 +5542,7 @@
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>657</v>
+        <v>589</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5554,7 +5556,7 @@
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>659</v>
+        <v>591</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -5565,7 +5567,7 @@
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>660</v>
+        <v>592</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5576,7 +5578,7 @@
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>661</v>
+        <v>593</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5587,7 +5589,7 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>662</v>
+        <v>594</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5595,7 +5597,7 @@
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>663</v>
+        <v>595</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5603,7 +5605,7 @@
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>664</v>
+        <v>596</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -5614,7 +5616,7 @@
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>665</v>
+        <v>597</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -5622,7 +5624,7 @@
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>666</v>
+        <v>598</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -5630,7 +5632,7 @@
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>667</v>
+        <v>599</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -5641,7 +5643,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>668</v>
+        <v>600</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5649,7 +5651,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>669</v>
+        <v>601</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5657,7 +5659,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>670</v>
+        <v>602</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -5668,7 +5670,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>671</v>
+        <v>603</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -5679,7 +5681,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>672</v>
+        <v>604</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -5690,7 +5692,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>673</v>
+        <v>605</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -5698,7 +5700,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>674</v>
+        <v>606</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -5709,7 +5711,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>675</v>
+        <v>607</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -5717,7 +5719,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>676</v>
+        <v>608</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -5725,7 +5727,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>677</v>
+        <v>609</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -5739,7 +5741,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>678</v>
+        <v>610</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -5750,7 +5752,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>679</v>
+        <v>611</v>
       </c>
       <c r="B28">
         <v>13</v>
@@ -5761,7 +5763,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>680</v>
+        <v>612</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -5772,7 +5774,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>681</v>
+        <v>613</v>
       </c>
       <c r="B30">
         <v>9</v>
@@ -5783,7 +5785,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>682</v>
+        <v>614</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -5794,7 +5796,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>683</v>
+        <v>615</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -5805,7 +5807,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>684</v>
+        <v>616</v>
       </c>
       <c r="B33">
         <v>9</v>
@@ -5816,7 +5818,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>685</v>
+        <v>617</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -5827,7 +5829,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>686</v>
+        <v>618</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -5838,7 +5840,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>687</v>
+        <v>619</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -5849,7 +5851,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>688</v>
+        <v>620</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -5857,7 +5859,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>689</v>
+        <v>621</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -5868,7 +5870,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>690</v>
+        <v>622</v>
       </c>
       <c r="B39">
         <v>10</v>
@@ -5882,7 +5884,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>784</v>
+        <v>716</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -5893,7 +5895,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>785</v>
+        <v>717</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -5901,7 +5903,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>786</v>
+        <v>718</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -5909,7 +5911,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>787</v>
+        <v>719</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -5917,7 +5919,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>788</v>
+        <v>720</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -5925,7 +5927,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>789</v>
+        <v>721</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -5936,7 +5938,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>790</v>
+        <v>722</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -5947,7 +5949,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>791</v>
+        <v>723</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -5958,7 +5960,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>792</v>
+        <v>724</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -5966,7 +5968,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>793</v>
+        <v>725</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -5974,7 +5976,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>794</v>
+        <v>726</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -5985,7 +5987,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>795</v>
+        <v>727</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -5996,7 +5998,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>796</v>
+        <v>728</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -6004,7 +6006,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>797</v>
+        <v>729</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -6015,7 +6017,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>798</v>
+        <v>730</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -6026,7 +6028,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>799</v>
+        <v>731</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -6037,7 +6039,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>800</v>
+        <v>732</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -6045,7 +6047,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>801</v>
+        <v>733</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -6053,7 +6055,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>802</v>
+        <v>734</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -6064,7 +6066,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>803</v>
+        <v>735</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6072,7 +6074,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>804</v>
+        <v>736</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6080,7 +6082,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>805</v>
+        <v>737</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6088,7 +6090,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>807</v>
+        <v>739</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -6099,7 +6101,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>806</v>
+        <v>738</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6107,7 +6109,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>808</v>
+        <v>740</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -6115,7 +6117,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>809</v>
+        <v>741</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -6126,7 +6128,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>810</v>
+        <v>742</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6134,7 +6136,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>811</v>
+        <v>743</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -6142,7 +6144,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>812</v>
+        <v>744</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -6150,7 +6152,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>813</v>
+        <v>745</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6158,7 +6160,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>814</v>
+        <v>746</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6166,7 +6168,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>815</v>
+        <v>747</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -6174,7 +6176,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>816</v>
+        <v>748</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -6182,7 +6184,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>817</v>
+        <v>749</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -6196,7 +6198,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>818</v>
+        <v>750</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -6207,7 +6209,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>819</v>
+        <v>751</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -6215,7 +6217,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>820</v>
+        <v>752</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -6229,7 +6231,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>821</v>
+        <v>753</v>
       </c>
       <c r="B77">
         <v>3</v>
@@ -6243,7 +6245,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>822</v>
+        <v>754</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -6251,7 +6253,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>823</v>
+        <v>755</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -6259,7 +6261,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>824</v>
+        <v>756</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -6267,7 +6269,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>825</v>
+        <v>757</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -6275,7 +6277,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>826</v>
+        <v>758</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -6283,7 +6285,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>827</v>
+        <v>759</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -6291,7 +6293,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>828</v>
+        <v>760</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -6299,7 +6301,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>829</v>
+        <v>761</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -6313,7 +6315,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>830</v>
+        <v>762</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -6324,7 +6326,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>831</v>
+        <v>763</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -6332,7 +6334,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>832</v>
+        <v>764</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -6346,7 +6348,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>833</v>
+        <v>765</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -6354,7 +6356,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>834</v>
+        <v>766</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -6365,7 +6367,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>835</v>
+        <v>767</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -6376,7 +6378,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>836</v>
+        <v>768</v>
       </c>
       <c r="E92">
         <v>3</v>
@@ -6384,7 +6386,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>837</v>
+        <v>769</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -6392,7 +6394,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>838</v>
+        <v>770</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -6403,7 +6405,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>839</v>
+        <v>771</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -6411,7 +6413,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>840</v>
+        <v>772</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -6419,7 +6421,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>841</v>
+        <v>773</v>
       </c>
       <c r="B97">
         <v>3</v>
@@ -6430,7 +6432,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>842</v>
+        <v>774</v>
       </c>
       <c r="D98">
         <v>3</v>
@@ -6441,7 +6443,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>843</v>
+        <v>775</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -6449,7 +6451,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>844</v>
+        <v>776</v>
       </c>
       <c r="B100">
         <v>4</v>
@@ -6460,7 +6462,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>845</v>
+        <v>777</v>
       </c>
       <c r="B101">
         <v>3</v>
@@ -6471,7 +6473,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>846</v>
+        <v>778</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -6479,7 +6481,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>847</v>
+        <v>779</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -6490,7 +6492,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>848</v>
+        <v>780</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -6498,7 +6500,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>849</v>
+        <v>781</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -6509,12 +6511,12 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>850</v>
+        <v>782</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>851</v>
+        <v>783</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -6522,7 +6524,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>852</v>
+        <v>784</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -6533,7 +6535,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>853</v>
+        <v>785</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -6547,7 +6549,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>854</v>
+        <v>786</v>
       </c>
       <c r="B110">
         <v>10</v>
@@ -6558,7 +6560,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>855</v>
+        <v>787</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -6566,7 +6568,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>856</v>
+        <v>788</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -6574,7 +6576,7 @@
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>857</v>
+        <v>789</v>
       </c>
       <c r="B113">
         <v>6</v>
@@ -6585,7 +6587,7 @@
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>858</v>
+        <v>790</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -6599,7 +6601,7 @@
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>859</v>
+        <v>791</v>
       </c>
       <c r="B115">
         <v>8</v>
@@ -6610,7 +6612,7 @@
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>860</v>
+        <v>792</v>
       </c>
       <c r="B116">
         <v>8</v>
@@ -6624,7 +6626,7 @@
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>861</v>
+        <v>793</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -6632,7 +6634,7 @@
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>862</v>
+        <v>794</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -6643,7 +6645,7 @@
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>863</v>
+        <v>795</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -6654,7 +6656,7 @@
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>864</v>
+        <v>796</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -6665,7 +6667,7 @@
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>865</v>
+        <v>797</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -6676,7 +6678,7 @@
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>866</v>
+        <v>798</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -6684,7 +6686,7 @@
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>867</v>
+        <v>799</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -6698,7 +6700,7 @@
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>868</v>
+        <v>800</v>
       </c>
       <c r="B124">
         <v>5</v>
@@ -6709,7 +6711,7 @@
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>869</v>
+        <v>801</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -6720,7 +6722,7 @@
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>870</v>
+        <v>802</v>
       </c>
       <c r="B126">
         <v>7</v>
@@ -6731,7 +6733,7 @@
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>871</v>
+        <v>803</v>
       </c>
       <c r="B127">
         <v>5</v>
@@ -6742,7 +6744,7 @@
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>872</v>
+        <v>804</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -6753,7 +6755,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>873</v>
+        <v>805</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -6761,7 +6763,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>874</v>
+        <v>806</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -6769,7 +6771,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>875</v>
+        <v>807</v>
       </c>
       <c r="D131">
         <v>2</v>
@@ -6780,7 +6782,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>876</v>
+        <v>808</v>
       </c>
       <c r="B132">
         <v>7</v>
@@ -6791,7 +6793,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>877</v>
+        <v>809</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -6802,7 +6804,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>878</v>
+        <v>810</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -6810,7 +6812,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>879</v>
+        <v>811</v>
       </c>
       <c r="B135">
         <v>3</v>
@@ -6821,7 +6823,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>880</v>
+        <v>812</v>
       </c>
       <c r="B136">
         <v>2</v>
@@ -6832,7 +6834,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>881</v>
+        <v>813</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -6840,7 +6842,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>882</v>
+        <v>814</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -6848,7 +6850,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>883</v>
+        <v>815</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -6856,7 +6858,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>884</v>
+        <v>816</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -6864,7 +6866,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>885</v>
+        <v>817</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -6872,7 +6874,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>886</v>
+        <v>818</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -6880,7 +6882,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>887</v>
+        <v>819</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -6888,7 +6890,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>888</v>
+        <v>820</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -6896,7 +6898,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>889</v>
+        <v>821</v>
       </c>
       <c r="D145">
         <v>2</v>
@@ -6907,7 +6909,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>890</v>
+        <v>822</v>
       </c>
       <c r="B146">
         <v>3</v>
@@ -6918,7 +6920,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>891</v>
+        <v>823</v>
       </c>
       <c r="D147">
         <v>7</v>
@@ -6926,7 +6928,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>892</v>
+        <v>824</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -6934,7 +6936,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>893</v>
+        <v>825</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -6945,7 +6947,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>894</v>
+        <v>826</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -6953,7 +6955,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>897</v>
+        <v>829</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -6964,12 +6966,12 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>896</v>
+        <v>828</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>898</v>
+        <v>830</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -6980,7 +6982,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>899</v>
+        <v>831</v>
       </c>
       <c r="B154">
         <v>13</v>
@@ -6991,7 +6993,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>900</v>
+        <v>832</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -7002,7 +7004,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>901</v>
+        <v>833</v>
       </c>
       <c r="D156">
         <v>3</v>
@@ -7010,7 +7012,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>902</v>
+        <v>834</v>
       </c>
       <c r="B157">
         <v>4</v>
@@ -7021,7 +7023,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>903</v>
+        <v>835</v>
       </c>
       <c r="D158">
         <v>3</v>
@@ -7029,7 +7031,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>904</v>
+        <v>836</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -7037,7 +7039,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>905</v>
+        <v>837</v>
       </c>
       <c r="D160">
         <v>2</v>
@@ -7045,7 +7047,7 @@
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>906</v>
+        <v>838</v>
       </c>
       <c r="D161">
         <v>3</v>
@@ -7053,7 +7055,7 @@
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>907</v>
+        <v>839</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -7064,7 +7066,7 @@
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>908</v>
+        <v>840</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -7072,7 +7074,7 @@
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>909</v>
+        <v>841</v>
       </c>
       <c r="B164">
         <v>5</v>
@@ -7083,7 +7085,7 @@
     </row>
     <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>910</v>
+        <v>842</v>
       </c>
       <c r="B165">
         <v>4</v>
@@ -7097,7 +7099,7 @@
     </row>
     <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>911</v>
+        <v>843</v>
       </c>
       <c r="D166">
         <v>7</v>
@@ -7105,7 +7107,7 @@
     </row>
     <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>912</v>
+        <v>844</v>
       </c>
       <c r="B167">
         <v>3</v>
@@ -7119,7 +7121,7 @@
     </row>
     <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>913</v>
+        <v>845</v>
       </c>
       <c r="D168">
         <v>3</v>
@@ -7130,7 +7132,7 @@
     </row>
     <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>914</v>
+        <v>846</v>
       </c>
       <c r="B169">
         <v>7</v>
@@ -7144,7 +7146,7 @@
     </row>
     <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>915</v>
+        <v>847</v>
       </c>
       <c r="B170">
         <v>6</v>
@@ -7161,7 +7163,7 @@
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>916</v>
+        <v>848</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -7169,7 +7171,7 @@
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>917</v>
+        <v>849</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -7180,7 +7182,7 @@
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>918</v>
+        <v>850</v>
       </c>
       <c r="D173">
         <v>2</v>
@@ -7188,7 +7190,7 @@
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>919</v>
+        <v>851</v>
       </c>
       <c r="D174">
         <v>3</v>
@@ -7196,7 +7198,7 @@
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>920</v>
+        <v>852</v>
       </c>
       <c r="D175">
         <v>3</v>
@@ -7204,7 +7206,7 @@
     </row>
     <row r="176" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>922</v>
+        <v>854</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -7212,7 +7214,7 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>923</v>
+        <v>855</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -7223,7 +7225,7 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>924</v>
+        <v>856</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -7231,7 +7233,7 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>925</v>
+        <v>857</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -7239,7 +7241,7 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>926</v>
+        <v>858</v>
       </c>
       <c r="D180">
         <v>2</v>
@@ -7247,7 +7249,7 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>927</v>
+        <v>859</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -7255,7 +7257,7 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>928</v>
+        <v>860</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -7263,7 +7265,7 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>929</v>
+        <v>861</v>
       </c>
       <c r="B183">
         <v>3</v>
@@ -7277,7 +7279,7 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>930</v>
+        <v>862</v>
       </c>
       <c r="I184">
         <v>1</v>
@@ -7285,7 +7287,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>931</v>
+        <v>863</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -7293,7 +7295,7 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>932</v>
+        <v>864</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -7301,7 +7303,7 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>934</v>
+        <v>866</v>
       </c>
       <c r="D187">
         <v>3</v>
@@ -7309,7 +7311,7 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>935</v>
+        <v>867</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -7317,7 +7319,7 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>936</v>
+        <v>868</v>
       </c>
       <c r="D189">
         <v>3</v>
@@ -7325,7 +7327,7 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>937</v>
+        <v>869</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -7333,7 +7335,7 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>938</v>
+        <v>870</v>
       </c>
       <c r="B191">
         <v>2</v>
@@ -7344,7 +7346,7 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>939</v>
+        <v>871</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -7355,7 +7357,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>940</v>
+        <v>872</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -7366,7 +7368,7 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>941</v>
+        <v>873</v>
       </c>
       <c r="D194">
         <v>2</v>
@@ -7374,7 +7376,7 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>942</v>
+        <v>874</v>
       </c>
       <c r="I195">
         <v>1</v>
@@ -7382,7 +7384,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>943</v>
+        <v>875</v>
       </c>
       <c r="D196">
         <v>2</v>
@@ -7390,7 +7392,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>948</v>
+        <v>880</v>
       </c>
       <c r="I197">
         <v>1</v>
@@ -7398,7 +7400,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>949</v>
+        <v>881</v>
       </c>
       <c r="I198">
         <v>1</v>
@@ -7406,7 +7408,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>950</v>
+        <v>882</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -7414,7 +7416,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>951</v>
+        <v>883</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -7422,7 +7424,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>952</v>
+        <v>884</v>
       </c>
       <c r="D201">
         <v>2</v>
@@ -7430,7 +7432,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>953</v>
+        <v>885</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -7438,7 +7440,7 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>954</v>
+        <v>886</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -7446,7 +7448,7 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>955</v>
+        <v>887</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -7454,7 +7456,7 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>956</v>
+        <v>888</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -7462,7 +7464,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>957</v>
+        <v>889</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -7470,7 +7472,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>958</v>
+        <v>890</v>
       </c>
       <c r="E207">
         <v>3</v>
@@ -7478,7 +7480,7 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>959</v>
+        <v>891</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -7486,7 +7488,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>960</v>
+        <v>892</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -7494,7 +7496,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>961</v>
+        <v>893</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -7502,7 +7504,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1076</v>
+        <v>1008</v>
       </c>
       <c r="B211">
         <v>4</v>
@@ -7513,7 +7515,7 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1077</v>
+        <v>1009</v>
       </c>
       <c r="I212">
         <v>1</v>
@@ -7521,7 +7523,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1078</v>
+        <v>1010</v>
       </c>
       <c r="B213">
         <v>8</v>
@@ -7532,7 +7534,7 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1079</v>
+        <v>1011</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -7543,7 +7545,7 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1080</v>
+        <v>1012</v>
       </c>
       <c r="B215">
         <v>4</v>
@@ -7554,67 +7556,67 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -7625,18 +7627,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30093D95-D28B-DD42-A703-B59CAF299E47}">
-  <dimension ref="A1:CC153"/>
+  <dimension ref="A1:CC202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D119" sqref="D119"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>651</v>
+        <v>583</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -7880,8 +7882,8 @@
       </c>
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>658</v>
+      <c r="A2" t="s">
+        <v>590</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7894,8 +7896,8 @@
       </c>
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>895</v>
+      <c r="A3" t="s">
+        <v>827</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7908,8 +7910,8 @@
       </c>
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>921</v>
+      <c r="A4" t="s">
+        <v>853</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -7920,7 +7922,7 @@
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>962</v>
+        <v>894</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -7928,7 +7930,7 @@
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>963</v>
+        <v>895</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -7939,7 +7941,7 @@
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>964</v>
+        <v>896</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7950,7 +7952,7 @@
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>965</v>
+        <v>897</v>
       </c>
       <c r="U8">
         <v>5</v>
@@ -7958,7 +7960,7 @@
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>966</v>
+        <v>898</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -7969,7 +7971,7 @@
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>967</v>
+        <v>899</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -7980,7 +7982,7 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>969</v>
+        <v>901</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -7988,7 +7990,7 @@
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>968</v>
+        <v>900</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -8002,7 +8004,7 @@
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>970</v>
+        <v>902</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -8010,7 +8012,7 @@
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>971</v>
+        <v>903</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -8018,7 +8020,7 @@
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>972</v>
+        <v>904</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -8038,7 +8040,7 @@
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>973</v>
+        <v>905</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -8046,7 +8048,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>974</v>
+        <v>906</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -8057,7 +8059,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>975</v>
+        <v>907</v>
       </c>
       <c r="U18">
         <v>3</v>
@@ -8065,7 +8067,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>976</v>
+        <v>908</v>
       </c>
       <c r="U19">
         <v>3</v>
@@ -8073,7 +8075,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>977</v>
+        <v>909</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -8090,7 +8092,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>979</v>
+        <v>911</v>
       </c>
       <c r="B21">
         <v>15</v>
@@ -8098,7 +8100,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>978</v>
+        <v>910</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -8115,7 +8117,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>980</v>
+        <v>912</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -8123,7 +8125,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>981</v>
+        <v>913</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -8137,7 +8139,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>982</v>
+        <v>914</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -8145,7 +8147,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>983</v>
+        <v>915</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -8153,7 +8155,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>984</v>
+        <v>916</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -8164,7 +8166,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>985</v>
+        <v>917</v>
       </c>
       <c r="B28">
         <v>9</v>
@@ -8175,7 +8177,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>986</v>
+        <v>918</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -8186,7 +8188,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>987</v>
+        <v>919</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -8197,12 +8199,12 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>988</v>
+        <v>920</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>989</v>
+        <v>921</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -8210,7 +8212,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>990</v>
+        <v>922</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -8224,12 +8226,12 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>991</v>
+        <v>923</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>992</v>
+        <v>924</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -8237,7 +8239,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>993</v>
+        <v>925</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -8245,17 +8247,17 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>994</v>
+        <v>926</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>995</v>
+        <v>927</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>996</v>
+        <v>928</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -8263,7 +8265,7 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>997</v>
+        <v>929</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -8271,7 +8273,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>998</v>
+        <v>930</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -8279,7 +8281,7 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>999</v>
+        <v>931</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -8287,7 +8289,7 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1000</v>
+        <v>932</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -8295,7 +8297,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1001</v>
+        <v>933</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -8306,7 +8308,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1002</v>
+        <v>934</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -8314,7 +8316,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1003</v>
+        <v>935</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -8328,7 +8330,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1004</v>
+        <v>936</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -8336,7 +8338,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1005</v>
+        <v>937</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -8344,7 +8346,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1006</v>
+        <v>938</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -8352,7 +8354,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1007</v>
+        <v>939</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -8363,7 +8365,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1008</v>
+        <v>940</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -8377,7 +8379,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1009</v>
+        <v>941</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -8388,7 +8390,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1010</v>
+        <v>942</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -8399,7 +8401,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1011</v>
+        <v>943</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -8407,7 +8409,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1012</v>
+        <v>944</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -8415,7 +8417,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1013</v>
+        <v>945</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -8426,7 +8428,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1014</v>
+        <v>946</v>
       </c>
       <c r="B57">
         <v>21</v>
@@ -8437,7 +8439,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1015</v>
+        <v>947</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -8445,7 +8447,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1016</v>
+        <v>948</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -8453,7 +8455,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1017</v>
+        <v>949</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -8461,7 +8463,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1018</v>
+        <v>950</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -8472,7 +8474,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1019</v>
+        <v>951</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -8483,7 +8485,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1020</v>
+        <v>952</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -8497,7 +8499,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1021</v>
+        <v>953</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -8511,7 +8513,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1022</v>
+        <v>954</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -8525,7 +8527,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1023</v>
+        <v>955</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -8536,7 +8538,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1024</v>
+        <v>956</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -8547,7 +8549,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1025</v>
+        <v>957</v>
       </c>
       <c r="B68">
         <v>4</v>
@@ -8561,7 +8563,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1026</v>
+        <v>958</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -8575,7 +8577,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1028</v>
+        <v>960</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -8586,7 +8588,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1027</v>
+        <v>959</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -8600,7 +8602,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1029</v>
+        <v>961</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -8608,7 +8610,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1030</v>
+        <v>962</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -8616,7 +8618,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1031</v>
+        <v>963</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -8630,7 +8632,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1032</v>
+        <v>964</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -8641,7 +8643,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1033</v>
+        <v>965</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -8652,7 +8654,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1034</v>
+        <v>966</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -8660,7 +8662,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1035</v>
+        <v>967</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -8674,7 +8676,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1036</v>
+        <v>968</v>
       </c>
       <c r="B79">
         <v>4</v>
@@ -8685,7 +8687,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1037</v>
+        <v>969</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -8693,7 +8695,7 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1038</v>
+        <v>970</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -8704,7 +8706,7 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1039</v>
+        <v>971</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -8718,7 +8720,7 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1040</v>
+        <v>972</v>
       </c>
       <c r="B83">
         <v>7</v>
@@ -8732,7 +8734,7 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1041</v>
+        <v>973</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -8743,7 +8745,7 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1042</v>
+        <v>974</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -8754,7 +8756,7 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1043</v>
+        <v>975</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -8768,7 +8770,7 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1044</v>
+        <v>976</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -8776,7 +8778,7 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1045</v>
+        <v>977</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -8784,7 +8786,7 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1046</v>
+        <v>978</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -8792,7 +8794,7 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1047</v>
+        <v>979</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -8806,7 +8808,7 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1048</v>
+        <v>980</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -8817,7 +8819,7 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1049</v>
+        <v>981</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -8825,7 +8827,7 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1050</v>
+        <v>982</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -8833,7 +8835,7 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1051</v>
+        <v>983</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -8841,7 +8843,7 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1052</v>
+        <v>984</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -8855,7 +8857,7 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1053</v>
+        <v>985</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -8866,7 +8868,7 @@
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1054</v>
+        <v>986</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -8883,7 +8885,7 @@
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1055</v>
+        <v>987</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -8897,7 +8899,7 @@
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1056</v>
+        <v>988</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8905,7 +8907,7 @@
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1057</v>
+        <v>989</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8913,7 +8915,7 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1058</v>
+        <v>990</v>
       </c>
       <c r="B101">
         <v>8</v>
@@ -8927,7 +8929,7 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1059</v>
+        <v>991</v>
       </c>
       <c r="B102">
         <v>3</v>
@@ -8938,7 +8940,7 @@
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1060</v>
+        <v>992</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8946,7 +8948,7 @@
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1061</v>
+        <v>993</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -8960,7 +8962,7 @@
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1062</v>
+        <v>994</v>
       </c>
       <c r="E105">
         <v>2</v>
@@ -8971,7 +8973,7 @@
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1063</v>
+        <v>995</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -8982,7 +8984,7 @@
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1064</v>
+        <v>996</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8993,7 +8995,7 @@
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1065</v>
+        <v>997</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -9004,7 +9006,7 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1066</v>
+        <v>998</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -9018,7 +9020,7 @@
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1067</v>
+        <v>999</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -9032,7 +9034,7 @@
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1068</v>
+        <v>1000</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -9043,7 +9045,7 @@
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1069</v>
+        <v>1001</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9055,9 +9057,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1070</v>
+        <v>1002</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -9066,9 +9068,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1071</v>
+        <v>1003</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -9077,9 +9079,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1072</v>
+        <v>1004</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -9091,17 +9093,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1073</v>
+        <v>1005</v>
       </c>
       <c r="E116">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1074</v>
+        <v>1006</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -9110,187 +9112,708 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1075</v>
+        <v>1007</v>
       </c>
       <c r="D118">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D127">
+        <v>8</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D128">
+        <v>5</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="D130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B141">
+        <v>5</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D150">
+        <v>4</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D155">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D164">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D170">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="U171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="D172">
+        <v>3</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B175">
+        <v>4</v>
+      </c>
+      <c r="D175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B177">
+        <v>4</v>
+      </c>
+      <c r="D177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D178">
+        <v>3</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="D179">
+        <v>5</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B180">
+        <v>3</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="I180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B181">
+        <v>4</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -9301,1927 +9824,1682 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC7AE76-5207-2B4B-8203-E570989F039C}">
-  <dimension ref="A2:A384"/>
+  <dimension ref="A2:A335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A150"/>
+      <selection activeCell="A2" sqref="A2:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
     </row>
     <row r="276" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
     </row>
     <row r="277" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
     </row>
     <row r="280" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
     </row>
     <row r="282" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
     </row>
     <row r="286" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
     </row>
     <row r="291" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
     </row>
     <row r="299" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
     </row>
     <row r="300" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
     </row>
     <row r="301" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
     </row>
     <row r="303" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
     </row>
     <row r="305" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
     </row>
     <row r="306" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
     </row>
     <row r="307" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
     </row>
     <row r="309" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
     </row>
     <row r="310" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
     </row>
     <row r="311" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="312" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
     </row>
     <row r="315" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
     </row>
     <row r="316" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
     </row>
     <row r="317" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
     </row>
     <row r="318" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="319" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="321" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
     </row>
     <row r="323" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
     </row>
     <row r="324" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
     </row>
     <row r="325" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
     </row>
     <row r="327" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
     </row>
     <row r="328" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
     </row>
     <row r="329" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
     </row>
     <row r="330" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
     </row>
     <row r="331" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
     </row>
     <row r="333" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
     </row>
     <row r="334" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
     </row>
     <row r="335" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A353" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A359" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A360" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A366" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A367" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A368" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A369" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A370" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A371" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A372" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A373" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A374" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A375" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A376" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A377" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A378" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A379" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A380" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A381" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A382" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A383" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A384" s="1" t="s">
-        <v>522</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/GroundTruth.xlsx
+++ b/GroundTruth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suruchi/Documents/MSc Artificial Intelligence/Artificial Intelligence Project/UniversalAdversarialChallenges-AutonomousVehicles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764D1D0D-36E1-994D-970A-7384924E8910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA2F28B-8680-EC4E-928A-EFB12E73D1AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="17040" xr2:uid="{E9FA8BCC-3C24-E14A-8C2A-C02BE4E3E8A8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="17040" activeTab="2" xr2:uid="{E9FA8BCC-3C24-E14A-8C2A-C02BE4E3E8A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Art in Surroundings" sheetId="3" r:id="rId1"/>
@@ -311,9 +311,6 @@
     <t>8PUTF</t>
   </si>
   <si>
-    <t>MBGRG</t>
-  </si>
-  <si>
     <t>81VP9</t>
   </si>
   <si>
@@ -350,69 +347,6 @@
     <t>TBGYW</t>
   </si>
   <si>
-    <t>3WY6Y</t>
-  </si>
-  <si>
-    <t>TBN2S</t>
-  </si>
-  <si>
-    <t>Q8X4L</t>
-  </si>
-  <si>
-    <t>62K0E</t>
-  </si>
-  <si>
-    <t>V5BJJ</t>
-  </si>
-  <si>
-    <t>T2SSV</t>
-  </si>
-  <si>
-    <t>CNZCE</t>
-  </si>
-  <si>
-    <t>SJ4FM</t>
-  </si>
-  <si>
-    <t>2ORMD</t>
-  </si>
-  <si>
-    <t>YSFNU</t>
-  </si>
-  <si>
-    <t>F4LPF</t>
-  </si>
-  <si>
-    <t>G4L0V</t>
-  </si>
-  <si>
-    <t>MUF1G</t>
-  </si>
-  <si>
-    <t>AZ7T0</t>
-  </si>
-  <si>
-    <t>U3ZW6</t>
-  </si>
-  <si>
-    <t>0CIY9</t>
-  </si>
-  <si>
-    <t>FQQ76</t>
-  </si>
-  <si>
-    <t>MW3IJ</t>
-  </si>
-  <si>
-    <t>TTO4H</t>
-  </si>
-  <si>
-    <t>DC3B5</t>
-  </si>
-  <si>
-    <t>NFOLA</t>
-  </si>
-  <si>
     <t>OFH49</t>
   </si>
   <si>
@@ -3279,6 +3213,72 @@
   </si>
   <si>
     <t>657P0.jpg</t>
+  </si>
+  <si>
+    <t>MBGRG.jpg</t>
+  </si>
+  <si>
+    <t>3WY6Y.jpg</t>
+  </si>
+  <si>
+    <t>TBN2S.jpg</t>
+  </si>
+  <si>
+    <t>Q8X4L.jpg</t>
+  </si>
+  <si>
+    <t>62K0E.jpg</t>
+  </si>
+  <si>
+    <t>V5BJJ.jpg</t>
+  </si>
+  <si>
+    <t>T2SSV.jpg</t>
+  </si>
+  <si>
+    <t>CNZCE.jpg</t>
+  </si>
+  <si>
+    <t>SJ4FM.jpg</t>
+  </si>
+  <si>
+    <t>2ORMD.jpg</t>
+  </si>
+  <si>
+    <t>YSFNU.jpg</t>
+  </si>
+  <si>
+    <t>F4LPF.jpg</t>
+  </si>
+  <si>
+    <t>G4L0V.jpg</t>
+  </si>
+  <si>
+    <t>MUF1G.jpg</t>
+  </si>
+  <si>
+    <t>AZ7T0.jpg</t>
+  </si>
+  <si>
+    <t>U3ZW6.jpg</t>
+  </si>
+  <si>
+    <t>0CIY9.jpg</t>
+  </si>
+  <si>
+    <t>FQQ76.jpg</t>
+  </si>
+  <si>
+    <t>MW3IJ.jpg</t>
+  </si>
+  <si>
+    <t>TTO4H.jpg</t>
+  </si>
+  <si>
+    <t>DC3B5.jpg</t>
+  </si>
+  <si>
+    <t>NFOLA.jpg</t>
   </si>
 </sst>
 </file>
@@ -3639,7 +3639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F23698F-6E01-E041-A7A3-561430F97E46}">
   <dimension ref="A1:CC238"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H227" sqref="H227"/>
     </sheetView>
@@ -3648,7 +3648,7 @@
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3909,25 +3909,25 @@
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="B5" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -3935,17 +3935,17 @@
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3953,32 +3953,32 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -3986,12 +3986,12 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3999,12 +3999,12 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -4012,12 +4012,12 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="B22">
         <v>9</v>
@@ -4025,12 +4025,12 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -4062,27 +4062,27 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -4090,22 +4090,22 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4119,17 +4119,17 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4137,72 +4137,72 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4210,162 +4210,162 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
     </row>
     <row r="81" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
     </row>
     <row r="82" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
     </row>
     <row r="83" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
     </row>
     <row r="84" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
     </row>
     <row r="85" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="86" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4381,22 +4381,22 @@
     </row>
     <row r="87" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
     </row>
     <row r="88" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
     </row>
     <row r="89" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
     </row>
     <row r="90" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="BH90">
         <v>2</v>
@@ -4404,22 +4404,22 @@
     </row>
     <row r="91" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
     </row>
     <row r="92" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
     </row>
     <row r="93" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
     </row>
     <row r="94" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -4427,27 +4427,27 @@
     </row>
     <row r="95" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
     </row>
     <row r="96" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="B99">
         <v>7</v>
@@ -4455,17 +4455,17 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>554</v>
+        <v>532</v>
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>555</v>
+        <v>533</v>
       </c>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -4473,12 +4473,12 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -4489,17 +4489,17 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4507,27 +4507,27 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -4535,92 +4535,92 @@
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>572</v>
+        <v>550</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>575</v>
+        <v>553</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>576</v>
+        <v>554</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>578</v>
+        <v>556</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>580</v>
+        <v>558</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>623</v>
+        <v>601</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>624</v>
+        <v>602</v>
       </c>
       <c r="B130">
         <v>2</v>
@@ -4628,22 +4628,22 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>625</v>
+        <v>603</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>626</v>
+        <v>604</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>627</v>
+        <v>605</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>628</v>
+        <v>606</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -4651,37 +4651,37 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>630</v>
+        <v>608</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>631</v>
+        <v>609</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>632</v>
+        <v>610</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>633</v>
+        <v>611</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>634</v>
+        <v>612</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>635</v>
+        <v>613</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -4689,22 +4689,22 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>636</v>
+        <v>614</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>637</v>
+        <v>615</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>638</v>
+        <v>616</v>
       </c>
     </row>
     <row r="145" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>639</v>
+        <v>617</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -4715,22 +4715,22 @@
     </row>
     <row r="146" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>640</v>
+        <v>618</v>
       </c>
     </row>
     <row r="147" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>641</v>
+        <v>619</v>
       </c>
     </row>
     <row r="148" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>642</v>
+        <v>620</v>
       </c>
     </row>
     <row r="149" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>643</v>
+        <v>621</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -4738,42 +4738,42 @@
     </row>
     <row r="150" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>644</v>
+        <v>622</v>
       </c>
     </row>
     <row r="151" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>645</v>
+        <v>623</v>
       </c>
     </row>
     <row r="152" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>646</v>
+        <v>624</v>
       </c>
     </row>
     <row r="153" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>647</v>
+        <v>625</v>
       </c>
     </row>
     <row r="154" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
     </row>
     <row r="155" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>649</v>
+        <v>627</v>
       </c>
     </row>
     <row r="156" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>650</v>
+        <v>628</v>
       </c>
     </row>
     <row r="157" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>651</v>
+        <v>629</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -4781,67 +4781,67 @@
     </row>
     <row r="158" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>652</v>
+        <v>630</v>
       </c>
     </row>
     <row r="159" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>653</v>
+        <v>631</v>
       </c>
     </row>
     <row r="160" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>654</v>
+        <v>632</v>
       </c>
     </row>
     <row r="161" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>655</v>
+        <v>633</v>
       </c>
     </row>
     <row r="162" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
     </row>
     <row r="163" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>657</v>
+        <v>635</v>
       </c>
     </row>
     <row r="164" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>658</v>
+        <v>636</v>
       </c>
     </row>
     <row r="165" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>659</v>
+        <v>637</v>
       </c>
     </row>
     <row r="166" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>660</v>
+        <v>638</v>
       </c>
     </row>
     <row r="167" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>661</v>
+        <v>639</v>
       </c>
     </row>
     <row r="168" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>662</v>
+        <v>640</v>
       </c>
     </row>
     <row r="169" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
     </row>
     <row r="170" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>664</v>
+        <v>642</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -4849,27 +4849,27 @@
     </row>
     <row r="171" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>665</v>
+        <v>643</v>
       </c>
     </row>
     <row r="172" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>666</v>
+        <v>644</v>
       </c>
     </row>
     <row r="173" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
     </row>
     <row r="174" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>668</v>
+        <v>646</v>
       </c>
     </row>
     <row r="175" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>669</v>
+        <v>647</v>
       </c>
       <c r="BH175">
         <v>4</v>
@@ -4877,62 +4877,62 @@
     </row>
     <row r="176" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>670</v>
+        <v>648</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>671</v>
+        <v>649</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>672</v>
+        <v>650</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>674</v>
+        <v>652</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>675</v>
+        <v>653</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>677</v>
+        <v>655</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>678</v>
+        <v>656</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>679</v>
+        <v>657</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>681</v>
+        <v>659</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -4940,17 +4940,17 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>682</v>
+        <v>660</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>683</v>
+        <v>661</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>684</v>
+        <v>662</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -4958,17 +4958,17 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>685</v>
+        <v>663</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>686</v>
+        <v>664</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>687</v>
+        <v>665</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -4976,17 +4976,17 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>688</v>
+        <v>666</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>689</v>
+        <v>667</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>690</v>
+        <v>668</v>
       </c>
       <c r="B196">
         <v>9</v>
@@ -4994,7 +4994,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>691</v>
+        <v>669</v>
       </c>
       <c r="B197">
         <v>2</v>
@@ -5002,27 +5002,27 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>692</v>
+        <v>670</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>693</v>
+        <v>671</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>694</v>
+        <v>672</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>695</v>
+        <v>673</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>696</v>
+        <v>674</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -5030,22 +5030,22 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>697</v>
+        <v>675</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>699</v>
+        <v>677</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>700</v>
+        <v>678</v>
       </c>
       <c r="K206">
         <v>2</v>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>701</v>
+        <v>679</v>
       </c>
       <c r="K207">
         <v>2</v>
@@ -5061,12 +5061,12 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>702</v>
+        <v>680</v>
       </c>
     </row>
     <row r="209" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -5074,17 +5074,17 @@
     </row>
     <row r="210" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="211" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
     </row>
     <row r="212" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
       <c r="D212">
         <v>2</v>
@@ -5092,22 +5092,22 @@
     </row>
     <row r="213" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
     </row>
     <row r="214" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
     </row>
     <row r="215" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>709</v>
+        <v>687</v>
       </c>
     </row>
     <row r="216" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>710</v>
+        <v>688</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -5118,17 +5118,17 @@
     </row>
     <row r="217" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>711</v>
+        <v>689</v>
       </c>
     </row>
     <row r="218" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>712</v>
+        <v>690</v>
       </c>
     </row>
     <row r="219" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>713</v>
+        <v>691</v>
       </c>
       <c r="O219">
         <v>1</v>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="220" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -5144,7 +5144,7 @@
     </row>
     <row r="221" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>865</v>
+        <v>843</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -5152,32 +5152,32 @@
     </row>
     <row r="222" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>715</v>
+        <v>693</v>
       </c>
     </row>
     <row r="223" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>876</v>
+        <v>854</v>
       </c>
     </row>
     <row r="224" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>877</v>
+        <v>855</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>878</v>
+        <v>856</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>879</v>
+        <v>857</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1080</v>
+        <v>1058</v>
       </c>
       <c r="D227">
         <v>6</v>
@@ -5250,14 +5250,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A216" sqref="A216"/>
+      <selection pane="bottomLeft" activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5502,7 +5502,7 @@
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -5510,7 +5510,7 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5518,7 +5518,7 @@
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -5526,7 +5526,7 @@
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -5534,7 +5534,7 @@
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5542,7 +5542,7 @@
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5556,7 +5556,7 @@
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>591</v>
+        <v>569</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5589,7 +5589,7 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>594</v>
+        <v>572</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5597,7 +5597,7 @@
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>595</v>
+        <v>573</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>596</v>
+        <v>574</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -5616,7 +5616,7 @@
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>597</v>
+        <v>575</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -5624,7 +5624,7 @@
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -5632,7 +5632,7 @@
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>599</v>
+        <v>577</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -5643,7 +5643,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5651,7 +5651,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5659,7 +5659,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>602</v>
+        <v>580</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -5681,7 +5681,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>604</v>
+        <v>582</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -5692,7 +5692,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -5700,7 +5700,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>606</v>
+        <v>584</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -5711,7 +5711,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -5719,7 +5719,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>609</v>
+        <v>587</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -5741,7 +5741,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -5752,7 +5752,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
       <c r="B28">
         <v>13</v>
@@ -5763,7 +5763,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -5774,7 +5774,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>613</v>
+        <v>591</v>
       </c>
       <c r="B30">
         <v>9</v>
@@ -5785,7 +5785,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>615</v>
+        <v>593</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="B33">
         <v>9</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>617</v>
+        <v>595</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -5829,7 +5829,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>618</v>
+        <v>596</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -5840,7 +5840,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -5851,7 +5851,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>620</v>
+        <v>598</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>621</v>
+        <v>599</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -5870,7 +5870,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="B39">
         <v>10</v>
@@ -5884,7 +5884,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>716</v>
+        <v>694</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>717</v>
+        <v>695</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>718</v>
+        <v>696</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -5911,7 +5911,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>719</v>
+        <v>697</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>720</v>
+        <v>698</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>721</v>
+        <v>699</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -5938,7 +5938,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>722</v>
+        <v>700</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -5949,7 +5949,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>723</v>
+        <v>701</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -5960,7 +5960,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>724</v>
+        <v>702</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -5968,7 +5968,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>725</v>
+        <v>703</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -5976,7 +5976,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>726</v>
+        <v>704</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>727</v>
+        <v>705</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -5998,7 +5998,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>728</v>
+        <v>706</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>729</v>
+        <v>707</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>730</v>
+        <v>708</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>731</v>
+        <v>709</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>732</v>
+        <v>710</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>734</v>
+        <v>712</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -6066,7 +6066,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>735</v>
+        <v>713</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6074,7 +6074,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>736</v>
+        <v>714</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6082,7 +6082,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>737</v>
+        <v>715</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>739</v>
+        <v>717</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -6101,7 +6101,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>738</v>
+        <v>716</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6109,7 +6109,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>740</v>
+        <v>718</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -6117,7 +6117,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>741</v>
+        <v>719</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>742</v>
+        <v>720</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6136,7 +6136,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>743</v>
+        <v>721</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -6144,7 +6144,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -6152,7 +6152,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>745</v>
+        <v>723</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>746</v>
+        <v>724</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6168,7 +6168,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>747</v>
+        <v>725</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -6176,7 +6176,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>748</v>
+        <v>726</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -6184,7 +6184,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>749</v>
+        <v>727</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -6198,7 +6198,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>750</v>
+        <v>728</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -6209,7 +6209,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>751</v>
+        <v>729</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -6217,7 +6217,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>752</v>
+        <v>730</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -6231,7 +6231,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>753</v>
+        <v>731</v>
       </c>
       <c r="B77">
         <v>3</v>
@@ -6245,7 +6245,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>754</v>
+        <v>732</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -6253,7 +6253,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>755</v>
+        <v>733</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -6261,7 +6261,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>756</v>
+        <v>734</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -6269,7 +6269,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>757</v>
+        <v>735</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -6277,7 +6277,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -6285,7 +6285,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -6293,7 +6293,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -6301,7 +6301,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -6315,7 +6315,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -6326,7 +6326,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -6334,7 +6334,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -6348,7 +6348,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -6356,7 +6356,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>766</v>
+        <v>744</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>767</v>
+        <v>745</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -6378,7 +6378,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>768</v>
+        <v>746</v>
       </c>
       <c r="E92">
         <v>3</v>
@@ -6386,7 +6386,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>769</v>
+        <v>747</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -6394,7 +6394,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>770</v>
+        <v>748</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -6413,7 +6413,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>772</v>
+        <v>750</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -6421,7 +6421,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>773</v>
+        <v>751</v>
       </c>
       <c r="B97">
         <v>3</v>
@@ -6432,7 +6432,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>774</v>
+        <v>752</v>
       </c>
       <c r="D98">
         <v>3</v>
@@ -6443,7 +6443,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>775</v>
+        <v>753</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -6451,7 +6451,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>776</v>
+        <v>754</v>
       </c>
       <c r="B100">
         <v>4</v>
@@ -6462,7 +6462,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>777</v>
+        <v>755</v>
       </c>
       <c r="B101">
         <v>3</v>
@@ -6473,7 +6473,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>778</v>
+        <v>756</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -6481,7 +6481,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -6492,7 +6492,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>780</v>
+        <v>758</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -6500,7 +6500,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -6511,12 +6511,12 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>782</v>
+        <v>760</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>783</v>
+        <v>761</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>784</v>
+        <v>762</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -6535,7 +6535,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>785</v>
+        <v>763</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -6549,7 +6549,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>786</v>
+        <v>764</v>
       </c>
       <c r="B110">
         <v>10</v>
@@ -6560,7 +6560,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -6568,7 +6568,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -6576,7 +6576,7 @@
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="B113">
         <v>6</v>
@@ -6587,7 +6587,7 @@
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -6601,7 +6601,7 @@
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="B115">
         <v>8</v>
@@ -6612,7 +6612,7 @@
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
       <c r="B116">
         <v>8</v>
@@ -6626,7 +6626,7 @@
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -6634,7 +6634,7 @@
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -6645,7 +6645,7 @@
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>795</v>
+        <v>773</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -6656,7 +6656,7 @@
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>796</v>
+        <v>774</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -6667,7 +6667,7 @@
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>797</v>
+        <v>775</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>798</v>
+        <v>776</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -6686,7 +6686,7 @@
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>799</v>
+        <v>777</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -6700,7 +6700,7 @@
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="B124">
         <v>5</v>
@@ -6711,7 +6711,7 @@
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>801</v>
+        <v>779</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -6722,7 +6722,7 @@
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>802</v>
+        <v>780</v>
       </c>
       <c r="B126">
         <v>7</v>
@@ -6733,7 +6733,7 @@
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>803</v>
+        <v>781</v>
       </c>
       <c r="B127">
         <v>5</v>
@@ -6744,7 +6744,7 @@
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>804</v>
+        <v>782</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -6755,7 +6755,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>805</v>
+        <v>783</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -6763,7 +6763,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>806</v>
+        <v>784</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -6771,7 +6771,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>807</v>
+        <v>785</v>
       </c>
       <c r="D131">
         <v>2</v>
@@ -6782,7 +6782,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>808</v>
+        <v>786</v>
       </c>
       <c r="B132">
         <v>7</v>
@@ -6793,7 +6793,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>809</v>
+        <v>787</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -6804,7 +6804,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>810</v>
+        <v>788</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>811</v>
+        <v>789</v>
       </c>
       <c r="B135">
         <v>3</v>
@@ -6823,7 +6823,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>812</v>
+        <v>790</v>
       </c>
       <c r="B136">
         <v>2</v>
@@ -6834,7 +6834,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>813</v>
+        <v>791</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -6842,7 +6842,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>814</v>
+        <v>792</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -6850,7 +6850,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>815</v>
+        <v>793</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -6858,7 +6858,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>816</v>
+        <v>794</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -6866,7 +6866,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>817</v>
+        <v>795</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>818</v>
+        <v>796</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -6882,7 +6882,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>819</v>
+        <v>797</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -6890,7 +6890,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>820</v>
+        <v>798</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -6898,7 +6898,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>821</v>
+        <v>799</v>
       </c>
       <c r="D145">
         <v>2</v>
@@ -6909,7 +6909,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>822</v>
+        <v>800</v>
       </c>
       <c r="B146">
         <v>3</v>
@@ -6920,7 +6920,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>823</v>
+        <v>801</v>
       </c>
       <c r="D147">
         <v>7</v>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>824</v>
+        <v>802</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -6936,7 +6936,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>825</v>
+        <v>803</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -6947,7 +6947,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>826</v>
+        <v>804</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -6955,7 +6955,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>829</v>
+        <v>807</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -6966,12 +6966,12 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>828</v>
+        <v>806</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>830</v>
+        <v>808</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -6982,7 +6982,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>831</v>
+        <v>809</v>
       </c>
       <c r="B154">
         <v>13</v>
@@ -6993,7 +6993,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>832</v>
+        <v>810</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -7004,7 +7004,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>833</v>
+        <v>811</v>
       </c>
       <c r="D156">
         <v>3</v>
@@ -7012,7 +7012,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="B157">
         <v>4</v>
@@ -7023,7 +7023,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>835</v>
+        <v>813</v>
       </c>
       <c r="D158">
         <v>3</v>
@@ -7031,7 +7031,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>836</v>
+        <v>814</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -7039,7 +7039,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>837</v>
+        <v>815</v>
       </c>
       <c r="D160">
         <v>2</v>
@@ -7047,7 +7047,7 @@
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>838</v>
+        <v>816</v>
       </c>
       <c r="D161">
         <v>3</v>
@@ -7055,7 +7055,7 @@
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>839</v>
+        <v>817</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -7066,7 +7066,7 @@
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>840</v>
+        <v>818</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -7074,7 +7074,7 @@
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>841</v>
+        <v>819</v>
       </c>
       <c r="B164">
         <v>5</v>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>842</v>
+        <v>820</v>
       </c>
       <c r="B165">
         <v>4</v>
@@ -7099,7 +7099,7 @@
     </row>
     <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>843</v>
+        <v>821</v>
       </c>
       <c r="D166">
         <v>7</v>
@@ -7107,7 +7107,7 @@
     </row>
     <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>844</v>
+        <v>822</v>
       </c>
       <c r="B167">
         <v>3</v>
@@ -7121,7 +7121,7 @@
     </row>
     <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>845</v>
+        <v>823</v>
       </c>
       <c r="D168">
         <v>3</v>
@@ -7132,7 +7132,7 @@
     </row>
     <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>846</v>
+        <v>824</v>
       </c>
       <c r="B169">
         <v>7</v>
@@ -7146,7 +7146,7 @@
     </row>
     <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>847</v>
+        <v>825</v>
       </c>
       <c r="B170">
         <v>6</v>
@@ -7163,7 +7163,7 @@
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>848</v>
+        <v>826</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -7171,7 +7171,7 @@
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>849</v>
+        <v>827</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -7182,7 +7182,7 @@
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>850</v>
+        <v>828</v>
       </c>
       <c r="D173">
         <v>2</v>
@@ -7190,7 +7190,7 @@
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>851</v>
+        <v>829</v>
       </c>
       <c r="D174">
         <v>3</v>
@@ -7198,7 +7198,7 @@
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>852</v>
+        <v>830</v>
       </c>
       <c r="D175">
         <v>3</v>
@@ -7206,7 +7206,7 @@
     </row>
     <row r="176" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>854</v>
+        <v>832</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -7214,7 +7214,7 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>855</v>
+        <v>833</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -7225,7 +7225,7 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>856</v>
+        <v>834</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -7233,7 +7233,7 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>857</v>
+        <v>835</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -7241,7 +7241,7 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>858</v>
+        <v>836</v>
       </c>
       <c r="D180">
         <v>2</v>
@@ -7249,7 +7249,7 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>859</v>
+        <v>837</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -7257,7 +7257,7 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>860</v>
+        <v>838</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -7265,7 +7265,7 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>861</v>
+        <v>839</v>
       </c>
       <c r="B183">
         <v>3</v>
@@ -7279,7 +7279,7 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>862</v>
+        <v>840</v>
       </c>
       <c r="I184">
         <v>1</v>
@@ -7287,7 +7287,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>863</v>
+        <v>841</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -7295,7 +7295,7 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>864</v>
+        <v>842</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -7303,7 +7303,7 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>866</v>
+        <v>844</v>
       </c>
       <c r="D187">
         <v>3</v>
@@ -7311,7 +7311,7 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>867</v>
+        <v>845</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -7319,7 +7319,7 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>868</v>
+        <v>846</v>
       </c>
       <c r="D189">
         <v>3</v>
@@ -7327,7 +7327,7 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>869</v>
+        <v>847</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -7335,7 +7335,7 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>870</v>
+        <v>848</v>
       </c>
       <c r="B191">
         <v>2</v>
@@ -7346,7 +7346,7 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>871</v>
+        <v>849</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -7357,7 +7357,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>872</v>
+        <v>850</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -7368,7 +7368,7 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>873</v>
+        <v>851</v>
       </c>
       <c r="D194">
         <v>2</v>
@@ -7376,7 +7376,7 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>874</v>
+        <v>852</v>
       </c>
       <c r="I195">
         <v>1</v>
@@ -7384,7 +7384,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>875</v>
+        <v>853</v>
       </c>
       <c r="D196">
         <v>2</v>
@@ -7392,7 +7392,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>880</v>
+        <v>858</v>
       </c>
       <c r="I197">
         <v>1</v>
@@ -7400,7 +7400,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>881</v>
+        <v>859</v>
       </c>
       <c r="I198">
         <v>1</v>
@@ -7408,7 +7408,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>882</v>
+        <v>860</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -7416,7 +7416,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>883</v>
+        <v>861</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -7424,7 +7424,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>884</v>
+        <v>862</v>
       </c>
       <c r="D201">
         <v>2</v>
@@ -7432,7 +7432,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>885</v>
+        <v>863</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -7440,7 +7440,7 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>886</v>
+        <v>864</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>887</v>
+        <v>865</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -7456,7 +7456,7 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>888</v>
+        <v>866</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -7464,7 +7464,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>889</v>
+        <v>867</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -7472,7 +7472,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>890</v>
+        <v>868</v>
       </c>
       <c r="E207">
         <v>3</v>
@@ -7480,7 +7480,7 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>891</v>
+        <v>869</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -7488,7 +7488,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>892</v>
+        <v>870</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -7496,7 +7496,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>893</v>
+        <v>871</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -7504,7 +7504,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1008</v>
+        <v>986</v>
       </c>
       <c r="B211">
         <v>4</v>
@@ -7515,7 +7515,7 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1009</v>
+        <v>987</v>
       </c>
       <c r="I212">
         <v>1</v>
@@ -7523,7 +7523,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
       <c r="B213">
         <v>8</v>
@@ -7534,7 +7534,7 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1011</v>
+        <v>989</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -7545,7 +7545,7 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1012</v>
+        <v>990</v>
       </c>
       <c r="B215">
         <v>4</v>
@@ -7556,67 +7556,73 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>91</v>
+        <v>1059</v>
+      </c>
+      <c r="B216">
+        <v>6</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -7627,18 +7633,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30093D95-D28B-DD42-A703-B59CAF299E47}">
-  <dimension ref="A1:CC202"/>
+  <dimension ref="A1:CC243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A186" sqref="A186"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -7883,7 +7889,7 @@
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7897,7 +7903,7 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>827</v>
+        <v>805</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7911,7 +7917,7 @@
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>853</v>
+        <v>831</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -7922,7 +7928,7 @@
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>894</v>
+        <v>872</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -7930,7 +7936,7 @@
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>895</v>
+        <v>873</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -7941,7 +7947,7 @@
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>896</v>
+        <v>874</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7952,7 +7958,7 @@
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
       <c r="U8">
         <v>5</v>
@@ -7960,7 +7966,7 @@
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>898</v>
+        <v>876</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -7971,7 +7977,7 @@
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>899</v>
+        <v>877</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -7982,7 +7988,7 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>901</v>
+        <v>879</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -7990,7 +7996,7 @@
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>900</v>
+        <v>878</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -8004,7 +8010,7 @@
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>902</v>
+        <v>880</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -8012,7 +8018,7 @@
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>903</v>
+        <v>881</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -8020,7 +8026,7 @@
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>904</v>
+        <v>882</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -8040,7 +8046,7 @@
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>905</v>
+        <v>883</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -8048,7 +8054,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>906</v>
+        <v>884</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -8059,7 +8065,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>907</v>
+        <v>885</v>
       </c>
       <c r="U18">
         <v>3</v>
@@ -8067,7 +8073,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>908</v>
+        <v>886</v>
       </c>
       <c r="U19">
         <v>3</v>
@@ -8075,7 +8081,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>909</v>
+        <v>887</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -8092,7 +8098,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>911</v>
+        <v>889</v>
       </c>
       <c r="B21">
         <v>15</v>
@@ -8100,7 +8106,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>910</v>
+        <v>888</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -8117,7 +8123,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>912</v>
+        <v>890</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -8125,7 +8131,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>913</v>
+        <v>891</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -8139,7 +8145,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>914</v>
+        <v>892</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -8147,7 +8153,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>915</v>
+        <v>893</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -8155,7 +8161,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>916</v>
+        <v>894</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -8166,7 +8172,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>917</v>
+        <v>895</v>
       </c>
       <c r="B28">
         <v>9</v>
@@ -8177,7 +8183,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>918</v>
+        <v>896</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -8188,7 +8194,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>919</v>
+        <v>897</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -8199,12 +8205,12 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>920</v>
+        <v>898</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>921</v>
+        <v>899</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -8212,7 +8218,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>922</v>
+        <v>900</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -8226,12 +8232,12 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>923</v>
+        <v>901</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>924</v>
+        <v>902</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -8239,7 +8245,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>925</v>
+        <v>903</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -8247,17 +8253,17 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>926</v>
+        <v>904</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>927</v>
+        <v>905</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -8265,7 +8271,7 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>929</v>
+        <v>907</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -8273,7 +8279,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>930</v>
+        <v>908</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -8281,7 +8287,7 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>931</v>
+        <v>909</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -8289,7 +8295,7 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -8297,7 +8303,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -8308,7 +8314,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -8316,7 +8322,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -8330,7 +8336,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>936</v>
+        <v>914</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -8338,7 +8344,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>937</v>
+        <v>915</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -8346,7 +8352,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>938</v>
+        <v>916</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -8354,7 +8360,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -8365,7 +8371,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -8379,7 +8385,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -8390,7 +8396,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>942</v>
+        <v>920</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -8401,7 +8407,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>943</v>
+        <v>921</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -8409,7 +8415,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>944</v>
+        <v>922</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -8417,7 +8423,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>945</v>
+        <v>923</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -8428,7 +8434,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>946</v>
+        <v>924</v>
       </c>
       <c r="B57">
         <v>21</v>
@@ -8439,7 +8445,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>947</v>
+        <v>925</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -8447,7 +8453,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>948</v>
+        <v>926</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -8455,7 +8461,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>949</v>
+        <v>927</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -8463,7 +8469,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>950</v>
+        <v>928</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -8474,7 +8480,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>951</v>
+        <v>929</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -8485,7 +8491,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>952</v>
+        <v>930</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -8499,7 +8505,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -8513,7 +8519,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>954</v>
+        <v>932</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -8527,7 +8533,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -8538,7 +8544,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>956</v>
+        <v>934</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -8549,7 +8555,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>957</v>
+        <v>935</v>
       </c>
       <c r="B68">
         <v>4</v>
@@ -8563,7 +8569,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -8577,7 +8583,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>960</v>
+        <v>938</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -8588,7 +8594,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -8602,7 +8608,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>961</v>
+        <v>939</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -8610,7 +8616,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>962</v>
+        <v>940</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -8618,7 +8624,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>963</v>
+        <v>941</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -8632,7 +8638,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>964</v>
+        <v>942</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -8643,7 +8649,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>965</v>
+        <v>943</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -8654,7 +8660,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -8662,7 +8668,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>967</v>
+        <v>945</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -8676,7 +8682,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>968</v>
+        <v>946</v>
       </c>
       <c r="B79">
         <v>4</v>
@@ -8687,7 +8693,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>969</v>
+        <v>947</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -8695,7 +8701,7 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>970</v>
+        <v>948</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -8706,7 +8712,7 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>971</v>
+        <v>949</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -8720,7 +8726,7 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>972</v>
+        <v>950</v>
       </c>
       <c r="B83">
         <v>7</v>
@@ -8734,7 +8740,7 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>973</v>
+        <v>951</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -8745,7 +8751,7 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>974</v>
+        <v>952</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -8756,7 +8762,7 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>975</v>
+        <v>953</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -8770,7 +8776,7 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>976</v>
+        <v>954</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -8778,7 +8784,7 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>977</v>
+        <v>955</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -8786,7 +8792,7 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>978</v>
+        <v>956</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -8794,7 +8800,7 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>979</v>
+        <v>957</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -8808,7 +8814,7 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>980</v>
+        <v>958</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -8819,7 +8825,7 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>981</v>
+        <v>959</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -8827,7 +8833,7 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>982</v>
+        <v>960</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -8835,7 +8841,7 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>983</v>
+        <v>961</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -8843,7 +8849,7 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>984</v>
+        <v>962</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -8857,7 +8863,7 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>985</v>
+        <v>963</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -8868,7 +8874,7 @@
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>986</v>
+        <v>964</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -8885,7 +8891,7 @@
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>987</v>
+        <v>965</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -8899,7 +8905,7 @@
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>988</v>
+        <v>966</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8907,7 +8913,7 @@
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>989</v>
+        <v>967</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8915,7 +8921,7 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>990</v>
+        <v>968</v>
       </c>
       <c r="B101">
         <v>8</v>
@@ -8929,7 +8935,7 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>991</v>
+        <v>969</v>
       </c>
       <c r="B102">
         <v>3</v>
@@ -8940,7 +8946,7 @@
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>992</v>
+        <v>970</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8948,7 +8954,7 @@
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>993</v>
+        <v>971</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -8962,7 +8968,7 @@
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>994</v>
+        <v>972</v>
       </c>
       <c r="E105">
         <v>2</v>
@@ -8973,7 +8979,7 @@
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>995</v>
+        <v>973</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -8984,7 +8990,7 @@
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>996</v>
+        <v>974</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8995,7 +9001,7 @@
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>997</v>
+        <v>975</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -9006,7 +9012,7 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>998</v>
+        <v>976</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -9020,7 +9026,7 @@
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>999</v>
+        <v>977</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -9034,7 +9040,7 @@
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1000</v>
+        <v>978</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -9045,7 +9051,7 @@
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1001</v>
+        <v>979</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9059,7 +9065,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1002</v>
+        <v>980</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -9070,7 +9076,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1003</v>
+        <v>981</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -9081,7 +9087,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1004</v>
+        <v>982</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -9095,7 +9101,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1005</v>
+        <v>983</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -9103,7 +9109,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1006</v>
+        <v>984</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -9114,7 +9120,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1007</v>
+        <v>985</v>
       </c>
       <c r="D118">
         <v>3</v>
@@ -9122,7 +9128,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1013</v>
+        <v>991</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -9130,7 +9136,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1014</v>
+        <v>992</v>
       </c>
       <c r="D120">
         <v>2</v>
@@ -9138,7 +9144,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1015</v>
+        <v>993</v>
       </c>
       <c r="D121">
         <v>3</v>
@@ -9146,7 +9152,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1016</v>
+        <v>994</v>
       </c>
       <c r="D122">
         <v>4</v>
@@ -9154,7 +9160,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1017</v>
+        <v>995</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -9162,7 +9168,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1018</v>
+        <v>996</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -9170,7 +9176,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1019</v>
+        <v>997</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -9178,7 +9184,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1020</v>
+        <v>998</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -9186,7 +9192,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1021</v>
+        <v>999</v>
       </c>
       <c r="D127">
         <v>8</v>
@@ -9197,7 +9203,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1022</v>
+        <v>1000</v>
       </c>
       <c r="D128">
         <v>5</v>
@@ -9208,7 +9214,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1023</v>
+        <v>1001</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -9216,7 +9222,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1024</v>
+        <v>1002</v>
       </c>
       <c r="B130">
         <v>2</v>
@@ -9227,7 +9233,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1025</v>
+        <v>1003</v>
       </c>
       <c r="D131">
         <v>2</v>
@@ -9235,7 +9241,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1026</v>
+        <v>1004</v>
       </c>
       <c r="D132">
         <v>3</v>
@@ -9243,7 +9249,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1027</v>
+        <v>1005</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -9254,7 +9260,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1028</v>
+        <v>1006</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -9262,7 +9268,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1029</v>
+        <v>1007</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -9270,7 +9276,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1030</v>
+        <v>1008</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -9278,7 +9284,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1031</v>
+        <v>1009</v>
       </c>
       <c r="I137">
         <v>1</v>
@@ -9286,7 +9292,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1032</v>
+        <v>1010</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -9294,7 +9300,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1033</v>
+        <v>1011</v>
       </c>
       <c r="D139">
         <v>2</v>
@@ -9302,7 +9308,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1034</v>
+        <v>1012</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -9310,7 +9316,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1035</v>
+        <v>1013</v>
       </c>
       <c r="B141">
         <v>5</v>
@@ -9321,7 +9327,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1036</v>
+        <v>1014</v>
       </c>
       <c r="D142">
         <v>2</v>
@@ -9329,7 +9335,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1037</v>
+        <v>1015</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -9337,12 +9343,12 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1038</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1039</v>
+        <v>1017</v>
       </c>
       <c r="D145">
         <v>3</v>
@@ -9350,7 +9356,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1040</v>
+        <v>1018</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -9358,7 +9364,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -9366,7 +9372,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1042</v>
+        <v>1020</v>
       </c>
       <c r="D148">
         <v>2</v>
@@ -9374,7 +9380,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1043</v>
+        <v>1021</v>
       </c>
       <c r="D149">
         <v>3</v>
@@ -9382,7 +9388,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1044</v>
+        <v>1022</v>
       </c>
       <c r="D150">
         <v>4</v>
@@ -9393,7 +9399,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1045</v>
+        <v>1023</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -9407,7 +9413,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1046</v>
+        <v>1024</v>
       </c>
       <c r="I152">
         <v>1</v>
@@ -9415,7 +9421,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1047</v>
+        <v>1025</v>
       </c>
       <c r="D153">
         <v>6</v>
@@ -9423,7 +9429,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1048</v>
+        <v>1026</v>
       </c>
       <c r="D154">
         <v>3</v>
@@ -9431,7 +9437,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1049</v>
+        <v>1027</v>
       </c>
       <c r="D155">
         <v>8</v>
@@ -9439,7 +9445,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1050</v>
+        <v>1028</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -9447,7 +9453,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1051</v>
+        <v>1029</v>
       </c>
       <c r="D157">
         <v>2</v>
@@ -9455,7 +9461,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1052</v>
+        <v>1030</v>
       </c>
       <c r="D158">
         <v>3</v>
@@ -9463,7 +9469,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1053</v>
+        <v>1031</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -9474,7 +9480,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1054</v>
+        <v>1032</v>
       </c>
       <c r="D160">
         <v>3</v>
@@ -9482,7 +9488,7 @@
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1055</v>
+        <v>1033</v>
       </c>
       <c r="D161">
         <v>2</v>
@@ -9490,7 +9496,7 @@
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1056</v>
+        <v>1034</v>
       </c>
       <c r="D162">
         <v>3</v>
@@ -9498,7 +9504,7 @@
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1057</v>
+        <v>1035</v>
       </c>
       <c r="D163">
         <v>4</v>
@@ -9506,7 +9512,7 @@
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1058</v>
+        <v>1036</v>
       </c>
       <c r="D164">
         <v>8</v>
@@ -9514,7 +9520,7 @@
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1059</v>
+        <v>1037</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -9525,7 +9531,7 @@
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1060</v>
+        <v>1038</v>
       </c>
       <c r="D166">
         <v>3</v>
@@ -9533,7 +9539,7 @@
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1061</v>
+        <v>1039</v>
       </c>
       <c r="D167">
         <v>2</v>
@@ -9541,7 +9547,7 @@
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1062</v>
+        <v>1040</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -9549,7 +9555,7 @@
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1063</v>
+        <v>1041</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -9557,7 +9563,7 @@
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1064</v>
+        <v>1042</v>
       </c>
       <c r="D170">
         <v>5</v>
@@ -9565,7 +9571,7 @@
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1065</v>
+        <v>1043</v>
       </c>
       <c r="B171">
         <v>2</v>
@@ -9576,7 +9582,7 @@
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1066</v>
+        <v>1044</v>
       </c>
       <c r="B172">
         <v>3</v>
@@ -9590,7 +9596,7 @@
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1067</v>
+        <v>1045</v>
       </c>
       <c r="D173">
         <v>5</v>
@@ -9598,7 +9604,7 @@
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1068</v>
+        <v>1046</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -9609,7 +9615,7 @@
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1069</v>
+        <v>1047</v>
       </c>
       <c r="B175">
         <v>4</v>
@@ -9620,7 +9626,7 @@
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1070</v>
+        <v>1048</v>
       </c>
       <c r="D176">
         <v>5</v>
@@ -9628,7 +9634,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1071</v>
+        <v>1049</v>
       </c>
       <c r="B177">
         <v>4</v>
@@ -9639,7 +9645,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1072</v>
+        <v>1050</v>
       </c>
       <c r="D178">
         <v>3</v>
@@ -9650,7 +9656,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1073</v>
+        <v>1051</v>
       </c>
       <c r="B179">
         <v>2</v>
@@ -9664,7 +9670,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1074</v>
+        <v>1052</v>
       </c>
       <c r="B180">
         <v>3</v>
@@ -9681,7 +9687,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1075</v>
+        <v>1053</v>
       </c>
       <c r="B181">
         <v>4</v>
@@ -9698,7 +9704,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1076</v>
+        <v>1054</v>
       </c>
       <c r="D182">
         <v>2</v>
@@ -9709,7 +9715,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1077</v>
+        <v>1055</v>
       </c>
       <c r="D183">
         <v>2</v>
@@ -9717,7 +9723,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1078</v>
+        <v>1056</v>
       </c>
       <c r="D184">
         <v>3</v>
@@ -9725,7 +9731,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1079</v>
+        <v>1057</v>
       </c>
       <c r="D185">
         <v>3</v>
@@ -9733,87 +9739,313 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>104</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>105</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>106</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>107</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>108</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>109</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B203">
+        <v>4</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="K203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -9824,1682 +10056,1477 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC7AE76-5207-2B4B-8203-E570989F039C}">
-  <dimension ref="A2:A335"/>
+  <dimension ref="A43:A335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A50"/>
+      <selection activeCell="A2" sqref="A2:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
     <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
     </row>
     <row r="276" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
     </row>
     <row r="277" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
     </row>
     <row r="280" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
     </row>
     <row r="282" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
     </row>
     <row r="286" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
     </row>
     <row r="291" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
     </row>
     <row r="299" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
     </row>
     <row r="300" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
     </row>
     <row r="301" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
     </row>
     <row r="303" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
     </row>
     <row r="305" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
     </row>
     <row r="306" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
     </row>
     <row r="307" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
     </row>
     <row r="309" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
     </row>
     <row r="310" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
     </row>
     <row r="311" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
     </row>
     <row r="312" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
     </row>
     <row r="315" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
     </row>
     <row r="316" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
     </row>
     <row r="317" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
     </row>
     <row r="318" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
     </row>
     <row r="319" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
     </row>
     <row r="321" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
     </row>
     <row r="323" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
     </row>
     <row r="324" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
     </row>
     <row r="325" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
     </row>
     <row r="327" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
     </row>
     <row r="328" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
     </row>
     <row r="329" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
     </row>
     <row r="330" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
     </row>
     <row r="331" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
     </row>
     <row r="333" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
     </row>
     <row r="334" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
     </row>
     <row r="335" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>

--- a/GroundTruth.xlsx
+++ b/GroundTruth.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suruchi/Documents/MSc Artificial Intelligence/Artificial Intelligence Project/UniversalAdversarialChallenges-AutonomousVehicles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA2F28B-8680-EC4E-928A-EFB12E73D1AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329320C5-63CA-D240-91D9-09E72BDF9142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="17040" activeTab="2" xr2:uid="{E9FA8BCC-3C24-E14A-8C2A-C02BE4E3E8A8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="17040" activeTab="3" xr2:uid="{E9FA8BCC-3C24-E14A-8C2A-C02BE4E3E8A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Art in Surroundings" sheetId="3" r:id="rId1"/>
     <sheet name="Vehicles Art and Textures" sheetId="5" r:id="rId2"/>
     <sheet name="On-road Scenarios" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Street Signs" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="1081">
   <si>
     <t>person</t>
   </si>
@@ -458,288 +459,6 @@
     <t>PH1NJ</t>
   </si>
   <si>
-    <t>A5R2A</t>
-  </si>
-  <si>
-    <t>SH9KC</t>
-  </si>
-  <si>
-    <t>JU1MK</t>
-  </si>
-  <si>
-    <t>IVKA1</t>
-  </si>
-  <si>
-    <t>DAM4J</t>
-  </si>
-  <si>
-    <t>GJLR0</t>
-  </si>
-  <si>
-    <t>SMBCP</t>
-  </si>
-  <si>
-    <t>JC126</t>
-  </si>
-  <si>
-    <t>NA9TI</t>
-  </si>
-  <si>
-    <t>RSNUY</t>
-  </si>
-  <si>
-    <t>A5XYZ</t>
-  </si>
-  <si>
-    <t>IWL4P</t>
-  </si>
-  <si>
-    <t>40LQ6</t>
-  </si>
-  <si>
-    <t>RKSRL</t>
-  </si>
-  <si>
-    <t>486NB</t>
-  </si>
-  <si>
-    <t>IQVJ4</t>
-  </si>
-  <si>
-    <t>CP0O2</t>
-  </si>
-  <si>
-    <t>S8TQK</t>
-  </si>
-  <si>
-    <t>WORSJ</t>
-  </si>
-  <si>
-    <t>FJE9K</t>
-  </si>
-  <si>
-    <t>D5MD2</t>
-  </si>
-  <si>
-    <t>DWYIC</t>
-  </si>
-  <si>
-    <t>WDE3W</t>
-  </si>
-  <si>
-    <t>R6PAU</t>
-  </si>
-  <si>
-    <t>Q9GK3</t>
-  </si>
-  <si>
-    <t>Z88MO</t>
-  </si>
-  <si>
-    <t>R0ABD</t>
-  </si>
-  <si>
-    <t>B08L4</t>
-  </si>
-  <si>
-    <t>8YP2P</t>
-  </si>
-  <si>
-    <t>S7IF4</t>
-  </si>
-  <si>
-    <t>PMIGY</t>
-  </si>
-  <si>
-    <t>EOW3W</t>
-  </si>
-  <si>
-    <t>0T4LY</t>
-  </si>
-  <si>
-    <t>IME8Z</t>
-  </si>
-  <si>
-    <t>GLEVB</t>
-  </si>
-  <si>
-    <t>9RS9G</t>
-  </si>
-  <si>
-    <t>JZN51</t>
-  </si>
-  <si>
-    <t>6T18B</t>
-  </si>
-  <si>
-    <t>QRZUZ</t>
-  </si>
-  <si>
-    <t>QCW96</t>
-  </si>
-  <si>
-    <t>S7PLD</t>
-  </si>
-  <si>
-    <t>N9IVI</t>
-  </si>
-  <si>
-    <t>5DD3X</t>
-  </si>
-  <si>
-    <t>P42ZL</t>
-  </si>
-  <si>
-    <t>4YQ9Z</t>
-  </si>
-  <si>
-    <t>IWT4T</t>
-  </si>
-  <si>
-    <t>GWOHP</t>
-  </si>
-  <si>
-    <t>NJP1M</t>
-  </si>
-  <si>
-    <t>QYI5T</t>
-  </si>
-  <si>
-    <t>EK0Y0</t>
-  </si>
-  <si>
-    <t>K12H1</t>
-  </si>
-  <si>
-    <t>5MWHL</t>
-  </si>
-  <si>
-    <t>ZD5X7</t>
-  </si>
-  <si>
-    <t>PKC6C</t>
-  </si>
-  <si>
-    <t>4M65A</t>
-  </si>
-  <si>
-    <t>TV37X</t>
-  </si>
-  <si>
-    <t>XQ99N</t>
-  </si>
-  <si>
-    <t>ZVNAM</t>
-  </si>
-  <si>
-    <t>IO7EJ</t>
-  </si>
-  <si>
-    <t>RCC85</t>
-  </si>
-  <si>
-    <t>FN3DW</t>
-  </si>
-  <si>
-    <t>LIDVC</t>
-  </si>
-  <si>
-    <t>36QZS</t>
-  </si>
-  <si>
-    <t>3A9XE</t>
-  </si>
-  <si>
-    <t>BBQ19</t>
-  </si>
-  <si>
-    <t>J0REJ</t>
-  </si>
-  <si>
-    <t>72LEF</t>
-  </si>
-  <si>
-    <t>6E7YK</t>
-  </si>
-  <si>
-    <t>AS1AB</t>
-  </si>
-  <si>
-    <t>7235S</t>
-  </si>
-  <si>
-    <t>MCWAQ</t>
-  </si>
-  <si>
-    <t>D5CQY</t>
-  </si>
-  <si>
-    <t>AXL8R</t>
-  </si>
-  <si>
-    <t>ZNPPN</t>
-  </si>
-  <si>
-    <t>EAVTZ</t>
-  </si>
-  <si>
-    <t>NN4T4</t>
-  </si>
-  <si>
-    <t>K9YI6</t>
-  </si>
-  <si>
-    <t>J70Z7</t>
-  </si>
-  <si>
-    <t>TA2BX</t>
-  </si>
-  <si>
-    <t>KO2N7</t>
-  </si>
-  <si>
-    <t>5JMG0</t>
-  </si>
-  <si>
-    <t>FTZ9H</t>
-  </si>
-  <si>
-    <t>YK73N</t>
-  </si>
-  <si>
-    <t>RIWNM</t>
-  </si>
-  <si>
-    <t>HGNN4</t>
-  </si>
-  <si>
-    <t>LYX97</t>
-  </si>
-  <si>
-    <t>HKSG9</t>
-  </si>
-  <si>
-    <t>699AF</t>
-  </si>
-  <si>
-    <t>OVM59</t>
-  </si>
-  <si>
-    <t>0XZEI</t>
-  </si>
-  <si>
-    <t>JKFNT</t>
-  </si>
-  <si>
-    <t>DQOBW</t>
-  </si>
-  <si>
-    <t>Y4YOW</t>
-  </si>
-  <si>
-    <t>VBYLT</t>
-  </si>
-  <si>
     <t>Y5XGF</t>
   </si>
   <si>
@@ -3279,6 +2998,288 @@
   </si>
   <si>
     <t>NFOLA.jpg</t>
+  </si>
+  <si>
+    <t>A5R2A.jpg</t>
+  </si>
+  <si>
+    <t>SH9KC.jpeg</t>
+  </si>
+  <si>
+    <t>JU1MK.jpg</t>
+  </si>
+  <si>
+    <t>IVKA1.jpg</t>
+  </si>
+  <si>
+    <t>DAM4J.jpg</t>
+  </si>
+  <si>
+    <t>GJLR0.jpg</t>
+  </si>
+  <si>
+    <t>SMBCP.jpg</t>
+  </si>
+  <si>
+    <t>JC126.jpg</t>
+  </si>
+  <si>
+    <t>NA9TI.jpg</t>
+  </si>
+  <si>
+    <t>RSNUY.jpg</t>
+  </si>
+  <si>
+    <t>A5XYZ.jpg</t>
+  </si>
+  <si>
+    <t>IWL4P.jpg</t>
+  </si>
+  <si>
+    <t>40LQ6.jpg</t>
+  </si>
+  <si>
+    <t>RKSRL.jpg</t>
+  </si>
+  <si>
+    <t>486NB.jpg</t>
+  </si>
+  <si>
+    <t>IQVJ4.jpg</t>
+  </si>
+  <si>
+    <t>CP0O2.jpeg</t>
+  </si>
+  <si>
+    <t>S8TQK.jpg</t>
+  </si>
+  <si>
+    <t>WORSJ.jpg</t>
+  </si>
+  <si>
+    <t>FJE9K.jpg</t>
+  </si>
+  <si>
+    <t>D5MD2.jpg</t>
+  </si>
+  <si>
+    <t>DWYIC.jpeg</t>
+  </si>
+  <si>
+    <t>WDE3W.jpg</t>
+  </si>
+  <si>
+    <t>R6PAU.jpg</t>
+  </si>
+  <si>
+    <t>Q9GK3.jpg</t>
+  </si>
+  <si>
+    <t>Z88MO.jpg</t>
+  </si>
+  <si>
+    <t>R0ABD.jpg</t>
+  </si>
+  <si>
+    <t>B08L4.jpg</t>
+  </si>
+  <si>
+    <t>8YP2P.jpg</t>
+  </si>
+  <si>
+    <t>S7IF4.jpg</t>
+  </si>
+  <si>
+    <t>PMIGY.jpg</t>
+  </si>
+  <si>
+    <t>EOW3W.jpg</t>
+  </si>
+  <si>
+    <t>0T4LY.jpg</t>
+  </si>
+  <si>
+    <t>IME8Z.jpg</t>
+  </si>
+  <si>
+    <t>GLEVB.jpg</t>
+  </si>
+  <si>
+    <t>9RS9G.jpg</t>
+  </si>
+  <si>
+    <t>JZN51.jpg</t>
+  </si>
+  <si>
+    <t>6T18B.jpg</t>
+  </si>
+  <si>
+    <t>QRZUZ.jpg</t>
+  </si>
+  <si>
+    <t>QCW96.jpg</t>
+  </si>
+  <si>
+    <t>S7PLD.jpg</t>
+  </si>
+  <si>
+    <t>N9IVI.jpg</t>
+  </si>
+  <si>
+    <t>5DD3X.jpg</t>
+  </si>
+  <si>
+    <t>P42ZL.jpg</t>
+  </si>
+  <si>
+    <t>4YQ9Z.jpg</t>
+  </si>
+  <si>
+    <t>IWT4T.jpg</t>
+  </si>
+  <si>
+    <t>GWOHP.jpg</t>
+  </si>
+  <si>
+    <t>NJP1M.jpg</t>
+  </si>
+  <si>
+    <t>QYI5T.jpg</t>
+  </si>
+  <si>
+    <t>EK0Y0.jpg</t>
+  </si>
+  <si>
+    <t>K12H1.jpg</t>
+  </si>
+  <si>
+    <t>5MWHL.jpg</t>
+  </si>
+  <si>
+    <t>ZD5X7.jpg</t>
+  </si>
+  <si>
+    <t>PKC6C.jpg</t>
+  </si>
+  <si>
+    <t>4M65A.jpg</t>
+  </si>
+  <si>
+    <t>TV37X.jpg</t>
+  </si>
+  <si>
+    <t>XQ99N.jpg</t>
+  </si>
+  <si>
+    <t>ZVNAM.jpg</t>
+  </si>
+  <si>
+    <t>IO7EJ.jpg</t>
+  </si>
+  <si>
+    <t>RCC85.jpg</t>
+  </si>
+  <si>
+    <t>FN3DW.jpg</t>
+  </si>
+  <si>
+    <t>LIDVC.jpg</t>
+  </si>
+  <si>
+    <t>36QZS.jpg</t>
+  </si>
+  <si>
+    <t>3A9XE.jpg</t>
+  </si>
+  <si>
+    <t>BBQ19.jpg</t>
+  </si>
+  <si>
+    <t>J0REJ.jpg</t>
+  </si>
+  <si>
+    <t>72LEF.jpg</t>
+  </si>
+  <si>
+    <t>6E7YK.jpg</t>
+  </si>
+  <si>
+    <t>AS1AB.jpg</t>
+  </si>
+  <si>
+    <t>7235S.jpg</t>
+  </si>
+  <si>
+    <t>MCWAQ.jpg</t>
+  </si>
+  <si>
+    <t>D5CQY.jpg</t>
+  </si>
+  <si>
+    <t>AXL8R.jpg</t>
+  </si>
+  <si>
+    <t>ZNPPN.jpg</t>
+  </si>
+  <si>
+    <t>EAVTZ.jpg</t>
+  </si>
+  <si>
+    <t>NN4T4.jpg</t>
+  </si>
+  <si>
+    <t>K9YI6.jpg</t>
+  </si>
+  <si>
+    <t>J70Z7.jpg</t>
+  </si>
+  <si>
+    <t>TA2BX.jpg</t>
+  </si>
+  <si>
+    <t>KO2N7.jpg</t>
+  </si>
+  <si>
+    <t>5JMG0.jpg</t>
+  </si>
+  <si>
+    <t>FTZ9H.jpg</t>
+  </si>
+  <si>
+    <t>YK73N.jpg</t>
+  </si>
+  <si>
+    <t>RIWNM.jpg</t>
+  </si>
+  <si>
+    <t>HGNN4.jpg</t>
+  </si>
+  <si>
+    <t>LYX97.jpg</t>
+  </si>
+  <si>
+    <t>HKSG9.jpg</t>
+  </si>
+  <si>
+    <t>699AF.jpg</t>
+  </si>
+  <si>
+    <t>OVM59.jpg</t>
+  </si>
+  <si>
+    <t>0XZEI.jpg</t>
+  </si>
+  <si>
+    <t>JKFNT.jpg</t>
+  </si>
+  <si>
+    <t>DQOBW.jpg</t>
+  </si>
+  <si>
+    <t>Y4YOW.jpg</t>
+  </si>
+  <si>
+    <t>VBYLT.jpg</t>
   </si>
 </sst>
 </file>
@@ -3320,9 +3321,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3648,7 +3650,7 @@
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>561</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3893,7 +3895,7 @@
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>433</v>
+        <v>339</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -3901,7 +3903,7 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>434</v>
+        <v>340</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3909,25 +3911,25 @@
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>435</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
-        <v>436</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>438</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>439</v>
+        <v>345</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -3935,17 +3937,17 @@
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>440</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>441</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>442</v>
+        <v>348</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3953,32 +3955,32 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>443</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>444</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>445</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>446</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>447</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>448</v>
+        <v>354</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -3986,12 +3988,12 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>449</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>450</v>
+        <v>356</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3999,12 +4001,12 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>451</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>452</v>
+        <v>358</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -4012,12 +4014,12 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>454</v>
+        <v>360</v>
       </c>
       <c r="B22">
         <v>9</v>
@@ -4025,12 +4027,12 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>455</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>456</v>
+        <v>362</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4038,7 +4040,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>457</v>
+        <v>363</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -4046,7 +4048,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>458</v>
+        <v>364</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -4054,7 +4056,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>459</v>
+        <v>365</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -4062,27 +4064,27 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>460</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>461</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>462</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>463</v>
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>464</v>
+        <v>370</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -4090,22 +4092,22 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>465</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>466</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>467</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>468</v>
+        <v>374</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4119,17 +4121,17 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>469</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>470</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>471</v>
+        <v>377</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4137,72 +4139,72 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>472</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>473</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>474</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>475</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>476</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>477</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>478</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>479</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>480</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>481</v>
+        <v>387</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>482</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>483</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>484</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>485</v>
+        <v>391</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4210,162 +4212,162 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>486</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>487</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>488</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>489</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>490</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>491</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>492</v>
+        <v>398</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>493</v>
+        <v>399</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>494</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>495</v>
+        <v>401</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>496</v>
+        <v>402</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>497</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>498</v>
+        <v>404</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>499</v>
+        <v>405</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>500</v>
+        <v>406</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>501</v>
+        <v>407</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>502</v>
+        <v>408</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>503</v>
+        <v>409</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>504</v>
+        <v>410</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>505</v>
+        <v>411</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>506</v>
+        <v>412</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>508</v>
+        <v>414</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>509</v>
+        <v>415</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>510</v>
+        <v>416</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>511</v>
+        <v>417</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>512</v>
+        <v>418</v>
       </c>
     </row>
     <row r="81" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>513</v>
+        <v>419</v>
       </c>
     </row>
     <row r="82" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>514</v>
+        <v>420</v>
       </c>
     </row>
     <row r="83" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>515</v>
+        <v>421</v>
       </c>
     </row>
     <row r="84" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>516</v>
+        <v>422</v>
       </c>
     </row>
     <row r="85" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>517</v>
+        <v>423</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -4373,7 +4375,7 @@
     </row>
     <row r="86" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>518</v>
+        <v>424</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4381,22 +4383,22 @@
     </row>
     <row r="87" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>519</v>
+        <v>425</v>
       </c>
     </row>
     <row r="88" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>520</v>
+        <v>426</v>
       </c>
     </row>
     <row r="89" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>521</v>
+        <v>427</v>
       </c>
     </row>
     <row r="90" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>522</v>
+        <v>428</v>
       </c>
       <c r="BH90">
         <v>2</v>
@@ -4404,22 +4406,22 @@
     </row>
     <row r="91" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>523</v>
+        <v>429</v>
       </c>
     </row>
     <row r="92" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>524</v>
+        <v>430</v>
       </c>
     </row>
     <row r="93" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>525</v>
+        <v>431</v>
       </c>
     </row>
     <row r="94" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>526</v>
+        <v>432</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -4427,27 +4429,27 @@
     </row>
     <row r="95" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>527</v>
+        <v>433</v>
       </c>
     </row>
     <row r="96" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>528</v>
+        <v>434</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>529</v>
+        <v>435</v>
       </c>
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>530</v>
+        <v>436</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>531</v>
+        <v>437</v>
       </c>
       <c r="B99">
         <v>7</v>
@@ -4455,17 +4457,17 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>532</v>
+        <v>438</v>
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>533</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>534</v>
+        <v>440</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -4473,12 +4475,12 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>535</v>
+        <v>441</v>
       </c>
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>536</v>
+        <v>442</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -4489,17 +4491,17 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>537</v>
+        <v>443</v>
       </c>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>538</v>
+        <v>444</v>
       </c>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>539</v>
+        <v>445</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4507,27 +4509,27 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>540</v>
+        <v>446</v>
       </c>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>541</v>
+        <v>447</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>542</v>
+        <v>448</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>543</v>
+        <v>449</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>544</v>
+        <v>450</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -4535,92 +4537,92 @@
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>545</v>
+        <v>451</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>546</v>
+        <v>452</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>547</v>
+        <v>453</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>548</v>
+        <v>454</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>549</v>
+        <v>455</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>550</v>
+        <v>456</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>551</v>
+        <v>457</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>552</v>
+        <v>458</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>553</v>
+        <v>459</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>554</v>
+        <v>460</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>555</v>
+        <v>461</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>556</v>
+        <v>462</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>557</v>
+        <v>463</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>558</v>
+        <v>464</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>559</v>
+        <v>465</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>560</v>
+        <v>466</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>601</v>
+        <v>507</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>602</v>
+        <v>508</v>
       </c>
       <c r="B130">
         <v>2</v>
@@ -4628,22 +4630,22 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>603</v>
+        <v>509</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>604</v>
+        <v>510</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>605</v>
+        <v>511</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>606</v>
+        <v>512</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -4651,37 +4653,37 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>607</v>
+        <v>513</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>608</v>
+        <v>514</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>609</v>
+        <v>515</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>610</v>
+        <v>516</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>611</v>
+        <v>517</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>612</v>
+        <v>518</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>613</v>
+        <v>519</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -4689,22 +4691,22 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>614</v>
+        <v>520</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>615</v>
+        <v>521</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>616</v>
+        <v>522</v>
       </c>
     </row>
     <row r="145" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>617</v>
+        <v>523</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -4715,22 +4717,22 @@
     </row>
     <row r="146" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>618</v>
+        <v>524</v>
       </c>
     </row>
     <row r="147" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>619</v>
+        <v>525</v>
       </c>
     </row>
     <row r="148" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>620</v>
+        <v>526</v>
       </c>
     </row>
     <row r="149" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>621</v>
+        <v>527</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -4738,42 +4740,42 @@
     </row>
     <row r="150" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>622</v>
+        <v>528</v>
       </c>
     </row>
     <row r="151" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>623</v>
+        <v>529</v>
       </c>
     </row>
     <row r="152" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>624</v>
+        <v>530</v>
       </c>
     </row>
     <row r="153" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>625</v>
+        <v>531</v>
       </c>
     </row>
     <row r="154" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>626</v>
+        <v>532</v>
       </c>
     </row>
     <row r="155" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>627</v>
+        <v>533</v>
       </c>
     </row>
     <row r="156" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>628</v>
+        <v>534</v>
       </c>
     </row>
     <row r="157" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>629</v>
+        <v>535</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -4781,67 +4783,67 @@
     </row>
     <row r="158" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>630</v>
+        <v>536</v>
       </c>
     </row>
     <row r="159" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>631</v>
+        <v>537</v>
       </c>
     </row>
     <row r="160" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>632</v>
+        <v>538</v>
       </c>
     </row>
     <row r="161" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>633</v>
+        <v>539</v>
       </c>
     </row>
     <row r="162" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>634</v>
+        <v>540</v>
       </c>
     </row>
     <row r="163" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>635</v>
+        <v>541</v>
       </c>
     </row>
     <row r="164" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>636</v>
+        <v>542</v>
       </c>
     </row>
     <row r="165" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>637</v>
+        <v>543</v>
       </c>
     </row>
     <row r="166" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>638</v>
+        <v>544</v>
       </c>
     </row>
     <row r="167" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>639</v>
+        <v>545</v>
       </c>
     </row>
     <row r="168" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>640</v>
+        <v>546</v>
       </c>
     </row>
     <row r="169" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>641</v>
+        <v>547</v>
       </c>
     </row>
     <row r="170" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>642</v>
+        <v>548</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -4849,27 +4851,27 @@
     </row>
     <row r="171" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>643</v>
+        <v>549</v>
       </c>
     </row>
     <row r="172" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>644</v>
+        <v>550</v>
       </c>
     </row>
     <row r="173" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>645</v>
+        <v>551</v>
       </c>
     </row>
     <row r="174" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>646</v>
+        <v>552</v>
       </c>
     </row>
     <row r="175" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>647</v>
+        <v>553</v>
       </c>
       <c r="BH175">
         <v>4</v>
@@ -4877,62 +4879,62 @@
     </row>
     <row r="176" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>648</v>
+        <v>554</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>649</v>
+        <v>555</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>650</v>
+        <v>556</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>651</v>
+        <v>557</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>652</v>
+        <v>558</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>653</v>
+        <v>559</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>654</v>
+        <v>560</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>655</v>
+        <v>561</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>656</v>
+        <v>562</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>657</v>
+        <v>563</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>658</v>
+        <v>564</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>659</v>
+        <v>565</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -4940,17 +4942,17 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>660</v>
+        <v>566</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>661</v>
+        <v>567</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>662</v>
+        <v>568</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -4958,17 +4960,17 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>663</v>
+        <v>569</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>664</v>
+        <v>570</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>665</v>
+        <v>571</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -4976,17 +4978,17 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>666</v>
+        <v>572</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>667</v>
+        <v>573</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>668</v>
+        <v>574</v>
       </c>
       <c r="B196">
         <v>9</v>
@@ -4994,7 +4996,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>669</v>
+        <v>575</v>
       </c>
       <c r="B197">
         <v>2</v>
@@ -5002,27 +5004,27 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>670</v>
+        <v>576</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>671</v>
+        <v>577</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>672</v>
+        <v>578</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>673</v>
+        <v>579</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>674</v>
+        <v>580</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -5030,22 +5032,22 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>675</v>
+        <v>581</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>676</v>
+        <v>582</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>677</v>
+        <v>583</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>678</v>
+        <v>584</v>
       </c>
       <c r="K206">
         <v>2</v>
@@ -5053,7 +5055,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>679</v>
+        <v>585</v>
       </c>
       <c r="K207">
         <v>2</v>
@@ -5061,12 +5063,12 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>680</v>
+        <v>586</v>
       </c>
     </row>
     <row r="209" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>681</v>
+        <v>587</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -5074,17 +5076,17 @@
     </row>
     <row r="210" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>682</v>
+        <v>588</v>
       </c>
     </row>
     <row r="211" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>683</v>
+        <v>589</v>
       </c>
     </row>
     <row r="212" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>684</v>
+        <v>590</v>
       </c>
       <c r="D212">
         <v>2</v>
@@ -5092,22 +5094,22 @@
     </row>
     <row r="213" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>685</v>
+        <v>591</v>
       </c>
     </row>
     <row r="214" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>686</v>
+        <v>592</v>
       </c>
     </row>
     <row r="215" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>687</v>
+        <v>593</v>
       </c>
     </row>
     <row r="216" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>688</v>
+        <v>594</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -5118,17 +5120,17 @@
     </row>
     <row r="217" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>689</v>
+        <v>595</v>
       </c>
     </row>
     <row r="218" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>690</v>
+        <v>596</v>
       </c>
     </row>
     <row r="219" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>691</v>
+        <v>597</v>
       </c>
       <c r="O219">
         <v>1</v>
@@ -5136,7 +5138,7 @@
     </row>
     <row r="220" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>692</v>
+        <v>598</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -5144,7 +5146,7 @@
     </row>
     <row r="221" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>843</v>
+        <v>749</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -5152,32 +5154,32 @@
     </row>
     <row r="222" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>693</v>
+        <v>599</v>
       </c>
     </row>
     <row r="223" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>854</v>
+        <v>760</v>
       </c>
     </row>
     <row r="224" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>855</v>
+        <v>761</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>856</v>
+        <v>762</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>857</v>
+        <v>763</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1058</v>
+        <v>964</v>
       </c>
       <c r="D227">
         <v>6</v>
@@ -5257,7 +5259,7 @@
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>561</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5502,7 +5504,7 @@
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>562</v>
+        <v>468</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -5510,7 +5512,7 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>563</v>
+        <v>469</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5518,7 +5520,7 @@
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>564</v>
+        <v>470</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -5526,7 +5528,7 @@
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>565</v>
+        <v>471</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -5534,7 +5536,7 @@
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>566</v>
+        <v>472</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5542,7 +5544,7 @@
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>567</v>
+        <v>473</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5556,7 +5558,7 @@
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>569</v>
+        <v>475</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -5567,7 +5569,7 @@
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>570</v>
+        <v>476</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5578,7 +5580,7 @@
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>571</v>
+        <v>477</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5589,7 +5591,7 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>572</v>
+        <v>478</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5597,7 +5599,7 @@
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>573</v>
+        <v>479</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5605,7 +5607,7 @@
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>574</v>
+        <v>480</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -5616,7 +5618,7 @@
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>575</v>
+        <v>481</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -5624,7 +5626,7 @@
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>576</v>
+        <v>482</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -5632,7 +5634,7 @@
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>577</v>
+        <v>483</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -5643,7 +5645,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>578</v>
+        <v>484</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5651,7 +5653,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>579</v>
+        <v>485</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5659,7 +5661,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>580</v>
+        <v>486</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -5670,7 +5672,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>581</v>
+        <v>487</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -5681,7 +5683,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>582</v>
+        <v>488</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -5692,7 +5694,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>583</v>
+        <v>489</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -5700,7 +5702,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>584</v>
+        <v>490</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -5711,7 +5713,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>585</v>
+        <v>491</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -5719,7 +5721,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>586</v>
+        <v>492</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -5727,7 +5729,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>587</v>
+        <v>493</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -5741,7 +5743,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>588</v>
+        <v>494</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -5752,7 +5754,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>589</v>
+        <v>495</v>
       </c>
       <c r="B28">
         <v>13</v>
@@ -5763,7 +5765,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>590</v>
+        <v>496</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -5774,7 +5776,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>591</v>
+        <v>497</v>
       </c>
       <c r="B30">
         <v>9</v>
@@ -5785,7 +5787,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>592</v>
+        <v>498</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -5796,7 +5798,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>593</v>
+        <v>499</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -5807,7 +5809,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="B33">
         <v>9</v>
@@ -5818,7 +5820,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>595</v>
+        <v>501</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -5829,7 +5831,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>596</v>
+        <v>502</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -5840,7 +5842,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>597</v>
+        <v>503</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -5851,7 +5853,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>598</v>
+        <v>504</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -5859,7 +5861,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>599</v>
+        <v>505</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -5870,7 +5872,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>600</v>
+        <v>506</v>
       </c>
       <c r="B39">
         <v>10</v>
@@ -5884,7 +5886,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>694</v>
+        <v>600</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -5895,7 +5897,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>695</v>
+        <v>601</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -5903,7 +5905,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>696</v>
+        <v>602</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -5911,7 +5913,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>697</v>
+        <v>603</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -5919,7 +5921,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>698</v>
+        <v>604</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -5927,7 +5929,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>699</v>
+        <v>605</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -5938,7 +5940,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>700</v>
+        <v>606</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -5949,7 +5951,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>701</v>
+        <v>607</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -5960,7 +5962,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>702</v>
+        <v>608</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -5968,7 +5970,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>703</v>
+        <v>609</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -5976,7 +5978,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>704</v>
+        <v>610</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -5987,7 +5989,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>705</v>
+        <v>611</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -5998,7 +6000,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>706</v>
+        <v>612</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -6006,7 +6008,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>707</v>
+        <v>613</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -6017,7 +6019,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>708</v>
+        <v>614</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -6028,7 +6030,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>709</v>
+        <v>615</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -6039,7 +6041,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>710</v>
+        <v>616</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -6047,7 +6049,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>711</v>
+        <v>617</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -6055,7 +6057,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>712</v>
+        <v>618</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -6066,7 +6068,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>713</v>
+        <v>619</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6074,7 +6076,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>714</v>
+        <v>620</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6082,7 +6084,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>715</v>
+        <v>621</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6090,7 +6092,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>717</v>
+        <v>623</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -6101,7 +6103,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>716</v>
+        <v>622</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6109,7 +6111,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>718</v>
+        <v>624</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -6117,7 +6119,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>719</v>
+        <v>625</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -6128,7 +6130,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>720</v>
+        <v>626</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6136,7 +6138,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>721</v>
+        <v>627</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -6144,7 +6146,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>722</v>
+        <v>628</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -6152,7 +6154,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>723</v>
+        <v>629</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6160,7 +6162,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>724</v>
+        <v>630</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6168,7 +6170,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>725</v>
+        <v>631</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -6176,7 +6178,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>726</v>
+        <v>632</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -6184,7 +6186,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>727</v>
+        <v>633</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -6198,7 +6200,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>728</v>
+        <v>634</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -6209,7 +6211,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>729</v>
+        <v>635</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -6217,7 +6219,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>730</v>
+        <v>636</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -6231,7 +6233,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>731</v>
+        <v>637</v>
       </c>
       <c r="B77">
         <v>3</v>
@@ -6245,7 +6247,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>732</v>
+        <v>638</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -6253,7 +6255,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>733</v>
+        <v>639</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -6261,7 +6263,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>734</v>
+        <v>640</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -6269,7 +6271,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>735</v>
+        <v>641</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -6277,7 +6279,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>736</v>
+        <v>642</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -6285,7 +6287,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>737</v>
+        <v>643</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -6293,7 +6295,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>738</v>
+        <v>644</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -6301,7 +6303,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>739</v>
+        <v>645</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -6315,7 +6317,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>740</v>
+        <v>646</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -6326,7 +6328,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>741</v>
+        <v>647</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -6334,7 +6336,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>742</v>
+        <v>648</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -6348,7 +6350,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>743</v>
+        <v>649</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -6356,7 +6358,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>744</v>
+        <v>650</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -6367,7 +6369,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>745</v>
+        <v>651</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -6378,7 +6380,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>746</v>
+        <v>652</v>
       </c>
       <c r="E92">
         <v>3</v>
@@ -6386,7 +6388,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>747</v>
+        <v>653</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -6394,7 +6396,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>748</v>
+        <v>654</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -6405,7 +6407,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>749</v>
+        <v>655</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -6413,7 +6415,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>750</v>
+        <v>656</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -6421,7 +6423,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>751</v>
+        <v>657</v>
       </c>
       <c r="B97">
         <v>3</v>
@@ -6432,7 +6434,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>752</v>
+        <v>658</v>
       </c>
       <c r="D98">
         <v>3</v>
@@ -6443,7 +6445,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>753</v>
+        <v>659</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -6451,7 +6453,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>754</v>
+        <v>660</v>
       </c>
       <c r="B100">
         <v>4</v>
@@ -6462,7 +6464,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>755</v>
+        <v>661</v>
       </c>
       <c r="B101">
         <v>3</v>
@@ -6473,7 +6475,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>756</v>
+        <v>662</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -6481,7 +6483,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>757</v>
+        <v>663</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -6492,7 +6494,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>758</v>
+        <v>664</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -6500,7 +6502,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>759</v>
+        <v>665</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -6511,12 +6513,12 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>760</v>
+        <v>666</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>761</v>
+        <v>667</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -6524,7 +6526,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>762</v>
+        <v>668</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -6535,7 +6537,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>763</v>
+        <v>669</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -6549,7 +6551,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>764</v>
+        <v>670</v>
       </c>
       <c r="B110">
         <v>10</v>
@@ -6560,7 +6562,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>765</v>
+        <v>671</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -6568,7 +6570,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>766</v>
+        <v>672</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -6576,7 +6578,7 @@
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>767</v>
+        <v>673</v>
       </c>
       <c r="B113">
         <v>6</v>
@@ -6587,7 +6589,7 @@
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>768</v>
+        <v>674</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -6601,7 +6603,7 @@
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>769</v>
+        <v>675</v>
       </c>
       <c r="B115">
         <v>8</v>
@@ -6612,7 +6614,7 @@
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>770</v>
+        <v>676</v>
       </c>
       <c r="B116">
         <v>8</v>
@@ -6626,7 +6628,7 @@
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>771</v>
+        <v>677</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -6634,7 +6636,7 @@
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>772</v>
+        <v>678</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -6645,7 +6647,7 @@
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>773</v>
+        <v>679</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -6656,7 +6658,7 @@
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>774</v>
+        <v>680</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -6667,7 +6669,7 @@
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>775</v>
+        <v>681</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -6678,7 +6680,7 @@
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>776</v>
+        <v>682</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -6686,7 +6688,7 @@
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>777</v>
+        <v>683</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -6700,7 +6702,7 @@
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>778</v>
+        <v>684</v>
       </c>
       <c r="B124">
         <v>5</v>
@@ -6711,7 +6713,7 @@
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>779</v>
+        <v>685</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -6722,7 +6724,7 @@
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>780</v>
+        <v>686</v>
       </c>
       <c r="B126">
         <v>7</v>
@@ -6733,7 +6735,7 @@
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>781</v>
+        <v>687</v>
       </c>
       <c r="B127">
         <v>5</v>
@@ -6744,7 +6746,7 @@
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>782</v>
+        <v>688</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -6755,7 +6757,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>783</v>
+        <v>689</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -6763,7 +6765,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>784</v>
+        <v>690</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -6771,7 +6773,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>785</v>
+        <v>691</v>
       </c>
       <c r="D131">
         <v>2</v>
@@ -6782,7 +6784,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>786</v>
+        <v>692</v>
       </c>
       <c r="B132">
         <v>7</v>
@@ -6793,7 +6795,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>787</v>
+        <v>693</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -6804,7 +6806,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>788</v>
+        <v>694</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -6812,7 +6814,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>789</v>
+        <v>695</v>
       </c>
       <c r="B135">
         <v>3</v>
@@ -6823,7 +6825,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>790</v>
+        <v>696</v>
       </c>
       <c r="B136">
         <v>2</v>
@@ -6834,7 +6836,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>791</v>
+        <v>697</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -6842,7 +6844,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>792</v>
+        <v>698</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -6850,7 +6852,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>793</v>
+        <v>699</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -6858,7 +6860,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>794</v>
+        <v>700</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -6866,7 +6868,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>795</v>
+        <v>701</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -6874,7 +6876,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>796</v>
+        <v>702</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -6882,7 +6884,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>797</v>
+        <v>703</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -6890,7 +6892,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>798</v>
+        <v>704</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -6898,7 +6900,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>799</v>
+        <v>705</v>
       </c>
       <c r="D145">
         <v>2</v>
@@ -6909,7 +6911,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>800</v>
+        <v>706</v>
       </c>
       <c r="B146">
         <v>3</v>
@@ -6920,7 +6922,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>801</v>
+        <v>707</v>
       </c>
       <c r="D147">
         <v>7</v>
@@ -6928,7 +6930,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>802</v>
+        <v>708</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -6936,7 +6938,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>803</v>
+        <v>709</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -6947,7 +6949,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>804</v>
+        <v>710</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -6955,7 +6957,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>807</v>
+        <v>713</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -6966,12 +6968,12 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>806</v>
+        <v>712</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>808</v>
+        <v>714</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -6982,7 +6984,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>809</v>
+        <v>715</v>
       </c>
       <c r="B154">
         <v>13</v>
@@ -6993,7 +6995,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>810</v>
+        <v>716</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -7004,7 +7006,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>811</v>
+        <v>717</v>
       </c>
       <c r="D156">
         <v>3</v>
@@ -7012,7 +7014,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>812</v>
+        <v>718</v>
       </c>
       <c r="B157">
         <v>4</v>
@@ -7023,7 +7025,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>813</v>
+        <v>719</v>
       </c>
       <c r="D158">
         <v>3</v>
@@ -7031,7 +7033,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>814</v>
+        <v>720</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -7039,7 +7041,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>815</v>
+        <v>721</v>
       </c>
       <c r="D160">
         <v>2</v>
@@ -7047,7 +7049,7 @@
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>816</v>
+        <v>722</v>
       </c>
       <c r="D161">
         <v>3</v>
@@ -7055,7 +7057,7 @@
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>817</v>
+        <v>723</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -7066,7 +7068,7 @@
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>818</v>
+        <v>724</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -7074,7 +7076,7 @@
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>819</v>
+        <v>725</v>
       </c>
       <c r="B164">
         <v>5</v>
@@ -7085,7 +7087,7 @@
     </row>
     <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>820</v>
+        <v>726</v>
       </c>
       <c r="B165">
         <v>4</v>
@@ -7099,7 +7101,7 @@
     </row>
     <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>821</v>
+        <v>727</v>
       </c>
       <c r="D166">
         <v>7</v>
@@ -7107,7 +7109,7 @@
     </row>
     <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>822</v>
+        <v>728</v>
       </c>
       <c r="B167">
         <v>3</v>
@@ -7121,7 +7123,7 @@
     </row>
     <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>823</v>
+        <v>729</v>
       </c>
       <c r="D168">
         <v>3</v>
@@ -7132,7 +7134,7 @@
     </row>
     <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>824</v>
+        <v>730</v>
       </c>
       <c r="B169">
         <v>7</v>
@@ -7146,7 +7148,7 @@
     </row>
     <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>825</v>
+        <v>731</v>
       </c>
       <c r="B170">
         <v>6</v>
@@ -7163,7 +7165,7 @@
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>826</v>
+        <v>732</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -7171,7 +7173,7 @@
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>827</v>
+        <v>733</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -7182,7 +7184,7 @@
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>828</v>
+        <v>734</v>
       </c>
       <c r="D173">
         <v>2</v>
@@ -7190,7 +7192,7 @@
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>829</v>
+        <v>735</v>
       </c>
       <c r="D174">
         <v>3</v>
@@ -7198,7 +7200,7 @@
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>830</v>
+        <v>736</v>
       </c>
       <c r="D175">
         <v>3</v>
@@ -7206,7 +7208,7 @@
     </row>
     <row r="176" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>832</v>
+        <v>738</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -7214,7 +7216,7 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>833</v>
+        <v>739</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -7225,7 +7227,7 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>834</v>
+        <v>740</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -7233,7 +7235,7 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>835</v>
+        <v>741</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -7241,7 +7243,7 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>836</v>
+        <v>742</v>
       </c>
       <c r="D180">
         <v>2</v>
@@ -7249,7 +7251,7 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>837</v>
+        <v>743</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -7257,7 +7259,7 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>838</v>
+        <v>744</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -7265,7 +7267,7 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>839</v>
+        <v>745</v>
       </c>
       <c r="B183">
         <v>3</v>
@@ -7279,7 +7281,7 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>840</v>
+        <v>746</v>
       </c>
       <c r="I184">
         <v>1</v>
@@ -7287,7 +7289,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>841</v>
+        <v>747</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -7295,7 +7297,7 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>842</v>
+        <v>748</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -7303,7 +7305,7 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>844</v>
+        <v>750</v>
       </c>
       <c r="D187">
         <v>3</v>
@@ -7311,7 +7313,7 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>845</v>
+        <v>751</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -7319,7 +7321,7 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>846</v>
+        <v>752</v>
       </c>
       <c r="D189">
         <v>3</v>
@@ -7327,7 +7329,7 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>847</v>
+        <v>753</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -7335,7 +7337,7 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>848</v>
+        <v>754</v>
       </c>
       <c r="B191">
         <v>2</v>
@@ -7346,7 +7348,7 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>849</v>
+        <v>755</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -7357,7 +7359,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>850</v>
+        <v>756</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -7368,7 +7370,7 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>851</v>
+        <v>757</v>
       </c>
       <c r="D194">
         <v>2</v>
@@ -7376,7 +7378,7 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>852</v>
+        <v>758</v>
       </c>
       <c r="I195">
         <v>1</v>
@@ -7384,7 +7386,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>853</v>
+        <v>759</v>
       </c>
       <c r="D196">
         <v>2</v>
@@ -7392,7 +7394,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>858</v>
+        <v>764</v>
       </c>
       <c r="I197">
         <v>1</v>
@@ -7400,7 +7402,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>859</v>
+        <v>765</v>
       </c>
       <c r="I198">
         <v>1</v>
@@ -7408,7 +7410,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>860</v>
+        <v>766</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -7416,7 +7418,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>861</v>
+        <v>767</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -7424,7 +7426,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>862</v>
+        <v>768</v>
       </c>
       <c r="D201">
         <v>2</v>
@@ -7432,7 +7434,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>863</v>
+        <v>769</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -7440,7 +7442,7 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>864</v>
+        <v>770</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -7448,7 +7450,7 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>865</v>
+        <v>771</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -7456,7 +7458,7 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>866</v>
+        <v>772</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -7464,7 +7466,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>867</v>
+        <v>773</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -7472,7 +7474,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>868</v>
+        <v>774</v>
       </c>
       <c r="E207">
         <v>3</v>
@@ -7480,7 +7482,7 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>869</v>
+        <v>775</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -7488,7 +7490,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>870</v>
+        <v>776</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -7496,7 +7498,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>871</v>
+        <v>777</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -7504,7 +7506,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>986</v>
+        <v>892</v>
       </c>
       <c r="B211">
         <v>4</v>
@@ -7515,7 +7517,7 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>987</v>
+        <v>893</v>
       </c>
       <c r="I212">
         <v>1</v>
@@ -7523,7 +7525,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>988</v>
+        <v>894</v>
       </c>
       <c r="B213">
         <v>8</v>
@@ -7534,7 +7536,7 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>989</v>
+        <v>895</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -7545,7 +7547,7 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>990</v>
+        <v>896</v>
       </c>
       <c r="B215">
         <v>4</v>
@@ -7556,7 +7558,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1059</v>
+        <v>965</v>
       </c>
       <c r="B216">
         <v>6</v>
@@ -7635,16 +7637,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30093D95-D28B-DD42-A703-B59CAF299E47}">
   <dimension ref="A1:CC243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D204" sqref="D204"/>
+    <sheetView topLeftCell="BI1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:CC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>561</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -7889,7 +7891,7 @@
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>568</v>
+        <v>474</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7903,7 +7905,7 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>805</v>
+        <v>711</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7917,7 +7919,7 @@
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>831</v>
+        <v>737</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -7928,7 +7930,7 @@
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>872</v>
+        <v>778</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -7936,7 +7938,7 @@
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>873</v>
+        <v>779</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -7947,7 +7949,7 @@
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>874</v>
+        <v>780</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7958,7 +7960,7 @@
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>875</v>
+        <v>781</v>
       </c>
       <c r="U8">
         <v>5</v>
@@ -7966,7 +7968,7 @@
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>876</v>
+        <v>782</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -7977,7 +7979,7 @@
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>877</v>
+        <v>783</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -7988,7 +7990,7 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>879</v>
+        <v>785</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -7996,7 +7998,7 @@
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>878</v>
+        <v>784</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -8010,7 +8012,7 @@
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>880</v>
+        <v>786</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -8018,7 +8020,7 @@
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>881</v>
+        <v>787</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -8026,7 +8028,7 @@
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>882</v>
+        <v>788</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -8046,7 +8048,7 @@
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>883</v>
+        <v>789</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -8054,7 +8056,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>884</v>
+        <v>790</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -8065,7 +8067,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>885</v>
+        <v>791</v>
       </c>
       <c r="U18">
         <v>3</v>
@@ -8073,7 +8075,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>886</v>
+        <v>792</v>
       </c>
       <c r="U19">
         <v>3</v>
@@ -8081,7 +8083,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>887</v>
+        <v>793</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -8098,7 +8100,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>889</v>
+        <v>795</v>
       </c>
       <c r="B21">
         <v>15</v>
@@ -8106,7 +8108,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>888</v>
+        <v>794</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -8123,7 +8125,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>890</v>
+        <v>796</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -8131,7 +8133,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>891</v>
+        <v>797</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -8145,7 +8147,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>892</v>
+        <v>798</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -8153,7 +8155,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>893</v>
+        <v>799</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -8161,7 +8163,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>894</v>
+        <v>800</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -8172,7 +8174,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>895</v>
+        <v>801</v>
       </c>
       <c r="B28">
         <v>9</v>
@@ -8183,7 +8185,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>896</v>
+        <v>802</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -8194,7 +8196,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>897</v>
+        <v>803</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -8205,12 +8207,12 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>898</v>
+        <v>804</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>899</v>
+        <v>805</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -8218,7 +8220,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>900</v>
+        <v>806</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -8232,12 +8234,12 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>901</v>
+        <v>807</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>902</v>
+        <v>808</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -8245,7 +8247,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>903</v>
+        <v>809</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -8253,17 +8255,17 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>904</v>
+        <v>810</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>905</v>
+        <v>811</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>906</v>
+        <v>812</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -8271,7 +8273,7 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>907</v>
+        <v>813</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -8279,7 +8281,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>908</v>
+        <v>814</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -8287,7 +8289,7 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>909</v>
+        <v>815</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -8295,7 +8297,7 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>910</v>
+        <v>816</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -8303,7 +8305,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>911</v>
+        <v>817</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -8314,7 +8316,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>912</v>
+        <v>818</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -8322,7 +8324,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>913</v>
+        <v>819</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -8336,7 +8338,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>914</v>
+        <v>820</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -8344,7 +8346,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>915</v>
+        <v>821</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -8352,7 +8354,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>916</v>
+        <v>822</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -8360,7 +8362,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>917</v>
+        <v>823</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -8371,7 +8373,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>918</v>
+        <v>824</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -8385,7 +8387,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>919</v>
+        <v>825</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -8396,7 +8398,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>920</v>
+        <v>826</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -8407,7 +8409,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>921</v>
+        <v>827</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -8415,7 +8417,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>922</v>
+        <v>828</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -8423,7 +8425,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>923</v>
+        <v>829</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -8434,7 +8436,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>924</v>
+        <v>830</v>
       </c>
       <c r="B57">
         <v>21</v>
@@ -8445,7 +8447,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>925</v>
+        <v>831</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -8453,7 +8455,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>926</v>
+        <v>832</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -8461,7 +8463,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>927</v>
+        <v>833</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -8469,7 +8471,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>928</v>
+        <v>834</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -8480,7 +8482,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>929</v>
+        <v>835</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -8491,7 +8493,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>930</v>
+        <v>836</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -8505,7 +8507,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>931</v>
+        <v>837</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -8519,7 +8521,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>932</v>
+        <v>838</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -8533,7 +8535,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>933</v>
+        <v>839</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -8544,7 +8546,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>934</v>
+        <v>840</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -8555,7 +8557,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>935</v>
+        <v>841</v>
       </c>
       <c r="B68">
         <v>4</v>
@@ -8569,7 +8571,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>936</v>
+        <v>842</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -8583,7 +8585,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>938</v>
+        <v>844</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -8594,7 +8596,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>937</v>
+        <v>843</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -8608,7 +8610,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>939</v>
+        <v>845</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -8616,7 +8618,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>940</v>
+        <v>846</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -8624,7 +8626,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>941</v>
+        <v>847</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -8638,7 +8640,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>942</v>
+        <v>848</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -8649,7 +8651,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>943</v>
+        <v>849</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -8660,7 +8662,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>944</v>
+        <v>850</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -8668,7 +8670,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>945</v>
+        <v>851</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -8682,7 +8684,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>946</v>
+        <v>852</v>
       </c>
       <c r="B79">
         <v>4</v>
@@ -8693,7 +8695,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>947</v>
+        <v>853</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -8701,7 +8703,7 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>948</v>
+        <v>854</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -8712,7 +8714,7 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>949</v>
+        <v>855</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -8726,7 +8728,7 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>950</v>
+        <v>856</v>
       </c>
       <c r="B83">
         <v>7</v>
@@ -8740,7 +8742,7 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>951</v>
+        <v>857</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -8751,7 +8753,7 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>952</v>
+        <v>858</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -8762,7 +8764,7 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>953</v>
+        <v>859</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -8776,7 +8778,7 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>954</v>
+        <v>860</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -8784,7 +8786,7 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>955</v>
+        <v>861</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -8792,7 +8794,7 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>956</v>
+        <v>862</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -8800,7 +8802,7 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>957</v>
+        <v>863</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -8814,7 +8816,7 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>958</v>
+        <v>864</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -8825,7 +8827,7 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>959</v>
+        <v>865</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -8833,7 +8835,7 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>960</v>
+        <v>866</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -8841,7 +8843,7 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>961</v>
+        <v>867</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -8849,7 +8851,7 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>962</v>
+        <v>868</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -8863,7 +8865,7 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>963</v>
+        <v>869</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -8874,7 +8876,7 @@
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>964</v>
+        <v>870</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -8891,7 +8893,7 @@
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>965</v>
+        <v>871</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -8905,7 +8907,7 @@
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>966</v>
+        <v>872</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8913,7 +8915,7 @@
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>967</v>
+        <v>873</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8921,7 +8923,7 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>968</v>
+        <v>874</v>
       </c>
       <c r="B101">
         <v>8</v>
@@ -8935,7 +8937,7 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>969</v>
+        <v>875</v>
       </c>
       <c r="B102">
         <v>3</v>
@@ -8946,7 +8948,7 @@
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>970</v>
+        <v>876</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8954,7 +8956,7 @@
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>971</v>
+        <v>877</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -8968,7 +8970,7 @@
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>972</v>
+        <v>878</v>
       </c>
       <c r="E105">
         <v>2</v>
@@ -8979,7 +8981,7 @@
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>973</v>
+        <v>879</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -8990,7 +8992,7 @@
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>974</v>
+        <v>880</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -9001,7 +9003,7 @@
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>975</v>
+        <v>881</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -9012,7 +9014,7 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>976</v>
+        <v>882</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -9026,7 +9028,7 @@
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>977</v>
+        <v>883</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -9040,7 +9042,7 @@
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>978</v>
+        <v>884</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -9051,7 +9053,7 @@
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>979</v>
+        <v>885</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9065,7 +9067,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>980</v>
+        <v>886</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -9076,7 +9078,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>981</v>
+        <v>887</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -9087,7 +9089,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>982</v>
+        <v>888</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -9101,7 +9103,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>983</v>
+        <v>889</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -9109,7 +9111,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>984</v>
+        <v>890</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -9120,7 +9122,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>985</v>
+        <v>891</v>
       </c>
       <c r="D118">
         <v>3</v>
@@ -9128,7 +9130,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>991</v>
+        <v>897</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -9136,7 +9138,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>992</v>
+        <v>898</v>
       </c>
       <c r="D120">
         <v>2</v>
@@ -9144,7 +9146,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>993</v>
+        <v>899</v>
       </c>
       <c r="D121">
         <v>3</v>
@@ -9152,7 +9154,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>994</v>
+        <v>900</v>
       </c>
       <c r="D122">
         <v>4</v>
@@ -9160,7 +9162,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>995</v>
+        <v>901</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -9168,7 +9170,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>996</v>
+        <v>902</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -9176,7 +9178,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>997</v>
+        <v>903</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -9184,7 +9186,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>998</v>
+        <v>904</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -9192,7 +9194,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>999</v>
+        <v>905</v>
       </c>
       <c r="D127">
         <v>8</v>
@@ -9203,7 +9205,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1000</v>
+        <v>906</v>
       </c>
       <c r="D128">
         <v>5</v>
@@ -9214,7 +9216,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1001</v>
+        <v>907</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -9222,7 +9224,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1002</v>
+        <v>908</v>
       </c>
       <c r="B130">
         <v>2</v>
@@ -9233,7 +9235,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1003</v>
+        <v>909</v>
       </c>
       <c r="D131">
         <v>2</v>
@@ -9241,7 +9243,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1004</v>
+        <v>910</v>
       </c>
       <c r="D132">
         <v>3</v>
@@ -9249,7 +9251,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1005</v>
+        <v>911</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -9260,7 +9262,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1006</v>
+        <v>912</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -9268,7 +9270,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1007</v>
+        <v>913</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -9276,7 +9278,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1008</v>
+        <v>914</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -9284,7 +9286,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1009</v>
+        <v>915</v>
       </c>
       <c r="I137">
         <v>1</v>
@@ -9292,7 +9294,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1010</v>
+        <v>916</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -9300,7 +9302,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1011</v>
+        <v>917</v>
       </c>
       <c r="D139">
         <v>2</v>
@@ -9308,7 +9310,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1012</v>
+        <v>918</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -9316,7 +9318,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1013</v>
+        <v>919</v>
       </c>
       <c r="B141">
         <v>5</v>
@@ -9327,7 +9329,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1014</v>
+        <v>920</v>
       </c>
       <c r="D142">
         <v>2</v>
@@ -9335,7 +9337,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1015</v>
+        <v>921</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -9343,12 +9345,12 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1016</v>
+        <v>922</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1017</v>
+        <v>923</v>
       </c>
       <c r="D145">
         <v>3</v>
@@ -9356,7 +9358,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1018</v>
+        <v>924</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -9364,7 +9366,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1019</v>
+        <v>925</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -9372,7 +9374,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1020</v>
+        <v>926</v>
       </c>
       <c r="D148">
         <v>2</v>
@@ -9380,7 +9382,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1021</v>
+        <v>927</v>
       </c>
       <c r="D149">
         <v>3</v>
@@ -9388,7 +9390,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1022</v>
+        <v>928</v>
       </c>
       <c r="D150">
         <v>4</v>
@@ -9399,7 +9401,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1023</v>
+        <v>929</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -9413,7 +9415,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1024</v>
+        <v>930</v>
       </c>
       <c r="I152">
         <v>1</v>
@@ -9421,7 +9423,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1025</v>
+        <v>931</v>
       </c>
       <c r="D153">
         <v>6</v>
@@ -9429,7 +9431,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1026</v>
+        <v>932</v>
       </c>
       <c r="D154">
         <v>3</v>
@@ -9437,7 +9439,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1027</v>
+        <v>933</v>
       </c>
       <c r="D155">
         <v>8</v>
@@ -9445,7 +9447,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1028</v>
+        <v>934</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -9453,7 +9455,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1029</v>
+        <v>935</v>
       </c>
       <c r="D157">
         <v>2</v>
@@ -9461,7 +9463,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1030</v>
+        <v>936</v>
       </c>
       <c r="D158">
         <v>3</v>
@@ -9469,7 +9471,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1031</v>
+        <v>937</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -9480,7 +9482,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1032</v>
+        <v>938</v>
       </c>
       <c r="D160">
         <v>3</v>
@@ -9488,7 +9490,7 @@
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1033</v>
+        <v>939</v>
       </c>
       <c r="D161">
         <v>2</v>
@@ -9496,7 +9498,7 @@
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1034</v>
+        <v>940</v>
       </c>
       <c r="D162">
         <v>3</v>
@@ -9504,7 +9506,7 @@
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1035</v>
+        <v>941</v>
       </c>
       <c r="D163">
         <v>4</v>
@@ -9512,7 +9514,7 @@
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1036</v>
+        <v>942</v>
       </c>
       <c r="D164">
         <v>8</v>
@@ -9520,7 +9522,7 @@
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1037</v>
+        <v>943</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -9531,7 +9533,7 @@
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1038</v>
+        <v>944</v>
       </c>
       <c r="D166">
         <v>3</v>
@@ -9539,7 +9541,7 @@
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1039</v>
+        <v>945</v>
       </c>
       <c r="D167">
         <v>2</v>
@@ -9547,7 +9549,7 @@
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1040</v>
+        <v>946</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -9555,7 +9557,7 @@
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1041</v>
+        <v>947</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -9563,7 +9565,7 @@
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1042</v>
+        <v>948</v>
       </c>
       <c r="D170">
         <v>5</v>
@@ -9571,7 +9573,7 @@
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1043</v>
+        <v>949</v>
       </c>
       <c r="B171">
         <v>2</v>
@@ -9582,7 +9584,7 @@
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1044</v>
+        <v>950</v>
       </c>
       <c r="B172">
         <v>3</v>
@@ -9596,7 +9598,7 @@
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1045</v>
+        <v>951</v>
       </c>
       <c r="D173">
         <v>5</v>
@@ -9604,7 +9606,7 @@
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1046</v>
+        <v>952</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -9615,7 +9617,7 @@
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1047</v>
+        <v>953</v>
       </c>
       <c r="B175">
         <v>4</v>
@@ -9626,7 +9628,7 @@
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1048</v>
+        <v>954</v>
       </c>
       <c r="D176">
         <v>5</v>
@@ -9634,7 +9636,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1049</v>
+        <v>955</v>
       </c>
       <c r="B177">
         <v>4</v>
@@ -9645,7 +9647,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1050</v>
+        <v>956</v>
       </c>
       <c r="D178">
         <v>3</v>
@@ -9656,7 +9658,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1051</v>
+        <v>957</v>
       </c>
       <c r="B179">
         <v>2</v>
@@ -9670,7 +9672,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1052</v>
+        <v>958</v>
       </c>
       <c r="B180">
         <v>3</v>
@@ -9687,7 +9689,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1053</v>
+        <v>959</v>
       </c>
       <c r="B181">
         <v>4</v>
@@ -9704,7 +9706,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1054</v>
+        <v>960</v>
       </c>
       <c r="D182">
         <v>2</v>
@@ -9715,7 +9717,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1055</v>
+        <v>961</v>
       </c>
       <c r="D183">
         <v>2</v>
@@ -9723,7 +9725,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1056</v>
+        <v>962</v>
       </c>
       <c r="D184">
         <v>3</v>
@@ -9731,7 +9733,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1057</v>
+        <v>963</v>
       </c>
       <c r="D185">
         <v>3</v>
@@ -9739,37 +9741,37 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1060</v>
+        <v>966</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1061</v>
+        <v>967</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1062</v>
+        <v>968</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1063</v>
+        <v>969</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1064</v>
+        <v>970</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1065</v>
+        <v>971</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1066</v>
+        <v>972</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -9777,7 +9779,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1067</v>
+        <v>973</v>
       </c>
       <c r="B193">
         <v>2</v>
@@ -9785,52 +9787,52 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1068</v>
+        <v>974</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1069</v>
+        <v>975</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1070</v>
+        <v>976</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1071</v>
+        <v>977</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1072</v>
+        <v>978</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1073</v>
+        <v>979</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1074</v>
+        <v>980</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1075</v>
+        <v>981</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1076</v>
+        <v>982</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1077</v>
+        <v>983</v>
       </c>
       <c r="B203">
         <v>4</v>
@@ -9844,12 +9846,12 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1078</v>
+        <v>984</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1079</v>
+        <v>985</v>
       </c>
       <c r="D205">
         <v>2</v>
@@ -9857,7 +9859,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1080</v>
+        <v>986</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -10055,1478 +10057,1924 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC7AE76-5207-2B4B-8203-E570989F039C}">
-  <dimension ref="A43:A335"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929C66FF-D652-1341-9F2D-9B5795C0D039}">
+  <dimension ref="A1:CC102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>987</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>988</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>989</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>990</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>994</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>995</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>996</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>997</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>998</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>999</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1008</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1014</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1018</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1019</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="36" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="38" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="BH38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1030</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1031</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1040</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1041</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC7AE76-5207-2B4B-8203-E570989F039C}">
+  <dimension ref="A1:A193"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
     <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>227</v>
+        <v>275</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>248</v>
+        <v>296</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>249</v>
+        <v>297</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>251</v>
+        <v>299</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>252</v>
+        <v>300</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>253</v>
+        <v>301</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>254</v>
+        <v>302</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>258</v>
+        <v>306</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>268</v>
+        <v>316</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>269</v>
+        <v>317</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>271</v>
+        <v>319</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>287</v>
+        <v>335</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>288</v>
+        <v>336</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
         <v>338</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
   </sheetData>

--- a/GroundTruth.xlsx
+++ b/GroundTruth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suruchi/Documents/MSc Artificial Intelligence/Artificial Intelligence Project/UniversalAdversarialChallenges-AutonomousVehicles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329320C5-63CA-D240-91D9-09E72BDF9142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C06A30F-EF6E-044A-98A2-E5382405248C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="17040" activeTab="3" xr2:uid="{E9FA8BCC-3C24-E14A-8C2A-C02BE4E3E8A8}"/>
   </bookViews>
@@ -10062,7 +10062,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
+      <selection pane="bottomLeft" activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/GroundTruth.xlsx
+++ b/GroundTruth.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suruchi/Documents/MSc Artificial Intelligence/Artificial Intelligence Project/UniversalAdversarialChallenges-AutonomousVehicles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C06A30F-EF6E-044A-98A2-E5382405248C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE2E397-CBA5-594A-94EF-62A3E1750DD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="17040" activeTab="3" xr2:uid="{E9FA8BCC-3C24-E14A-8C2A-C02BE4E3E8A8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="17040" activeTab="5" xr2:uid="{E9FA8BCC-3C24-E14A-8C2A-C02BE4E3E8A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Art in Surroundings" sheetId="3" r:id="rId1"/>
     <sheet name="Vehicles Art and Textures" sheetId="5" r:id="rId2"/>
     <sheet name="On-road Scenarios" sheetId="6" r:id="rId3"/>
     <sheet name="Street Signs" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Parking spaces" sheetId="8" r:id="rId5"/>
+    <sheet name="Advanced Scenarios" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="1081">
   <si>
     <t>person</t>
   </si>
@@ -312,18 +313,6 @@
     <t>8PUTF</t>
   </si>
   <si>
-    <t>81VP9</t>
-  </si>
-  <si>
-    <t>7MW5K</t>
-  </si>
-  <si>
-    <t>SN4F0</t>
-  </si>
-  <si>
-    <t>46YLJ</t>
-  </si>
-  <si>
     <t>52DCY</t>
   </si>
   <si>
@@ -348,24 +337,6 @@
     <t>TBGYW</t>
   </si>
   <si>
-    <t>OFH49</t>
-  </si>
-  <si>
-    <t>XLZ2P</t>
-  </si>
-  <si>
-    <t>T8EO8</t>
-  </si>
-  <si>
-    <t>IVPQJ</t>
-  </si>
-  <si>
-    <t>MNTNS</t>
-  </si>
-  <si>
-    <t>EKV7G</t>
-  </si>
-  <si>
     <t>5S6VD</t>
   </si>
   <si>
@@ -480,129 +451,6 @@
     <t>YG09G</t>
   </si>
   <si>
-    <t>U997Q</t>
-  </si>
-  <si>
-    <t>I2KX1</t>
-  </si>
-  <si>
-    <t>JBXLS</t>
-  </si>
-  <si>
-    <t>1ODXM</t>
-  </si>
-  <si>
-    <t>8BPGK</t>
-  </si>
-  <si>
-    <t>ICQC6</t>
-  </si>
-  <si>
-    <t>PP01H</t>
-  </si>
-  <si>
-    <t>SMUX1</t>
-  </si>
-  <si>
-    <t>1OC1M</t>
-  </si>
-  <si>
-    <t>WHQ4Q</t>
-  </si>
-  <si>
-    <t>9B5HA</t>
-  </si>
-  <si>
-    <t>2RGX9</t>
-  </si>
-  <si>
-    <t>QOHLP</t>
-  </si>
-  <si>
-    <t>V84QJ</t>
-  </si>
-  <si>
-    <t>IG33A</t>
-  </si>
-  <si>
-    <t>9MHZG</t>
-  </si>
-  <si>
-    <t>BYY3H</t>
-  </si>
-  <si>
-    <t>X5L6D</t>
-  </si>
-  <si>
-    <t>PXGQ6</t>
-  </si>
-  <si>
-    <t>7HWZU</t>
-  </si>
-  <si>
-    <t>9HEIF</t>
-  </si>
-  <si>
-    <t>LJX5F</t>
-  </si>
-  <si>
-    <t>4ZNVQ</t>
-  </si>
-  <si>
-    <t>BK5LM</t>
-  </si>
-  <si>
-    <t>6OBU1</t>
-  </si>
-  <si>
-    <t>LJ7KS</t>
-  </si>
-  <si>
-    <t>9O95K</t>
-  </si>
-  <si>
-    <t>7C6MD</t>
-  </si>
-  <si>
-    <t>1BY4T</t>
-  </si>
-  <si>
-    <t>079MX</t>
-  </si>
-  <si>
-    <t>LYXLY</t>
-  </si>
-  <si>
-    <t>6CJO8</t>
-  </si>
-  <si>
-    <t>NZV1M</t>
-  </si>
-  <si>
-    <t>EEXMA</t>
-  </si>
-  <si>
-    <t>1NM0K</t>
-  </si>
-  <si>
-    <t>BPYCB</t>
-  </si>
-  <si>
-    <t>9YAFK</t>
-  </si>
-  <si>
-    <t>EX7D5</t>
-  </si>
-  <si>
-    <t>TFALO</t>
-  </si>
-  <si>
-    <t>H5I73</t>
-  </si>
-  <si>
-    <t>LAGCC</t>
-  </si>
-  <si>
     <t>5BFL9</t>
   </si>
   <si>
@@ -630,297 +478,6 @@
     <t>YGZWK</t>
   </si>
   <si>
-    <t>106VS</t>
-  </si>
-  <si>
-    <t>05P56</t>
-  </si>
-  <si>
-    <t>MO929</t>
-  </si>
-  <si>
-    <t>DVUTJ</t>
-  </si>
-  <si>
-    <t>MJY41</t>
-  </si>
-  <si>
-    <t>NN64Z</t>
-  </si>
-  <si>
-    <t>D4WUP</t>
-  </si>
-  <si>
-    <t>0CFJI</t>
-  </si>
-  <si>
-    <t>J50DO</t>
-  </si>
-  <si>
-    <t>GU020</t>
-  </si>
-  <si>
-    <t>7IY7Y</t>
-  </si>
-  <si>
-    <t>PVON6</t>
-  </si>
-  <si>
-    <t>TDLKP</t>
-  </si>
-  <si>
-    <t>CTC9T</t>
-  </si>
-  <si>
-    <t>TBOPC</t>
-  </si>
-  <si>
-    <t>BQJVK</t>
-  </si>
-  <si>
-    <t>G3VD1</t>
-  </si>
-  <si>
-    <t>CIK6Z</t>
-  </si>
-  <si>
-    <t>2CMCX</t>
-  </si>
-  <si>
-    <t>VZJ3V</t>
-  </si>
-  <si>
-    <t>F88BK</t>
-  </si>
-  <si>
-    <t>TU11A</t>
-  </si>
-  <si>
-    <t>WY1D3</t>
-  </si>
-  <si>
-    <t>MAZMN</t>
-  </si>
-  <si>
-    <t>G8686</t>
-  </si>
-  <si>
-    <t>VSSW4</t>
-  </si>
-  <si>
-    <t>6VZXJ</t>
-  </si>
-  <si>
-    <t>58LLC</t>
-  </si>
-  <si>
-    <t>232XQ</t>
-  </si>
-  <si>
-    <t>EOAUS</t>
-  </si>
-  <si>
-    <t>F9C68</t>
-  </si>
-  <si>
-    <t>HR9J5</t>
-  </si>
-  <si>
-    <t>CPQO6</t>
-  </si>
-  <si>
-    <t>83XWE</t>
-  </si>
-  <si>
-    <t>8IARI</t>
-  </si>
-  <si>
-    <t>WM8S7</t>
-  </si>
-  <si>
-    <t>3EFMO</t>
-  </si>
-  <si>
-    <t>COI8L</t>
-  </si>
-  <si>
-    <t>6M7RU</t>
-  </si>
-  <si>
-    <t>WH14B</t>
-  </si>
-  <si>
-    <t>JRN4U</t>
-  </si>
-  <si>
-    <t>ITUNR</t>
-  </si>
-  <si>
-    <t>2WRHN</t>
-  </si>
-  <si>
-    <t>1MQA9</t>
-  </si>
-  <si>
-    <t>09X10</t>
-  </si>
-  <si>
-    <t>CBGZM</t>
-  </si>
-  <si>
-    <t>W901Z</t>
-  </si>
-  <si>
-    <t>6P590</t>
-  </si>
-  <si>
-    <t>3ZL2B</t>
-  </si>
-  <si>
-    <t>2YDP0</t>
-  </si>
-  <si>
-    <t>0NQVO</t>
-  </si>
-  <si>
-    <t>50KU0</t>
-  </si>
-  <si>
-    <t>R3YLO</t>
-  </si>
-  <si>
-    <t>JBB7I</t>
-  </si>
-  <si>
-    <t>P4J29</t>
-  </si>
-  <si>
-    <t>HTNUD</t>
-  </si>
-  <si>
-    <t>3Z4F3</t>
-  </si>
-  <si>
-    <t>2W0JE</t>
-  </si>
-  <si>
-    <t>YX8N9</t>
-  </si>
-  <si>
-    <t>KYR3A</t>
-  </si>
-  <si>
-    <t>T84OB</t>
-  </si>
-  <si>
-    <t>G636K</t>
-  </si>
-  <si>
-    <t>89FP7</t>
-  </si>
-  <si>
-    <t>078K1</t>
-  </si>
-  <si>
-    <t>R4S3D</t>
-  </si>
-  <si>
-    <t>L520P</t>
-  </si>
-  <si>
-    <t>5NNGB</t>
-  </si>
-  <si>
-    <t>V3BXI</t>
-  </si>
-  <si>
-    <t>IJV38</t>
-  </si>
-  <si>
-    <t>GC10X</t>
-  </si>
-  <si>
-    <t>ZBVRB</t>
-  </si>
-  <si>
-    <t>P269X</t>
-  </si>
-  <si>
-    <t>8TDCX</t>
-  </si>
-  <si>
-    <t>5FFWJ</t>
-  </si>
-  <si>
-    <t>KUUY6</t>
-  </si>
-  <si>
-    <t>F9GCE</t>
-  </si>
-  <si>
-    <t>L0IRP</t>
-  </si>
-  <si>
-    <t>L6YHM</t>
-  </si>
-  <si>
-    <t>2QZ54</t>
-  </si>
-  <si>
-    <t>NQPVF</t>
-  </si>
-  <si>
-    <t>S1RB8</t>
-  </si>
-  <si>
-    <t>CN1WT</t>
-  </si>
-  <si>
-    <t>VDUYW</t>
-  </si>
-  <si>
-    <t>NJLH0</t>
-  </si>
-  <si>
-    <t>78DVV</t>
-  </si>
-  <si>
-    <t>564VJ</t>
-  </si>
-  <si>
-    <t>97RK2</t>
-  </si>
-  <si>
-    <t>YK1VD</t>
-  </si>
-  <si>
-    <t>17YAX</t>
-  </si>
-  <si>
-    <t>43CZX</t>
-  </si>
-  <si>
-    <t>31RHA</t>
-  </si>
-  <si>
-    <t>4027Z</t>
-  </si>
-  <si>
-    <t>R3SGF</t>
-  </si>
-  <si>
-    <t>ERYNH</t>
-  </si>
-  <si>
-    <t>I7SY8</t>
-  </si>
-  <si>
-    <t>K97VT</t>
-  </si>
-  <si>
-    <t>1CFRN</t>
-  </si>
-  <si>
     <t>ZPTVL</t>
   </si>
   <si>
@@ -3280,25 +2837,463 @@
   </si>
   <si>
     <t>VBYLT.jpg</t>
+  </si>
+  <si>
+    <t>81VP9.jpg</t>
+  </si>
+  <si>
+    <t>7MW5K.jpg</t>
+  </si>
+  <si>
+    <t>SN4F0.jpg</t>
+  </si>
+  <si>
+    <t>46YLJ.jpg</t>
+  </si>
+  <si>
+    <t>OFH49.jpg</t>
+  </si>
+  <si>
+    <t>XLZ2P.jpg</t>
+  </si>
+  <si>
+    <t>T8EO8.jpg</t>
+  </si>
+  <si>
+    <t>IVPQJ.jpg</t>
+  </si>
+  <si>
+    <t>MNTNS.jpg</t>
+  </si>
+  <si>
+    <t>EKV7G.jpeg</t>
+  </si>
+  <si>
+    <t>U997Q.jpg</t>
+  </si>
+  <si>
+    <t>I2KX1.jpg</t>
+  </si>
+  <si>
+    <t>JBXLS.jpeg</t>
+  </si>
+  <si>
+    <t>1ODXM.jpg</t>
+  </si>
+  <si>
+    <t>8BPGK.jpg</t>
+  </si>
+  <si>
+    <t>ICQC6.jpg</t>
+  </si>
+  <si>
+    <t>PP01H.jpg</t>
+  </si>
+  <si>
+    <t>SMUX1.jpg</t>
+  </si>
+  <si>
+    <t>1OC1M.jpg</t>
+  </si>
+  <si>
+    <t>WHQ4Q.jpg</t>
+  </si>
+  <si>
+    <t>9B5HA.jpg</t>
+  </si>
+  <si>
+    <t>2RGX9.jpg</t>
+  </si>
+  <si>
+    <t>QOHLP.jpg</t>
+  </si>
+  <si>
+    <t>V84QJ.jpg</t>
+  </si>
+  <si>
+    <t>IG33A.jpg</t>
+  </si>
+  <si>
+    <t>9MHZG.jpg</t>
+  </si>
+  <si>
+    <t>BYY3H.jpg</t>
+  </si>
+  <si>
+    <t>X5L6D.jpg</t>
+  </si>
+  <si>
+    <t>PXGQ6.jpg</t>
+  </si>
+  <si>
+    <t>7HWZU.jpg</t>
+  </si>
+  <si>
+    <t>9HEIF.jpg</t>
+  </si>
+  <si>
+    <t>LJX5F.jpg</t>
+  </si>
+  <si>
+    <t>4ZNVQ.jpg</t>
+  </si>
+  <si>
+    <t>BK5LM.jpeg</t>
+  </si>
+  <si>
+    <t>6OBU1.jpg</t>
+  </si>
+  <si>
+    <t>LJ7KS.jpg</t>
+  </si>
+  <si>
+    <t>9O95K.jpg</t>
+  </si>
+  <si>
+    <t>7C6MD.jpg</t>
+  </si>
+  <si>
+    <t>1BY4T.jpg</t>
+  </si>
+  <si>
+    <t>079MX.jpg</t>
+  </si>
+  <si>
+    <t>LYXLY.jpg</t>
+  </si>
+  <si>
+    <t>6CJO8.jpeg</t>
+  </si>
+  <si>
+    <t>NZV1M.jpg</t>
+  </si>
+  <si>
+    <t>EEXMA.jpg</t>
+  </si>
+  <si>
+    <t>1NM0K.jpg</t>
+  </si>
+  <si>
+    <t>BPYCB.jpg</t>
+  </si>
+  <si>
+    <t>9YAFK.jpg</t>
+  </si>
+  <si>
+    <t>EX7D5.jpg</t>
+  </si>
+  <si>
+    <t>TFALO.jpg</t>
+  </si>
+  <si>
+    <t>H5I73.jpg</t>
+  </si>
+  <si>
+    <t>LAGCC.jpg</t>
+  </si>
+  <si>
+    <t>106VS.jpg</t>
+  </si>
+  <si>
+    <t>05P56.jpg</t>
+  </si>
+  <si>
+    <t>MO929.jpg</t>
+  </si>
+  <si>
+    <t>DVUTJ.jpeg</t>
+  </si>
+  <si>
+    <t>MJY41.jpg</t>
+  </si>
+  <si>
+    <t>NN64Z.jpg</t>
+  </si>
+  <si>
+    <t>D4WUP.jpg</t>
+  </si>
+  <si>
+    <t>0CFJI.jpg</t>
+  </si>
+  <si>
+    <t>J50DO.jpg</t>
+  </si>
+  <si>
+    <t>GU020.jpg</t>
+  </si>
+  <si>
+    <t>7IY7Y.jpg</t>
+  </si>
+  <si>
+    <t>PVON6.jpg</t>
+  </si>
+  <si>
+    <t>TDLKP.jpg</t>
+  </si>
+  <si>
+    <t>CTC9T.jpg</t>
+  </si>
+  <si>
+    <t>TBOPC.jpg</t>
+  </si>
+  <si>
+    <t>BQJVK.jpeg</t>
+  </si>
+  <si>
+    <t>G3VD1.jpg</t>
+  </si>
+  <si>
+    <t>CIK6Z.jpg</t>
+  </si>
+  <si>
+    <t>2CMCX.jpeg</t>
+  </si>
+  <si>
+    <t>VZJ3V.jpeg</t>
+  </si>
+  <si>
+    <t>F88BK.jpg</t>
+  </si>
+  <si>
+    <t>TU11A.jpg</t>
+  </si>
+  <si>
+    <t>WY1D3.jpg</t>
+  </si>
+  <si>
+    <t>MAZMN.jpg</t>
+  </si>
+  <si>
+    <t>G8686.jpg</t>
+  </si>
+  <si>
+    <t>VSSW4.jpg</t>
+  </si>
+  <si>
+    <t>6VZXJ.jpg</t>
+  </si>
+  <si>
+    <t>58LLC.jpg</t>
+  </si>
+  <si>
+    <t>232XQ.jpg</t>
+  </si>
+  <si>
+    <t>EOAUS.jpg</t>
+  </si>
+  <si>
+    <t>F9C68.jpg</t>
+  </si>
+  <si>
+    <t>HR9J5.jpg</t>
+  </si>
+  <si>
+    <t>CPQO6.jpg</t>
+  </si>
+  <si>
+    <t>83XWE.jpg</t>
+  </si>
+  <si>
+    <t>8IARI.jpeg</t>
+  </si>
+  <si>
+    <t>WM8S7.jpg</t>
+  </si>
+  <si>
+    <t>3EFMO.jpg</t>
+  </si>
+  <si>
+    <t>COI8L.jpg</t>
+  </si>
+  <si>
+    <t>6M7RU.jpg</t>
+  </si>
+  <si>
+    <t>WH14B.jpg</t>
+  </si>
+  <si>
+    <t>JRN4U.jpg</t>
+  </si>
+  <si>
+    <t>ITUNR.jpg</t>
+  </si>
+  <si>
+    <t>2WRHN.jpg</t>
+  </si>
+  <si>
+    <t>1MQA9.jpg</t>
+  </si>
+  <si>
+    <t>09X10.jpg</t>
+  </si>
+  <si>
+    <t>CBGZM.jpg</t>
+  </si>
+  <si>
+    <t>W901Z.jpg</t>
+  </si>
+  <si>
+    <t>6P590.jpg</t>
+  </si>
+  <si>
+    <t>3ZL2B.jpg</t>
+  </si>
+  <si>
+    <t>2YDP0.jpg</t>
+  </si>
+  <si>
+    <t>0NQVO.jpeg</t>
+  </si>
+  <si>
+    <t>50KU0.jpg</t>
+  </si>
+  <si>
+    <t>R3YLO.jpg</t>
+  </si>
+  <si>
+    <t>JBB7I.jpg</t>
+  </si>
+  <si>
+    <t>P4J29.jpg</t>
+  </si>
+  <si>
+    <t>HTNUD.jpg</t>
+  </si>
+  <si>
+    <t>3Z4F3.jpg</t>
+  </si>
+  <si>
+    <t>2W0JE.jpg</t>
+  </si>
+  <si>
+    <t>YX8N9.jpg</t>
+  </si>
+  <si>
+    <t>KYR3A.jpg</t>
+  </si>
+  <si>
+    <t>T84OB.jpg</t>
+  </si>
+  <si>
+    <t>G636K.jpeg</t>
+  </si>
+  <si>
+    <t>89FP7.jpeg</t>
+  </si>
+  <si>
+    <t>078K1.jpg</t>
+  </si>
+  <si>
+    <t>R4S3D.jpg</t>
+  </si>
+  <si>
+    <t>L520P.jpg</t>
+  </si>
+  <si>
+    <t>5NNGB.jpg</t>
+  </si>
+  <si>
+    <t>V3BXI.jpg</t>
+  </si>
+  <si>
+    <t>IJV38.png</t>
+  </si>
+  <si>
+    <t>GC10X.jpg</t>
+  </si>
+  <si>
+    <t>ZBVRB.jpg</t>
+  </si>
+  <si>
+    <t>P269X.jpg</t>
+  </si>
+  <si>
+    <t>8TDCX.jpg</t>
+  </si>
+  <si>
+    <t>5FFWJ.jpg</t>
+  </si>
+  <si>
+    <t>KUUY6.jpg</t>
+  </si>
+  <si>
+    <t>F9GCE.jpeg</t>
+  </si>
+  <si>
+    <t>L0IRP.jpg</t>
+  </si>
+  <si>
+    <t>L6YHM.jpg</t>
+  </si>
+  <si>
+    <t>2QZ54.jpg</t>
+  </si>
+  <si>
+    <t>NQPVF.jpg</t>
+  </si>
+  <si>
+    <t>S1RB8.jpg</t>
+  </si>
+  <si>
+    <t>CN1WT.jpg</t>
+  </si>
+  <si>
+    <t>VDUYW.jpg</t>
+  </si>
+  <si>
+    <t>NJLH0.jpg</t>
+  </si>
+  <si>
+    <t>78DVV.jpg</t>
+  </si>
+  <si>
+    <t>564VJ.jpg</t>
+  </si>
+  <si>
+    <t>97RK2.jpg</t>
+  </si>
+  <si>
+    <t>YK1VD.jpg</t>
+  </si>
+  <si>
+    <t>17YAX.jpg</t>
+  </si>
+  <si>
+    <t>43CZX.jpg</t>
+  </si>
+  <si>
+    <t>31RHA.jpg</t>
+  </si>
+  <si>
+    <t>4027Z.jpg</t>
+  </si>
+  <si>
+    <t>R3SGF.jpg</t>
+  </si>
+  <si>
+    <t>ERYNH.jpg</t>
+  </si>
+  <si>
+    <t>I7SY8.jpeg</t>
+  </si>
+  <si>
+    <t>K97VT.jpg</t>
+  </si>
+  <si>
+    <t>1CFRN.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3321,10 +3316,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3642,15 +3635,15 @@
   <dimension ref="A1:CC238"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H227" sqref="H227"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>467</v>
+        <v>319</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3895,7 +3888,7 @@
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>191</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -3903,7 +3896,7 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>192</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3911,25 +3904,25 @@
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>195</v>
       </c>
       <c r="B5" t="s">
-        <v>342</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>197</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -3937,17 +3930,17 @@
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>200</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3955,32 +3948,32 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>352</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>353</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>354</v>
+        <v>206</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -3988,12 +3981,12 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>355</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>356</v>
+        <v>208</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -4001,12 +3994,12 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>357</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>210</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -4014,12 +4007,12 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>359</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>360</v>
+        <v>212</v>
       </c>
       <c r="B22">
         <v>9</v>
@@ -4027,12 +4020,12 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>361</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>362</v>
+        <v>214</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4040,7 +4033,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>363</v>
+        <v>215</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -4048,7 +4041,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>364</v>
+        <v>216</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -4056,7 +4049,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>365</v>
+        <v>217</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -4064,27 +4057,27 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>366</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>367</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>368</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>369</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>370</v>
+        <v>222</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -4092,22 +4085,22 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>371</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>372</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>373</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>374</v>
+        <v>226</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4121,17 +4114,17 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>375</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>376</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>377</v>
+        <v>229</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4139,72 +4132,72 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>378</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>379</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>380</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>381</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>382</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>383</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>384</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>385</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>386</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>387</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>388</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>389</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>390</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>391</v>
+        <v>243</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4212,162 +4205,162 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>392</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>393</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>394</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>395</v>
+        <v>247</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>396</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>397</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>398</v>
+        <v>250</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>399</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>400</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>401</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>402</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>403</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>404</v>
+        <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>405</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>406</v>
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>407</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>408</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>409</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>410</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>411</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>412</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>413</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>414</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>415</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>416</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>417</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>418</v>
+        <v>270</v>
       </c>
     </row>
     <row r="81" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>419</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>420</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>421</v>
+        <v>273</v>
       </c>
     </row>
     <row r="84" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>422</v>
+        <v>274</v>
       </c>
     </row>
     <row r="85" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>423</v>
+        <v>275</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -4375,7 +4368,7 @@
     </row>
     <row r="86" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>424</v>
+        <v>276</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4383,22 +4376,22 @@
     </row>
     <row r="87" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>425</v>
+        <v>277</v>
       </c>
     </row>
     <row r="88" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>426</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>427</v>
+        <v>279</v>
       </c>
     </row>
     <row r="90" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>428</v>
+        <v>280</v>
       </c>
       <c r="BH90">
         <v>2</v>
@@ -4406,22 +4399,22 @@
     </row>
     <row r="91" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>429</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>430</v>
+        <v>282</v>
       </c>
     </row>
     <row r="93" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>431</v>
+        <v>283</v>
       </c>
     </row>
     <row r="94" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>432</v>
+        <v>284</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -4429,27 +4422,27 @@
     </row>
     <row r="95" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>433</v>
+        <v>285</v>
       </c>
     </row>
     <row r="96" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>434</v>
+        <v>286</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>435</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>436</v>
+        <v>288</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>437</v>
+        <v>289</v>
       </c>
       <c r="B99">
         <v>7</v>
@@ -4457,17 +4450,17 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>438</v>
+        <v>290</v>
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>439</v>
+        <v>291</v>
       </c>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>440</v>
+        <v>292</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -4475,12 +4468,12 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>441</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>442</v>
+        <v>294</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -4491,17 +4484,17 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>443</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>444</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>445</v>
+        <v>297</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4509,27 +4502,27 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>446</v>
+        <v>298</v>
       </c>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>447</v>
+        <v>299</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>448</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>449</v>
+        <v>301</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>450</v>
+        <v>302</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -4537,92 +4530,92 @@
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>451</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>452</v>
+        <v>304</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>453</v>
+        <v>305</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>454</v>
+        <v>306</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>455</v>
+        <v>307</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>456</v>
+        <v>308</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>457</v>
+        <v>309</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>458</v>
+        <v>310</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>459</v>
+        <v>311</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>460</v>
+        <v>312</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>461</v>
+        <v>313</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>463</v>
+        <v>315</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>464</v>
+        <v>316</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>465</v>
+        <v>317</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>466</v>
+        <v>318</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>507</v>
+        <v>359</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>508</v>
+        <v>360</v>
       </c>
       <c r="B130">
         <v>2</v>
@@ -4630,22 +4623,22 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>509</v>
+        <v>361</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>510</v>
+        <v>362</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>511</v>
+        <v>363</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>512</v>
+        <v>364</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -4653,37 +4646,37 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>513</v>
+        <v>365</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>514</v>
+        <v>366</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>515</v>
+        <v>367</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>516</v>
+        <v>368</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>517</v>
+        <v>369</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>518</v>
+        <v>370</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>519</v>
+        <v>371</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -4691,22 +4684,22 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>520</v>
+        <v>372</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>521</v>
+        <v>373</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>522</v>
+        <v>374</v>
       </c>
     </row>
     <row r="145" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>523</v>
+        <v>375</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -4717,22 +4710,22 @@
     </row>
     <row r="146" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>524</v>
+        <v>376</v>
       </c>
     </row>
     <row r="147" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>525</v>
+        <v>377</v>
       </c>
     </row>
     <row r="148" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>526</v>
+        <v>378</v>
       </c>
     </row>
     <row r="149" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>527</v>
+        <v>379</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -4740,42 +4733,42 @@
     </row>
     <row r="150" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>528</v>
+        <v>380</v>
       </c>
     </row>
     <row r="151" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>529</v>
+        <v>381</v>
       </c>
     </row>
     <row r="152" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>530</v>
+        <v>382</v>
       </c>
     </row>
     <row r="153" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>531</v>
+        <v>383</v>
       </c>
     </row>
     <row r="154" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>532</v>
+        <v>384</v>
       </c>
     </row>
     <row r="155" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>533</v>
+        <v>385</v>
       </c>
     </row>
     <row r="156" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>534</v>
+        <v>386</v>
       </c>
     </row>
     <row r="157" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>535</v>
+        <v>387</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -4783,67 +4776,67 @@
     </row>
     <row r="158" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>536</v>
+        <v>388</v>
       </c>
     </row>
     <row r="159" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>537</v>
+        <v>389</v>
       </c>
     </row>
     <row r="160" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>538</v>
+        <v>390</v>
       </c>
     </row>
     <row r="161" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>539</v>
+        <v>391</v>
       </c>
     </row>
     <row r="162" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>540</v>
+        <v>392</v>
       </c>
     </row>
     <row r="163" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>541</v>
+        <v>393</v>
       </c>
     </row>
     <row r="164" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>542</v>
+        <v>394</v>
       </c>
     </row>
     <row r="165" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>543</v>
+        <v>395</v>
       </c>
     </row>
     <row r="166" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>544</v>
+        <v>396</v>
       </c>
     </row>
     <row r="167" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>545</v>
+        <v>397</v>
       </c>
     </row>
     <row r="168" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>546</v>
+        <v>398</v>
       </c>
     </row>
     <row r="169" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>547</v>
+        <v>399</v>
       </c>
     </row>
     <row r="170" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>548</v>
+        <v>400</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -4851,27 +4844,27 @@
     </row>
     <row r="171" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>549</v>
+        <v>401</v>
       </c>
     </row>
     <row r="172" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>550</v>
+        <v>402</v>
       </c>
     </row>
     <row r="173" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>551</v>
+        <v>403</v>
       </c>
     </row>
     <row r="174" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>552</v>
+        <v>404</v>
       </c>
     </row>
     <row r="175" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>553</v>
+        <v>405</v>
       </c>
       <c r="BH175">
         <v>4</v>
@@ -4879,62 +4872,62 @@
     </row>
     <row r="176" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>554</v>
+        <v>406</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>555</v>
+        <v>407</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>556</v>
+        <v>408</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>557</v>
+        <v>409</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>558</v>
+        <v>410</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>559</v>
+        <v>411</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>560</v>
+        <v>412</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>561</v>
+        <v>413</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>562</v>
+        <v>414</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>563</v>
+        <v>415</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>564</v>
+        <v>416</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>565</v>
+        <v>417</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -4942,17 +4935,17 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>566</v>
+        <v>418</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>567</v>
+        <v>419</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>568</v>
+        <v>420</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -4960,17 +4953,17 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>569</v>
+        <v>421</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>570</v>
+        <v>422</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>571</v>
+        <v>423</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -4978,17 +4971,17 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>572</v>
+        <v>424</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>573</v>
+        <v>425</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>574</v>
+        <v>426</v>
       </c>
       <c r="B196">
         <v>9</v>
@@ -4996,7 +4989,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>575</v>
+        <v>427</v>
       </c>
       <c r="B197">
         <v>2</v>
@@ -5004,27 +4997,27 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>576</v>
+        <v>428</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>577</v>
+        <v>429</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>578</v>
+        <v>430</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>579</v>
+        <v>431</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>580</v>
+        <v>432</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -5032,22 +5025,22 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>581</v>
+        <v>433</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>582</v>
+        <v>434</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>583</v>
+        <v>435</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>584</v>
+        <v>436</v>
       </c>
       <c r="K206">
         <v>2</v>
@@ -5055,7 +5048,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>585</v>
+        <v>437</v>
       </c>
       <c r="K207">
         <v>2</v>
@@ -5063,12 +5056,12 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>586</v>
+        <v>438</v>
       </c>
     </row>
     <row r="209" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>587</v>
+        <v>439</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -5076,17 +5069,17 @@
     </row>
     <row r="210" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>588</v>
+        <v>440</v>
       </c>
     </row>
     <row r="211" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>589</v>
+        <v>441</v>
       </c>
     </row>
     <row r="212" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>590</v>
+        <v>442</v>
       </c>
       <c r="D212">
         <v>2</v>
@@ -5094,22 +5087,22 @@
     </row>
     <row r="213" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>591</v>
+        <v>443</v>
       </c>
     </row>
     <row r="214" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>592</v>
+        <v>444</v>
       </c>
     </row>
     <row r="215" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>593</v>
+        <v>445</v>
       </c>
     </row>
     <row r="216" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>594</v>
+        <v>446</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -5120,17 +5113,17 @@
     </row>
     <row r="217" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>595</v>
+        <v>447</v>
       </c>
     </row>
     <row r="218" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>596</v>
+        <v>448</v>
       </c>
     </row>
     <row r="219" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>597</v>
+        <v>449</v>
       </c>
       <c r="O219">
         <v>1</v>
@@ -5138,7 +5131,7 @@
     </row>
     <row r="220" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>598</v>
+        <v>450</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -5146,7 +5139,7 @@
     </row>
     <row r="221" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>749</v>
+        <v>601</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -5154,32 +5147,32 @@
     </row>
     <row r="222" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>599</v>
+        <v>451</v>
       </c>
     </row>
     <row r="223" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>760</v>
+        <v>612</v>
       </c>
     </row>
     <row r="224" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>761</v>
+        <v>613</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>762</v>
+        <v>614</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>763</v>
+        <v>615</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>964</v>
+        <v>816</v>
       </c>
       <c r="D227">
         <v>6</v>
@@ -5252,14 +5245,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A217" sqref="A217"/>
+      <selection pane="bottomLeft" activeCell="A221" sqref="A221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>467</v>
+        <v>319</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5504,7 +5497,7 @@
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>468</v>
+        <v>320</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -5512,7 +5505,7 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>469</v>
+        <v>321</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5520,7 +5513,7 @@
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -5528,7 +5521,7 @@
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>471</v>
+        <v>323</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -5536,7 +5529,7 @@
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>472</v>
+        <v>324</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5544,7 +5537,7 @@
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>473</v>
+        <v>325</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5558,7 +5551,7 @@
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>475</v>
+        <v>327</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -5569,7 +5562,7 @@
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>476</v>
+        <v>328</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5580,7 +5573,7 @@
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>477</v>
+        <v>329</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5591,7 +5584,7 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>478</v>
+        <v>330</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5599,7 +5592,7 @@
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5607,7 +5600,7 @@
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>480</v>
+        <v>332</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -5618,7 +5611,7 @@
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>481</v>
+        <v>333</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -5626,7 +5619,7 @@
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>482</v>
+        <v>334</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -5634,7 +5627,7 @@
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>483</v>
+        <v>335</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -5645,7 +5638,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>484</v>
+        <v>336</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5653,7 +5646,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>485</v>
+        <v>337</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5661,7 +5654,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>486</v>
+        <v>338</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -5672,7 +5665,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>487</v>
+        <v>339</v>
       </c>
       <c r="B20">
         <v>11</v>
@@ -5683,7 +5676,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>488</v>
+        <v>340</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -5694,7 +5687,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>489</v>
+        <v>341</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -5702,7 +5695,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>490</v>
+        <v>342</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -5713,7 +5706,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>491</v>
+        <v>343</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -5721,7 +5714,7 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>492</v>
+        <v>344</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -5729,7 +5722,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>493</v>
+        <v>345</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -5743,7 +5736,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>494</v>
+        <v>346</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -5754,7 +5747,7 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>495</v>
+        <v>347</v>
       </c>
       <c r="B28">
         <v>13</v>
@@ -5765,7 +5758,7 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>496</v>
+        <v>348</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -5776,7 +5769,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>497</v>
+        <v>349</v>
       </c>
       <c r="B30">
         <v>9</v>
@@ -5787,7 +5780,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>498</v>
+        <v>350</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -5798,7 +5791,7 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>499</v>
+        <v>351</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -5809,7 +5802,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>500</v>
+        <v>352</v>
       </c>
       <c r="B33">
         <v>9</v>
@@ -5820,7 +5813,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>501</v>
+        <v>353</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -5831,7 +5824,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>502</v>
+        <v>354</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -5842,7 +5835,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>503</v>
+        <v>355</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -5853,7 +5846,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>504</v>
+        <v>356</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -5861,7 +5854,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>505</v>
+        <v>357</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -5872,7 +5865,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>506</v>
+        <v>358</v>
       </c>
       <c r="B39">
         <v>10</v>
@@ -5886,7 +5879,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>600</v>
+        <v>452</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -5897,7 +5890,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>601</v>
+        <v>453</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -5905,7 +5898,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>602</v>
+        <v>454</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -5913,7 +5906,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>603</v>
+        <v>455</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -5921,7 +5914,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>604</v>
+        <v>456</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -5929,7 +5922,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>605</v>
+        <v>457</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -5940,7 +5933,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>606</v>
+        <v>458</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -5951,7 +5944,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>607</v>
+        <v>459</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -5962,7 +5955,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>608</v>
+        <v>460</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -5970,7 +5963,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>609</v>
+        <v>461</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -5978,7 +5971,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>610</v>
+        <v>462</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -5989,7 +5982,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>611</v>
+        <v>463</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -6000,7 +5993,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>612</v>
+        <v>464</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -6008,7 +6001,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>613</v>
+        <v>465</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -6019,7 +6012,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>614</v>
+        <v>466</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -6030,7 +6023,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>615</v>
+        <v>467</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -6041,7 +6034,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>616</v>
+        <v>468</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -6049,7 +6042,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>617</v>
+        <v>469</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -6057,7 +6050,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>618</v>
+        <v>470</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -6068,7 +6061,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>619</v>
+        <v>471</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6076,7 +6069,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>620</v>
+        <v>472</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6084,7 +6077,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>621</v>
+        <v>473</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6092,7 +6085,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>623</v>
+        <v>475</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -6103,7 +6096,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>622</v>
+        <v>474</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6111,7 +6104,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>624</v>
+        <v>476</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -6119,7 +6112,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>625</v>
+        <v>477</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -6130,7 +6123,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>626</v>
+        <v>478</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6138,7 +6131,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>627</v>
+        <v>479</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -6146,7 +6139,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>628</v>
+        <v>480</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -6154,7 +6147,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>629</v>
+        <v>481</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6162,7 +6155,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>630</v>
+        <v>482</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6170,7 +6163,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>631</v>
+        <v>483</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -6178,7 +6171,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>632</v>
+        <v>484</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -6186,7 +6179,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>633</v>
+        <v>485</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -6200,7 +6193,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>634</v>
+        <v>486</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -6211,7 +6204,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>635</v>
+        <v>487</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -6219,7 +6212,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>636</v>
+        <v>488</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -6233,7 +6226,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>637</v>
+        <v>489</v>
       </c>
       <c r="B77">
         <v>3</v>
@@ -6247,7 +6240,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>638</v>
+        <v>490</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -6255,7 +6248,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>639</v>
+        <v>491</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -6263,7 +6256,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>640</v>
+        <v>492</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -6271,7 +6264,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>641</v>
+        <v>493</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -6279,7 +6272,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>642</v>
+        <v>494</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -6287,7 +6280,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>643</v>
+        <v>495</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -6295,7 +6288,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>644</v>
+        <v>496</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -6303,7 +6296,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>645</v>
+        <v>497</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -6317,7 +6310,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>646</v>
+        <v>498</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -6328,7 +6321,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>647</v>
+        <v>499</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -6336,7 +6329,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>648</v>
+        <v>500</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -6350,7 +6343,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>649</v>
+        <v>501</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -6358,7 +6351,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>650</v>
+        <v>502</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -6369,7 +6362,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>651</v>
+        <v>503</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -6380,7 +6373,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>652</v>
+        <v>504</v>
       </c>
       <c r="E92">
         <v>3</v>
@@ -6388,7 +6381,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>653</v>
+        <v>505</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -6396,7 +6389,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>654</v>
+        <v>506</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -6407,7 +6400,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>655</v>
+        <v>507</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -6415,7 +6408,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>656</v>
+        <v>508</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -6423,7 +6416,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>657</v>
+        <v>509</v>
       </c>
       <c r="B97">
         <v>3</v>
@@ -6434,7 +6427,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>658</v>
+        <v>510</v>
       </c>
       <c r="D98">
         <v>3</v>
@@ -6445,7 +6438,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>659</v>
+        <v>511</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -6453,7 +6446,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>660</v>
+        <v>512</v>
       </c>
       <c r="B100">
         <v>4</v>
@@ -6464,7 +6457,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>661</v>
+        <v>513</v>
       </c>
       <c r="B101">
         <v>3</v>
@@ -6475,7 +6468,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>662</v>
+        <v>514</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -6483,7 +6476,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>663</v>
+        <v>515</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -6494,7 +6487,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>664</v>
+        <v>516</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -6502,7 +6495,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>665</v>
+        <v>517</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -6513,12 +6506,12 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>666</v>
+        <v>518</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>667</v>
+        <v>519</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -6526,7 +6519,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>668</v>
+        <v>520</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -6537,7 +6530,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>669</v>
+        <v>521</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -6551,7 +6544,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>670</v>
+        <v>522</v>
       </c>
       <c r="B110">
         <v>10</v>
@@ -6562,7 +6555,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>671</v>
+        <v>523</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -6570,7 +6563,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>672</v>
+        <v>524</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -6578,7 +6571,7 @@
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>673</v>
+        <v>525</v>
       </c>
       <c r="B113">
         <v>6</v>
@@ -6589,7 +6582,7 @@
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>674</v>
+        <v>526</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -6603,7 +6596,7 @@
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>675</v>
+        <v>527</v>
       </c>
       <c r="B115">
         <v>8</v>
@@ -6614,7 +6607,7 @@
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>676</v>
+        <v>528</v>
       </c>
       <c r="B116">
         <v>8</v>
@@ -6628,7 +6621,7 @@
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>677</v>
+        <v>529</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -6636,7 +6629,7 @@
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>678</v>
+        <v>530</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -6647,7 +6640,7 @@
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>679</v>
+        <v>531</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -6658,7 +6651,7 @@
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>680</v>
+        <v>532</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -6669,7 +6662,7 @@
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>681</v>
+        <v>533</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -6680,7 +6673,7 @@
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>682</v>
+        <v>534</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -6688,7 +6681,7 @@
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>683</v>
+        <v>535</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -6702,7 +6695,7 @@
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>684</v>
+        <v>536</v>
       </c>
       <c r="B124">
         <v>5</v>
@@ -6713,7 +6706,7 @@
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>685</v>
+        <v>537</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -6724,7 +6717,7 @@
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>686</v>
+        <v>538</v>
       </c>
       <c r="B126">
         <v>7</v>
@@ -6735,7 +6728,7 @@
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>687</v>
+        <v>539</v>
       </c>
       <c r="B127">
         <v>5</v>
@@ -6746,7 +6739,7 @@
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>688</v>
+        <v>540</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -6757,7 +6750,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>689</v>
+        <v>541</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -6765,7 +6758,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>690</v>
+        <v>542</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -6773,7 +6766,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>691</v>
+        <v>543</v>
       </c>
       <c r="D131">
         <v>2</v>
@@ -6784,7 +6777,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>692</v>
+        <v>544</v>
       </c>
       <c r="B132">
         <v>7</v>
@@ -6795,7 +6788,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>693</v>
+        <v>545</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -6806,7 +6799,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>694</v>
+        <v>546</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -6814,7 +6807,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>695</v>
+        <v>547</v>
       </c>
       <c r="B135">
         <v>3</v>
@@ -6825,7 +6818,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>696</v>
+        <v>548</v>
       </c>
       <c r="B136">
         <v>2</v>
@@ -6836,7 +6829,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>697</v>
+        <v>549</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -6844,7 +6837,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>698</v>
+        <v>550</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -6852,7 +6845,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>699</v>
+        <v>551</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -6860,7 +6853,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>700</v>
+        <v>552</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -6868,7 +6861,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>701</v>
+        <v>553</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -6876,7 +6869,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>702</v>
+        <v>554</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -6884,7 +6877,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>703</v>
+        <v>555</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -6892,7 +6885,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>704</v>
+        <v>556</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -6900,7 +6893,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>705</v>
+        <v>557</v>
       </c>
       <c r="D145">
         <v>2</v>
@@ -6911,7 +6904,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>706</v>
+        <v>558</v>
       </c>
       <c r="B146">
         <v>3</v>
@@ -6922,7 +6915,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>707</v>
+        <v>559</v>
       </c>
       <c r="D147">
         <v>7</v>
@@ -6930,7 +6923,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>708</v>
+        <v>560</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -6938,7 +6931,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>709</v>
+        <v>561</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -6949,7 +6942,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>710</v>
+        <v>562</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -6957,7 +6950,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>713</v>
+        <v>565</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -6968,12 +6961,12 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>712</v>
+        <v>564</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>714</v>
+        <v>566</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -6984,7 +6977,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>715</v>
+        <v>567</v>
       </c>
       <c r="B154">
         <v>13</v>
@@ -6995,7 +6988,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>716</v>
+        <v>568</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -7006,7 +6999,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>717</v>
+        <v>569</v>
       </c>
       <c r="D156">
         <v>3</v>
@@ -7014,7 +7007,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>718</v>
+        <v>570</v>
       </c>
       <c r="B157">
         <v>4</v>
@@ -7025,7 +7018,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>719</v>
+        <v>571</v>
       </c>
       <c r="D158">
         <v>3</v>
@@ -7033,7 +7026,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>720</v>
+        <v>572</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -7041,7 +7034,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>721</v>
+        <v>573</v>
       </c>
       <c r="D160">
         <v>2</v>
@@ -7049,7 +7042,7 @@
     </row>
     <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>722</v>
+        <v>574</v>
       </c>
       <c r="D161">
         <v>3</v>
@@ -7057,7 +7050,7 @@
     </row>
     <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>723</v>
+        <v>575</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -7068,7 +7061,7 @@
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>724</v>
+        <v>576</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -7076,7 +7069,7 @@
     </row>
     <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>725</v>
+        <v>577</v>
       </c>
       <c r="B164">
         <v>5</v>
@@ -7087,7 +7080,7 @@
     </row>
     <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>726</v>
+        <v>578</v>
       </c>
       <c r="B165">
         <v>4</v>
@@ -7101,7 +7094,7 @@
     </row>
     <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>727</v>
+        <v>579</v>
       </c>
       <c r="D166">
         <v>7</v>
@@ -7109,7 +7102,7 @@
     </row>
     <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>728</v>
+        <v>580</v>
       </c>
       <c r="B167">
         <v>3</v>
@@ -7123,7 +7116,7 @@
     </row>
     <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>729</v>
+        <v>581</v>
       </c>
       <c r="D168">
         <v>3</v>
@@ -7134,7 +7127,7 @@
     </row>
     <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>730</v>
+        <v>582</v>
       </c>
       <c r="B169">
         <v>7</v>
@@ -7148,7 +7141,7 @@
     </row>
     <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>731</v>
+        <v>583</v>
       </c>
       <c r="B170">
         <v>6</v>
@@ -7165,7 +7158,7 @@
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>732</v>
+        <v>584</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -7173,7 +7166,7 @@
     </row>
     <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>733</v>
+        <v>585</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -7184,7 +7177,7 @@
     </row>
     <row r="173" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>734</v>
+        <v>586</v>
       </c>
       <c r="D173">
         <v>2</v>
@@ -7192,7 +7185,7 @@
     </row>
     <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>735</v>
+        <v>587</v>
       </c>
       <c r="D174">
         <v>3</v>
@@ -7200,7 +7193,7 @@
     </row>
     <row r="175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>736</v>
+        <v>588</v>
       </c>
       <c r="D175">
         <v>3</v>
@@ -7208,7 +7201,7 @@
     </row>
     <row r="176" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>738</v>
+        <v>590</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -7216,7 +7209,7 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>739</v>
+        <v>591</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -7227,7 +7220,7 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>740</v>
+        <v>592</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -7235,7 +7228,7 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>741</v>
+        <v>593</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -7243,7 +7236,7 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>742</v>
+        <v>594</v>
       </c>
       <c r="D180">
         <v>2</v>
@@ -7251,7 +7244,7 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>743</v>
+        <v>595</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -7259,7 +7252,7 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>744</v>
+        <v>596</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -7267,7 +7260,7 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>745</v>
+        <v>597</v>
       </c>
       <c r="B183">
         <v>3</v>
@@ -7281,7 +7274,7 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>746</v>
+        <v>598</v>
       </c>
       <c r="I184">
         <v>1</v>
@@ -7289,7 +7282,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>747</v>
+        <v>599</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -7297,7 +7290,7 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>748</v>
+        <v>600</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -7305,7 +7298,7 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>750</v>
+        <v>602</v>
       </c>
       <c r="D187">
         <v>3</v>
@@ -7313,7 +7306,7 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>751</v>
+        <v>603</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -7321,7 +7314,7 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>752</v>
+        <v>604</v>
       </c>
       <c r="D189">
         <v>3</v>
@@ -7329,7 +7322,7 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>753</v>
+        <v>605</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -7337,7 +7330,7 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>754</v>
+        <v>606</v>
       </c>
       <c r="B191">
         <v>2</v>
@@ -7348,7 +7341,7 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>755</v>
+        <v>607</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -7359,7 +7352,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>756</v>
+        <v>608</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -7370,7 +7363,7 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>757</v>
+        <v>609</v>
       </c>
       <c r="D194">
         <v>2</v>
@@ -7378,7 +7371,7 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>758</v>
+        <v>610</v>
       </c>
       <c r="I195">
         <v>1</v>
@@ -7386,7 +7379,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>759</v>
+        <v>611</v>
       </c>
       <c r="D196">
         <v>2</v>
@@ -7394,7 +7387,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>764</v>
+        <v>616</v>
       </c>
       <c r="I197">
         <v>1</v>
@@ -7402,7 +7395,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>765</v>
+        <v>617</v>
       </c>
       <c r="I198">
         <v>1</v>
@@ -7410,7 +7403,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>766</v>
+        <v>618</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -7418,7 +7411,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>767</v>
+        <v>619</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -7426,7 +7419,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>768</v>
+        <v>620</v>
       </c>
       <c r="D201">
         <v>2</v>
@@ -7434,7 +7427,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>769</v>
+        <v>621</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -7442,7 +7435,7 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>770</v>
+        <v>622</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -7450,7 +7443,7 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>771</v>
+        <v>623</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -7458,7 +7451,7 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>772</v>
+        <v>624</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -7466,7 +7459,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>773</v>
+        <v>625</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -7474,7 +7467,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>774</v>
+        <v>626</v>
       </c>
       <c r="E207">
         <v>3</v>
@@ -7482,7 +7475,7 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>775</v>
+        <v>627</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -7490,7 +7483,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>776</v>
+        <v>628</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -7498,7 +7491,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>777</v>
+        <v>629</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -7506,7 +7499,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>892</v>
+        <v>744</v>
       </c>
       <c r="B211">
         <v>4</v>
@@ -7517,7 +7510,7 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>893</v>
+        <v>745</v>
       </c>
       <c r="I212">
         <v>1</v>
@@ -7525,7 +7518,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>894</v>
+        <v>746</v>
       </c>
       <c r="B213">
         <v>8</v>
@@ -7536,7 +7529,7 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>895</v>
+        <v>747</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -7547,7 +7540,7 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="B215">
         <v>4</v>
@@ -7558,7 +7551,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>965</v>
+        <v>817</v>
       </c>
       <c r="B216">
         <v>6</v>
@@ -7569,62 +7562,83 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>91</v>
+        <v>933</v>
+      </c>
+      <c r="D217">
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>92</v>
+        <v>934</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>6</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>93</v>
+        <v>935</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>94</v>
+        <v>936</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -7635,18 +7649,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30093D95-D28B-DD42-A703-B59CAF299E47}">
-  <dimension ref="A1:CC243"/>
+  <dimension ref="A1:CC242"/>
   <sheetViews>
-    <sheetView topLeftCell="BI1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:CC1"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>467</v>
+        <v>319</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -7891,7 +7905,7 @@
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>474</v>
+        <v>326</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7905,7 +7919,7 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>711</v>
+        <v>563</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7919,7 +7933,7 @@
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>737</v>
+        <v>589</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -7930,7 +7944,7 @@
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>778</v>
+        <v>630</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -7938,7 +7952,7 @@
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>779</v>
+        <v>631</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -7949,7 +7963,7 @@
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>780</v>
+        <v>632</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -7960,7 +7974,7 @@
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>781</v>
+        <v>633</v>
       </c>
       <c r="U8">
         <v>5</v>
@@ -7968,7 +7982,7 @@
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>782</v>
+        <v>634</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -7979,7 +7993,7 @@
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>783</v>
+        <v>635</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -7990,7 +8004,7 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>785</v>
+        <v>637</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -7998,7 +8012,7 @@
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>784</v>
+        <v>636</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -8012,7 +8026,7 @@
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>786</v>
+        <v>638</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -8020,7 +8034,7 @@
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>787</v>
+        <v>639</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -8028,7 +8042,7 @@
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>788</v>
+        <v>640</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -8048,7 +8062,7 @@
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>789</v>
+        <v>641</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -8056,7 +8070,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>790</v>
+        <v>642</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -8067,7 +8081,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>791</v>
+        <v>643</v>
       </c>
       <c r="U18">
         <v>3</v>
@@ -8075,7 +8089,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>792</v>
+        <v>644</v>
       </c>
       <c r="U19">
         <v>3</v>
@@ -8083,7 +8097,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>793</v>
+        <v>645</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -8100,7 +8114,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>795</v>
+        <v>647</v>
       </c>
       <c r="B21">
         <v>15</v>
@@ -8108,7 +8122,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>794</v>
+        <v>646</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -8125,7 +8139,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>796</v>
+        <v>648</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -8133,7 +8147,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>797</v>
+        <v>649</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -8147,7 +8161,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>798</v>
+        <v>650</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -8155,7 +8169,7 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>799</v>
+        <v>651</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -8163,7 +8177,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>800</v>
+        <v>652</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -8174,7 +8188,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>801</v>
+        <v>653</v>
       </c>
       <c r="B28">
         <v>9</v>
@@ -8185,7 +8199,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>802</v>
+        <v>654</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -8196,7 +8210,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>803</v>
+        <v>655</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -8207,12 +8221,12 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>804</v>
+        <v>656</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>805</v>
+        <v>657</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -8220,7 +8234,7 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>806</v>
+        <v>658</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -8234,12 +8248,12 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>807</v>
+        <v>659</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>808</v>
+        <v>660</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -8247,7 +8261,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>809</v>
+        <v>661</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -8255,17 +8269,17 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>810</v>
+        <v>662</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>811</v>
+        <v>663</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>812</v>
+        <v>664</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -8273,7 +8287,7 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>813</v>
+        <v>665</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -8281,7 +8295,7 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>814</v>
+        <v>666</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -8289,7 +8303,7 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>815</v>
+        <v>667</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -8297,7 +8311,7 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>816</v>
+        <v>668</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -8305,7 +8319,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>817</v>
+        <v>669</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -8316,7 +8330,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>818</v>
+        <v>670</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -8324,7 +8338,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>819</v>
+        <v>671</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -8338,7 +8352,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>820</v>
+        <v>672</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -8346,7 +8360,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>821</v>
+        <v>673</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -8354,7 +8368,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>822</v>
+        <v>674</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -8362,7 +8376,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>823</v>
+        <v>675</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -8373,7 +8387,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>824</v>
+        <v>676</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -8387,7 +8401,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>825</v>
+        <v>677</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -8398,7 +8412,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>826</v>
+        <v>678</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -8409,7 +8423,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>827</v>
+        <v>679</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -8417,7 +8431,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>828</v>
+        <v>680</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -8425,7 +8439,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>829</v>
+        <v>681</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -8436,7 +8450,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>830</v>
+        <v>682</v>
       </c>
       <c r="B57">
         <v>21</v>
@@ -8447,7 +8461,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>831</v>
+        <v>683</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -8455,7 +8469,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>832</v>
+        <v>684</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -8463,7 +8477,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>833</v>
+        <v>685</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -8471,7 +8485,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>834</v>
+        <v>686</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -8482,7 +8496,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>835</v>
+        <v>687</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -8493,7 +8507,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>836</v>
+        <v>688</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -8507,7 +8521,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>837</v>
+        <v>689</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -8521,7 +8535,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>838</v>
+        <v>690</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -8535,7 +8549,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>839</v>
+        <v>691</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -8546,7 +8560,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>840</v>
+        <v>692</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -8557,7 +8571,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>841</v>
+        <v>693</v>
       </c>
       <c r="B68">
         <v>4</v>
@@ -8571,7 +8585,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>842</v>
+        <v>694</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -8585,7 +8599,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>844</v>
+        <v>696</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -8596,7 +8610,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>843</v>
+        <v>695</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -8610,7 +8624,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>845</v>
+        <v>697</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -8618,7 +8632,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>846</v>
+        <v>698</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -8626,7 +8640,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>847</v>
+        <v>699</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -8640,7 +8654,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>848</v>
+        <v>700</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -8651,7 +8665,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>849</v>
+        <v>701</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -8662,7 +8676,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>850</v>
+        <v>702</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -8670,7 +8684,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>851</v>
+        <v>703</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -8684,7 +8698,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>852</v>
+        <v>704</v>
       </c>
       <c r="B79">
         <v>4</v>
@@ -8695,7 +8709,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>853</v>
+        <v>705</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -8703,7 +8717,7 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>854</v>
+        <v>706</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -8714,7 +8728,7 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>855</v>
+        <v>707</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -8728,7 +8742,7 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>856</v>
+        <v>708</v>
       </c>
       <c r="B83">
         <v>7</v>
@@ -8742,7 +8756,7 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>857</v>
+        <v>709</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -8753,7 +8767,7 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>858</v>
+        <v>710</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -8764,7 +8778,7 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>859</v>
+        <v>711</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -8778,7 +8792,7 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>860</v>
+        <v>712</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -8786,7 +8800,7 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>861</v>
+        <v>713</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -8794,7 +8808,7 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>862</v>
+        <v>714</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -8802,7 +8816,7 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>863</v>
+        <v>715</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -8816,7 +8830,7 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>864</v>
+        <v>716</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -8827,7 +8841,7 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>865</v>
+        <v>717</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -8835,7 +8849,7 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>866</v>
+        <v>718</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -8843,7 +8857,7 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>867</v>
+        <v>719</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -8851,7 +8865,7 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>868</v>
+        <v>720</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -8865,7 +8879,7 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>869</v>
+        <v>721</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -8876,7 +8890,7 @@
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>870</v>
+        <v>722</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -8893,7 +8907,7 @@
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>871</v>
+        <v>723</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -8907,7 +8921,7 @@
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>872</v>
+        <v>724</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8915,7 +8929,7 @@
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>873</v>
+        <v>725</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8923,7 +8937,7 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>874</v>
+        <v>726</v>
       </c>
       <c r="B101">
         <v>8</v>
@@ -8937,7 +8951,7 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>875</v>
+        <v>727</v>
       </c>
       <c r="B102">
         <v>3</v>
@@ -8948,7 +8962,7 @@
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>876</v>
+        <v>728</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8956,7 +8970,7 @@
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>877</v>
+        <v>729</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -8970,7 +8984,7 @@
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>878</v>
+        <v>730</v>
       </c>
       <c r="E105">
         <v>2</v>
@@ -8981,7 +8995,7 @@
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>879</v>
+        <v>731</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -8992,7 +9006,7 @@
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>880</v>
+        <v>732</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -9003,7 +9017,7 @@
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>881</v>
+        <v>733</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -9014,7 +9028,7 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>882</v>
+        <v>734</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -9028,7 +9042,7 @@
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>883</v>
+        <v>735</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -9042,7 +9056,7 @@
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>884</v>
+        <v>736</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -9053,7 +9067,7 @@
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>885</v>
+        <v>737</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9067,7 +9081,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>886</v>
+        <v>738</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -9078,7 +9092,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>887</v>
+        <v>739</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -9089,7 +9103,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>888</v>
+        <v>740</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -9103,7 +9117,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>889</v>
+        <v>741</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -9111,7 +9125,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>890</v>
+        <v>742</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -9122,7 +9136,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>891</v>
+        <v>743</v>
       </c>
       <c r="D118">
         <v>3</v>
@@ -9130,7 +9144,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>897</v>
+        <v>749</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -9138,7 +9152,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>898</v>
+        <v>750</v>
       </c>
       <c r="D120">
         <v>2</v>
@@ -9146,7 +9160,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>899</v>
+        <v>751</v>
       </c>
       <c r="D121">
         <v>3</v>
@@ -9154,7 +9168,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>900</v>
+        <v>752</v>
       </c>
       <c r="D122">
         <v>4</v>
@@ -9162,7 +9176,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>901</v>
+        <v>753</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -9170,7 +9184,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>902</v>
+        <v>754</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -9178,7 +9192,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>903</v>
+        <v>755</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -9186,7 +9200,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>904</v>
+        <v>756</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -9194,7 +9208,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>905</v>
+        <v>757</v>
       </c>
       <c r="D127">
         <v>8</v>
@@ -9205,7 +9219,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>906</v>
+        <v>758</v>
       </c>
       <c r="D128">
         <v>5</v>
@@ -9216,7 +9230,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>907</v>
+        <v>759</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -9224,7 +9238,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>908</v>
+        <v>760</v>
       </c>
       <c r="B130">
         <v>2</v>
@@ -9235,7 +9249,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>909</v>
+        <v>761</v>
       </c>
       <c r="D131">
         <v>2</v>
@@ -9243,7 +9257,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>910</v>
+        <v>762</v>
       </c>
       <c r="D132">
         <v>3</v>
@@ -9251,7 +9265,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>911</v>
+        <v>763</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -9262,7 +9276,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>912</v>
+        <v>764</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -9270,7 +9284,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>913</v>
+        <v>765</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -9278,7 +9292,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>914</v>
+        <v>766</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -9286,7 +9300,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>915</v>
+        <v>767</v>
       </c>
       <c r="I137">
         <v>1</v>
@@ -9294,7 +9308,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>916</v>
+        <v>768</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -9302,7 +9316,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>917</v>
+        <v>769</v>
       </c>
       <c r="D139">
         <v>2</v>
@@ -9310,7 +9324,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>918</v>
+        <v>770</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -9318,7 +9332,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>919</v>
+        <v>771</v>
       </c>
       <c r="B141">
         <v>5</v>
@@ -9329,7 +9343,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>920</v>
+        <v>772</v>
       </c>
       <c r="D142">
         <v>2</v>
@@ -9337,7 +9351,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>921</v>
+        <v>773</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -9345,12 +9359,12 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>922</v>
+        <v>774</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>923</v>
+        <v>775</v>
       </c>
       <c r="D145">
         <v>3</v>
@@ -9358,7 +9372,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>924</v>
+        <v>776</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -9366,7 +9380,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>925</v>
+        <v>777</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -9374,7 +9388,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>926</v>
+        <v>778</v>
       </c>
       <c r="D148">
         <v>2</v>
@@ -9382,7 +9396,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>927</v>
+        <v>779</v>
       </c>
       <c r="D149">
         <v>3</v>
@@ -9390,7 +9404,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>928</v>
+        <v>780</v>
       </c>
       <c r="D150">
         <v>4</v>
@@ -9401,7 +9415,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>929</v>
+        <v>781</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -9415,7 +9429,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>930</v>
+        <v>782</v>
       </c>
       <c r="I152">
         <v>1</v>
@@ -9423,7 +9437,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>931</v>
+        <v>783</v>
       </c>
       <c r="D153">
         <v>6</v>
@@ -9431,7 +9445,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>932</v>
+        <v>784</v>
       </c>
       <c r="D154">
         <v>3</v>
@@ -9439,7 +9453,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>933</v>
+        <v>785</v>
       </c>
       <c r="D155">
         <v>8</v>
@@ -9447,7 +9461,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>934</v>
+        <v>786</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -9455,7 +9469,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>935</v>
+        <v>787</v>
       </c>
       <c r="D157">
         <v>2</v>
@@ -9463,7 +9477,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>936</v>
+        <v>788</v>
       </c>
       <c r="D158">
         <v>3</v>
@@ -9471,7 +9485,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>937</v>
+        <v>789</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -9482,7 +9496,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>938</v>
+        <v>790</v>
       </c>
       <c r="D160">
         <v>3</v>
@@ -9490,7 +9504,7 @@
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>939</v>
+        <v>791</v>
       </c>
       <c r="D161">
         <v>2</v>
@@ -9498,7 +9512,7 @@
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>940</v>
+        <v>792</v>
       </c>
       <c r="D162">
         <v>3</v>
@@ -9506,7 +9520,7 @@
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>941</v>
+        <v>793</v>
       </c>
       <c r="D163">
         <v>4</v>
@@ -9514,7 +9528,7 @@
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>942</v>
+        <v>794</v>
       </c>
       <c r="D164">
         <v>8</v>
@@ -9522,7 +9536,7 @@
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>943</v>
+        <v>795</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -9533,7 +9547,7 @@
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>944</v>
+        <v>796</v>
       </c>
       <c r="D166">
         <v>3</v>
@@ -9541,7 +9555,7 @@
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>945</v>
+        <v>797</v>
       </c>
       <c r="D167">
         <v>2</v>
@@ -9549,7 +9563,7 @@
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>946</v>
+        <v>798</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -9557,7 +9571,7 @@
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>947</v>
+        <v>799</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -9565,7 +9579,7 @@
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>948</v>
+        <v>800</v>
       </c>
       <c r="D170">
         <v>5</v>
@@ -9573,7 +9587,7 @@
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>949</v>
+        <v>801</v>
       </c>
       <c r="B171">
         <v>2</v>
@@ -9584,7 +9598,7 @@
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>950</v>
+        <v>802</v>
       </c>
       <c r="B172">
         <v>3</v>
@@ -9598,7 +9612,7 @@
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>951</v>
+        <v>803</v>
       </c>
       <c r="D173">
         <v>5</v>
@@ -9606,7 +9620,7 @@
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>952</v>
+        <v>804</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -9617,7 +9631,7 @@
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>953</v>
+        <v>805</v>
       </c>
       <c r="B175">
         <v>4</v>
@@ -9628,7 +9642,7 @@
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>954</v>
+        <v>806</v>
       </c>
       <c r="D176">
         <v>5</v>
@@ -9636,7 +9650,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>955</v>
+        <v>807</v>
       </c>
       <c r="B177">
         <v>4</v>
@@ -9647,7 +9661,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>956</v>
+        <v>808</v>
       </c>
       <c r="D178">
         <v>3</v>
@@ -9658,7 +9672,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>957</v>
+        <v>809</v>
       </c>
       <c r="B179">
         <v>2</v>
@@ -9672,7 +9686,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>958</v>
+        <v>810</v>
       </c>
       <c r="B180">
         <v>3</v>
@@ -9689,7 +9703,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>959</v>
+        <v>811</v>
       </c>
       <c r="B181">
         <v>4</v>
@@ -9706,7 +9720,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>960</v>
+        <v>812</v>
       </c>
       <c r="D182">
         <v>2</v>
@@ -9717,7 +9731,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>961</v>
+        <v>813</v>
       </c>
       <c r="D183">
         <v>2</v>
@@ -9725,7 +9739,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>962</v>
+        <v>814</v>
       </c>
       <c r="D184">
         <v>3</v>
@@ -9733,7 +9747,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>963</v>
+        <v>815</v>
       </c>
       <c r="D185">
         <v>3</v>
@@ -9741,98 +9755,98 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>966</v>
+        <v>818</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>967</v>
+        <v>819</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>968</v>
+        <v>820</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>969</v>
+        <v>821</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>970</v>
+        <v>822</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>971</v>
+        <v>823</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>972</v>
+        <v>824</v>
       </c>
       <c r="B192">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>973</v>
+        <v>825</v>
       </c>
       <c r="B193">
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>983</v>
+        <v>835</v>
       </c>
       <c r="B203">
         <v>4</v>
@@ -9844,210 +9858,235 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>985</v>
+        <v>837</v>
       </c>
       <c r="D205">
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>986</v>
+        <v>838</v>
       </c>
       <c r="D206">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
+        <v>937</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>938</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>2</v>
+      </c>
+      <c r="P208">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>939</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>940</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>942</v>
+      </c>
+      <c r="B211">
+        <v>2</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="AL211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="213" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="214" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="215" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="216" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
+    <row r="217" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
+    <row r="218" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
+    <row r="219" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
+    <row r="220" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
+    <row r="221" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
+    <row r="222" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
+    <row r="223" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
+    <row r="224" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -10060,16 +10099,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929C66FF-D652-1341-9F2D-9B5795C0D039}">
   <dimension ref="A1:CC102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L90" sqref="L90"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>467</v>
+        <v>319</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -10314,7 +10353,7 @@
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>987</v>
+        <v>839</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -10322,7 +10361,7 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>988</v>
+        <v>840</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -10330,7 +10369,7 @@
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>989</v>
+        <v>841</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -10338,7 +10377,7 @@
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>990</v>
+        <v>842</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -10346,22 +10385,22 @@
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>991</v>
+        <v>843</v>
       </c>
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>992</v>
+        <v>844</v>
       </c>
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>993</v>
+        <v>845</v>
       </c>
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>994</v>
+        <v>846</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -10369,7 +10408,7 @@
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>995</v>
+        <v>847</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -10377,7 +10416,7 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>996</v>
+        <v>848</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -10385,7 +10424,7 @@
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>997</v>
+        <v>849</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -10393,7 +10432,7 @@
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>998</v>
+        <v>850</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -10401,7 +10440,7 @@
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>999</v>
+        <v>851</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -10409,12 +10448,12 @@
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1000</v>
+        <v>852</v>
       </c>
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1001</v>
+        <v>853</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -10422,7 +10461,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1002</v>
+        <v>854</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -10430,12 +10469,12 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1003</v>
+        <v>855</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1004</v>
+        <v>856</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -10443,7 +10482,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1005</v>
+        <v>857</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -10451,12 +10490,12 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1006</v>
+        <v>858</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1007</v>
+        <v>859</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -10464,7 +10503,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1008</v>
+        <v>860</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -10472,17 +10511,17 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1009</v>
+        <v>861</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1010</v>
+        <v>862</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1011</v>
+        <v>863</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -10490,7 +10529,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1012</v>
+        <v>864</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -10498,7 +10537,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1013</v>
+        <v>865</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -10506,7 +10545,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1014</v>
+        <v>866</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -10514,7 +10553,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1015</v>
+        <v>867</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -10525,17 +10564,17 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1016</v>
+        <v>868</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1017</v>
+        <v>869</v>
       </c>
     </row>
     <row r="33" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1018</v>
+        <v>870</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -10546,7 +10585,7 @@
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1019</v>
+        <v>871</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -10554,12 +10593,12 @@
     </row>
     <row r="35" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1020</v>
+        <v>872</v>
       </c>
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1021</v>
+        <v>873</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -10573,12 +10612,12 @@
     </row>
     <row r="37" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1022</v>
+        <v>874</v>
       </c>
     </row>
     <row r="38" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1023</v>
+        <v>875</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -10589,7 +10628,7 @@
     </row>
     <row r="39" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1024</v>
+        <v>876</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -10597,7 +10636,7 @@
     </row>
     <row r="40" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1025</v>
+        <v>877</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -10605,7 +10644,7 @@
     </row>
     <row r="41" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1026</v>
+        <v>878</v>
       </c>
       <c r="K41">
         <v>3</v>
@@ -10613,7 +10652,7 @@
     </row>
     <row r="42" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1027</v>
+        <v>879</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -10621,7 +10660,7 @@
     </row>
     <row r="43" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1028</v>
+        <v>880</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -10629,7 +10668,7 @@
     </row>
     <row r="44" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1029</v>
+        <v>881</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -10637,7 +10676,7 @@
     </row>
     <row r="45" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1030</v>
+        <v>882</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -10645,7 +10684,7 @@
     </row>
     <row r="46" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1031</v>
+        <v>883</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -10653,7 +10692,7 @@
     </row>
     <row r="47" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1032</v>
+        <v>884</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -10661,7 +10700,7 @@
     </row>
     <row r="48" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1033</v>
+        <v>885</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -10672,7 +10711,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1034</v>
+        <v>886</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -10686,7 +10725,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1035</v>
+        <v>887</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -10694,7 +10733,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1036</v>
+        <v>888</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -10702,7 +10741,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1037</v>
+        <v>889</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -10710,7 +10749,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1038</v>
+        <v>890</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -10718,7 +10757,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1039</v>
+        <v>891</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -10726,7 +10765,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1040</v>
+        <v>892</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -10734,7 +10773,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1041</v>
+        <v>893</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -10742,22 +10781,22 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1042</v>
+        <v>894</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1043</v>
+        <v>895</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1044</v>
+        <v>896</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1045</v>
+        <v>897</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -10765,7 +10804,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1046</v>
+        <v>898</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -10776,7 +10815,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1047</v>
+        <v>899</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -10787,7 +10826,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1048</v>
+        <v>900</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -10798,7 +10837,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1049</v>
+        <v>901</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -10812,192 +10851,192 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1050</v>
+        <v>902</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1051</v>
+        <v>903</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1052</v>
+        <v>904</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1053</v>
+        <v>905</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1054</v>
+        <v>906</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1055</v>
+        <v>907</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1056</v>
+        <v>908</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1057</v>
+        <v>909</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1058</v>
+        <v>910</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1059</v>
+        <v>911</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1060</v>
+        <v>912</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1061</v>
+        <v>913</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1062</v>
+        <v>914</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1063</v>
+        <v>915</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1064</v>
+        <v>916</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1065</v>
+        <v>917</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1066</v>
+        <v>918</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1067</v>
+        <v>919</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1068</v>
+        <v>920</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1069</v>
+        <v>921</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1070</v>
+        <v>922</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1071</v>
+        <v>923</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1072</v>
+        <v>924</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1073</v>
+        <v>925</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1074</v>
+        <v>926</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1075</v>
+        <v>927</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1076</v>
+        <v>928</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1077</v>
+        <v>929</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1078</v>
+        <v>930</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1079</v>
+        <v>931</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1080</v>
+        <v>932</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -11007,974 +11046,1594 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC7AE76-5207-2B4B-8203-E570989F039C}">
-  <dimension ref="A1:A193"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC17035-600B-D541-89A7-F987A4931BD4}">
+  <dimension ref="A1:CC51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-    </row>
-    <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>943</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>944</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>946</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>948</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>950</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>951</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>953</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>954</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>958</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>959</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>960</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>961</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>962</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>963</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>964</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>965</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>966</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="P25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>967</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>968</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>969</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>970</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>974</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>978</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>980</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>981</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>983</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC7AE76-5207-2B4B-8203-E570989F039C}">
+  <dimension ref="A1:CC144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J76" sqref="J76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>
